--- a/Concat Query Master.xlsx
+++ b/Concat Query Master.xlsx
@@ -1,38 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\intest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E7E7FEBD-5BB2-463E-904D-9C4ADC6C66AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="2880" windowWidth="12705" windowHeight="7980" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Buram" sheetId="5" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
     <sheet name="Step UAT" sheetId="1" r:id="rId3"/>
-    <sheet name="CL FICO" sheetId="3" r:id="rId4"/>
-    <sheet name="CL MM" sheetId="4" r:id="rId5"/>
-    <sheet name="CL PM" sheetId="7" r:id="rId6"/>
-    <sheet name="CL PP" sheetId="8" r:id="rId7"/>
-    <sheet name="CL SD" sheetId="9" r:id="rId8"/>
+    <sheet name="CL ABAP" sheetId="10" r:id="rId4"/>
+    <sheet name="CL FICO" sheetId="3" r:id="rId5"/>
+    <sheet name="CL MM" sheetId="4" r:id="rId6"/>
+    <sheet name="CL PM" sheetId="7" r:id="rId7"/>
+    <sheet name="CL PP" sheetId="8" r:id="rId8"/>
+    <sheet name="CL SD" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="996">
   <si>
     <t>INSERT INTO `m_uat_step`(`no_scn`, `no_step`, `bp_step`, `tcode_step`, `modul_step`, `user_step`) VALUES ([value-1],[value-2],[value-3],[value-4],[value-5],[value-6])</t>
   </si>
@@ -1840,9 +1830,6 @@
     <t>Shipping Points Determination</t>
   </si>
   <si>
-    <t>Define Number Ranges For Sales Documents</t>
-  </si>
-  <si>
     <t>Assign MWST = 0%</t>
   </si>
   <si>
@@ -1855,99 +1842,9 @@
     <t>Create Customer</t>
   </si>
   <si>
-    <t>Table View Sloc</t>
-  </si>
-  <si>
-    <t>Tabel Numrange SD</t>
-  </si>
-  <si>
-    <t>Tabel Release Credit</t>
-  </si>
-  <si>
-    <t>Tabel Release Pricing</t>
-  </si>
-  <si>
-    <t>Tabel User Release Pricing</t>
-  </si>
-  <si>
-    <t>Table SJ hrs GI</t>
-  </si>
-  <si>
-    <t>Tabel Sign Invoice</t>
-  </si>
-  <si>
-    <t>Tabel Sign Surat Jalan</t>
-  </si>
-  <si>
-    <t>Tabel Kendaraan</t>
-  </si>
-  <si>
     <t>Tabel SPK</t>
   </si>
   <si>
-    <t>Tabel packing</t>
-  </si>
-  <si>
-    <t>Tabel group</t>
-  </si>
-  <si>
-    <t>Tabel Number Botol Asset</t>
-  </si>
-  <si>
-    <t>Tabel Number Botol Pinjaman</t>
-  </si>
-  <si>
-    <t>Tabel Batch</t>
-  </si>
-  <si>
-    <t>Tabel pemusatan</t>
-  </si>
-  <si>
-    <t>Tabel Customer Antar Grup</t>
-  </si>
-  <si>
-    <t>Table exit saldo MR</t>
-  </si>
-  <si>
-    <t>Table exit SN Btl MG</t>
-  </si>
-  <si>
-    <t>Table Bgrnd btl MR (BMC)</t>
-  </si>
-  <si>
-    <t>Tabel F.Pajak</t>
-  </si>
-  <si>
-    <t>Tabel area sirkulasi btl</t>
-  </si>
-  <si>
-    <t>Tabel daerah cust</t>
-  </si>
-  <si>
-    <t>Table Bgrnd btl MR</t>
-  </si>
-  <si>
-    <t>Table report Asset Btl</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Financial Accounting)</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Logistics-Plant)</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Logistics-Division)</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Sales &amp; Distribution)</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Logistics Execution)</t>
-  </si>
-  <si>
-    <t>Enterprise Structure (Logistics General)</t>
-  </si>
-  <si>
     <t>OX15</t>
   </si>
   <si>
@@ -1984,36 +1881,6 @@
     <t>V_TVST</t>
   </si>
   <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define company','OX15','','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define Credit Control Area','OB45','','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define Business Area','OX03','','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics-Plant)','Define Plant','OX10','','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics-Division)','Define Division','OVXD','V_TSPA','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Define, copy, delete, check sales organization','OVX5','V_TVKO','Create','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Define, copy, delete, check distribution channel','OVXI','V_TVTW','Check Only','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Maintain sales office','OVX1','V_TVBUR','Create','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics Execution)','Define, copy, delete, check shipping point','OVXD','V_TVST','Create','SD');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics General)','Assign Business Area to Plant/Valuation Area and Division','OMJ7','','Create','SD');</t>
-  </si>
-  <si>
     <t>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('2','Sony','sony','Sony','ABAP');</t>
   </si>
   <si>
@@ -2090,16 +1957,1070 @@
   </si>
   <si>
     <t>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('1','Admin','admin','Administrator','ABAP');</t>
+  </si>
+  <si>
+    <t>ZFIRPT_008_F01 FI Reporting - Kas Bank, Voucher</t>
+  </si>
+  <si>
+    <t>ZFIRPT_038_F01 Cetak Faktur Pajak</t>
+  </si>
+  <si>
+    <t>ZFIRPT_039_F01 Re-print Faktur Pajak Standart</t>
+  </si>
+  <si>
+    <t>ZFIRPT_040_F01 Retur Faktur Pajak</t>
+  </si>
+  <si>
+    <t>ZFIRPT_042_F01 Cetak Faktur Pajak Own Consumption</t>
+  </si>
+  <si>
+    <t>ZFIRPT_043_F01 Re-print Faktur Pajak Own Consumption</t>
+  </si>
+  <si>
+    <t>ZFIENH_007_F01 Tanda Terima Nota Penjualan</t>
+  </si>
+  <si>
+    <t>ZMMENH_006_F01 Penerimaan Barang Produksi (ZMMENH006)</t>
+  </si>
+  <si>
+    <t>ZMMENH_007 Transfer Batch (ZMMENH007)</t>
+  </si>
+  <si>
+    <t>ZMMENH_008 Transfer Posting Storage Location</t>
+  </si>
+  <si>
+    <t>ZMMENH_008_F01 Transfer Posting Storage Location</t>
+  </si>
+  <si>
+    <t>ZMMENH_009_F01 Transfer Posting Storage Location Khusus Speciality + MG</t>
+  </si>
+  <si>
+    <t>ZMMENH_012 Posting Pembelian</t>
+  </si>
+  <si>
+    <t>ZMMENH_012_F01 Posting Pembelian</t>
+  </si>
+  <si>
+    <t>ZMMENH_013_F01 Good Issue (MB1A)</t>
+  </si>
+  <si>
+    <t>ZMMENH_015 Program Transfer Produksi PGS dan Filling CO2</t>
+  </si>
+  <si>
+    <t>ZMMENH_027 Transfer Posting Storage Location</t>
+  </si>
+  <si>
+    <t>ZMMENH_027_F01 Transfer Posting Storage Location</t>
+  </si>
+  <si>
+    <t>ZMMRPT_001_F01 Print Form</t>
+  </si>
+  <si>
+    <t>ZMMRPT_009_F01 Cetak SJ titipan (5K2),Pinjaman(502), Pengisian(541), STO (351)</t>
+  </si>
+  <si>
+    <t>ZSDENH_023_F01 Transaksi Stock Transfer Order</t>
+  </si>
+  <si>
+    <t>ZSDENH_040_F01 Transfer Packing List Order</t>
+  </si>
+  <si>
+    <t>ZSDENH_040_SCR1 Transfer Packing List Order</t>
+  </si>
+  <si>
+    <t>ZSDENH_040_SCR2 Transfer Packing List Order</t>
+  </si>
+  <si>
+    <t>ZSDRPT_001_F01 SD Reporting</t>
+  </si>
+  <si>
+    <t>ZSDRPT_004_F01 Cetak invoice</t>
+  </si>
+  <si>
+    <t>ZSDRPT_005_F01 Cetak Faktur Pajak</t>
+  </si>
+  <si>
+    <t>ZSDRPT_028_F02 Laporan Sirkulasi Botol</t>
+  </si>
+  <si>
+    <t>Koreksi Report</t>
+  </si>
+  <si>
+    <t>ZUSEREXIT_SD</t>
+  </si>
+  <si>
+    <t>ZUSEREXIT_SD2</t>
+  </si>
+  <si>
+    <t>Koreksi Tabel</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Invoice Penjualan</t>
+  </si>
+  <si>
+    <t>Kas Bank Masuk</t>
+  </si>
+  <si>
+    <t>Kas Bank Keluar</t>
+  </si>
+  <si>
+    <t>Cek Masuk</t>
+  </si>
+  <si>
+    <t>Cek Keluar</t>
+  </si>
+  <si>
+    <t>Jurnal Memorial</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Penyesuaian Smartforms</t>
+  </si>
+  <si>
+    <t>FM ZCHECKGL_BA</t>
+  </si>
+  <si>
+    <t>MV50AFZ1</t>
+  </si>
+  <si>
+    <t>ZXMBCU02</t>
+  </si>
+  <si>
+    <t>Koreksi Exit</t>
+  </si>
+  <si>
+    <t>MM BALANCE BACKGROUND</t>
+  </si>
+  <si>
+    <t>MM BALANCE BACKGROUND CV</t>
+  </si>
+  <si>
+    <t>MM BALANCE BACKGROUND PJ</t>
+  </si>
+  <si>
+    <t>Pembuatan Background Job</t>
+  </si>
+  <si>
+    <t>Opsional</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_008_F01 FI Reporting - Kas Bank, Voucher','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_038_F01 Cetak Faktur Pajak','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_039_F01 Re-print Faktur Pajak Standart','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_040_F01 Retur Faktur Pajak','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_042_F01 Cetak Faktur Pajak Own Consumption','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_043_F01 Re-print Faktur Pajak Own Consumption','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIENH_007_F01 Tanda Terima Nota Penjualan','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_006_F01 Penerimaan Barang Produksi (ZMMENH006)','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_007 Transfer Batch (ZMMENH007)','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_008 Transfer Posting Storage Location','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_008_F01 Transfer Posting Storage Location','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_009_F01 Transfer Posting Storage Location Khusus Speciality + MG','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_012 Posting Pembelian','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_012_F01 Posting Pembelian','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_013_F01 Good Issue (MB1A)','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_015 Program Transfer Produksi PGS dan Filling CO2','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_027 Transfer Posting Storage Location','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_027_F01 Transfer Posting Storage Location','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMRPT_001_F01 Print Form','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMRPT_009_F01 Cetak SJ titipan (5K2),Pinjaman(502), Pengisian(541), STO (351)','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_023_F01 Transaksi Stock Transfer Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_F01 Transfer Packing List Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_SCR1 Transfer Packing List Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_SCR2 Transfer Packing List Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_001_F01 SD Reporting','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_004_F01 Cetak invoice','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_005_F01 Cetak Faktur Pajak','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_028_F02 Laporan Sirkulasi Botol','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Tabel','ZUSEREXIT_SD','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Tabel','ZUSEREXIT_SD2','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','SO','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','SJ','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Invoice Penjualan','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Kas Bank Masuk','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Kas Bank Keluar','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Cek Masuk','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Cek Keluar','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Jurnal Memorial','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','PO','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','FM ZCHECKGL_BA','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','MV50AFZ1','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','ZXMBCU02','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND','','','Opsional','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND CV','','','Opsional','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND PJ','','','Opsional','ABAP');</t>
+  </si>
+  <si>
+    <t>(CC) ZABENH_001_F01 Lock / Unlock User</t>
+  </si>
+  <si>
+    <t>(CC) ZBIBO_CASHFLOW_FO1 Cashflow</t>
+  </si>
+  <si>
+    <t>(CC) ZBIBO_PR Report List Purchase Requisitions</t>
+  </si>
+  <si>
+    <t>(CC) ZCASHFLOW_F01 Cashflow</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_007_F01 Tanda Terima Nota Penjualan</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_008 Open and Close Posting Periods - Background Jobs</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_008_F01 Open and Close Posting Periods - Background Jobs</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_019_F01 Program Input Bank Keluar</t>
+  </si>
+  <si>
+    <t>(CC) ZFIRPT_056 Delivery Productivity Report - Actual</t>
+  </si>
+  <si>
+    <t>(CC) ZFIRPT_059 Plan and Actual Comparison for Statistical Key Figure</t>
+  </si>
+  <si>
+    <t>(CC) ZFIRPT_065 Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain</t>
+  </si>
+  <si>
+    <t>(CC) ZFIRPT_065_TOP Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain</t>
+  </si>
+  <si>
+    <t>(CC) ZHRRPT_002_F01 Laporan Karyawan Masuk / Keluar / Turn Over Karyawan</t>
+  </si>
+  <si>
+    <t>(CC) ZINIT_BAL3 MM Balance Background</t>
+  </si>
+  <si>
+    <t>(CC) ZFIINT_001 Upload Interface Data Sales &amp; Cash Bank</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_002 MM - Updating Previous Period</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_002_F01 MM - Updating Previous Period</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_012_F01 Posting Pembelian</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_020 MM Balance Background</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_021 MM Balance Background stock di Customer and Vendor</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_029 MM Balance Background stock pinjaman</t>
+  </si>
+  <si>
+    <t>(CC) ZMMENH_030 MM Balance Background stock MR Customer</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_010_F01 Timbangan - Liquid</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_012_F01 Pricing Online SD</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_023 Transaksi Stock Transfer Order</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_039 Packing List Order</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_040 Transfer Packing List Order</t>
+  </si>
+  <si>
+    <t>(CC) ZSDENH_054_F01 Timbangan - Liquid</t>
+  </si>
+  <si>
+    <t>(CC) ZRGGBS000</t>
+  </si>
+  <si>
+    <t>(CC) FM ZCHECKGL_ORDER</t>
+  </si>
+  <si>
+    <t>(CC) ZXCOFU13</t>
+  </si>
+  <si>
+    <t>(CC) ZXCOFU14</t>
+  </si>
+  <si>
+    <t>(CC) ZXCOFU23</t>
+  </si>
+  <si>
+    <t>(CC) OPEN/CLOSE POSTING PERIODS</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_013</t>
+  </si>
+  <si>
+    <t>(CC) ZFIENH_009 FLQAC &amp; FLQAD</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZABENH_001_F01 Lock / Unlock User','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZBIBO_CASHFLOW_FO1 Cashflow','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZBIBO_PR Report List Purchase Requisitions','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZCASHFLOW_F01 Cashflow','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_007_F01 Tanda Terima Nota Penjualan','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_008 Open and Close Posting Periods - Background Jobs','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_008_F01 Open and Close Posting Periods - Background Jobs','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_019_F01 Program Input Bank Keluar','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_056 Delivery Productivity Report - Actual','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_059 Plan and Actual Comparison for Statistical Key Figure','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_065 Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_065_TOP Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZHRRPT_002_F01 Laporan Karyawan Masuk / Keluar / Turn Over Karyawan','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZINIT_BAL3 MM Balance Background','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIINT_001 Upload Interface Data Sales &amp; Cash Bank','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_002 MM - Updating Previous Period','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_002_F01 MM - Updating Previous Period','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_012_F01 Posting Pembelian','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_020 MM Balance Background','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_021 MM Balance Background stock di Customer and Vendor','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_029 MM Balance Background stock pinjaman','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_030 MM Balance Background stock MR Customer','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_010_F01 Timbangan - Liquid','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_012_F01 Pricing Online SD','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_023 Transaksi Stock Transfer Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_039 Packing List Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_040 Transfer Packing List Order','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_054_F01 Timbangan - Liquid','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZRGGBS000','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) FM ZCHECKGL_ORDER','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU13','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU14','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU23','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) OPEN/CLOSE POSTING PERIODS','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) ZFIENH_013','','','','ABAP');</t>
+  </si>
+  <si>
+    <t>Modifikasi</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) ZFIENH_009 FLQAC &amp; FLQAD','','','Modifikasi','ABAP');</t>
+  </si>
+  <si>
+    <t>OVX3 / OVX3N (V_TVKO_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVXK (V_TVKOV_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVXA /  OVXAN (V_TVKOS_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVXG (V_TVTA_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVXM (V_TVKBZ_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVX6 (V_TVKWZ_ASSIGN)</t>
+  </si>
+  <si>
+    <t>OVFL (V_TVTA_KKB)</t>
+  </si>
+  <si>
+    <t>OVF2 (V_TVTA_GRE)</t>
+  </si>
+  <si>
+    <t>OVX2 (V_T134G_WS)</t>
+  </si>
+  <si>
+    <t>OVXC</t>
+  </si>
+  <si>
+    <t>OVRP</t>
+  </si>
+  <si>
+    <t>OVRO</t>
+  </si>
+  <si>
+    <t>OVAM</t>
+  </si>
+  <si>
+    <t>OVAN</t>
+  </si>
+  <si>
+    <t>OVKK</t>
+  </si>
+  <si>
+    <t>V_TVKO_TAX</t>
+  </si>
+  <si>
+    <t>VKOA (C001)</t>
+  </si>
+  <si>
+    <t>VKOA (C003)</t>
+  </si>
+  <si>
+    <t>VKOA (C005)</t>
+  </si>
+  <si>
+    <t>VKOA (C501)</t>
+  </si>
+  <si>
+    <t>OVAO (V_TVKOS_AU)</t>
+  </si>
+  <si>
+    <t>OVAO (V_TVKOV_AU)</t>
+  </si>
+  <si>
+    <t>OVAO (V_TVAKZ)</t>
+  </si>
+  <si>
+    <t>V80C</t>
+  </si>
+  <si>
+    <t>0VVW</t>
+  </si>
+  <si>
+    <t>VN01</t>
+  </si>
+  <si>
+    <t>VK11</t>
+  </si>
+  <si>
+    <t>LSMW</t>
+  </si>
+  <si>
+    <t>XD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSDRPT_035_SLOCV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNUMRANGE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSD_NUMBER </t>
+  </si>
+  <si>
+    <t>ZRELEASE_CREDIT</t>
+  </si>
+  <si>
+    <t>ZPRICING_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPRICING_STATUSV </t>
+  </si>
+  <si>
+    <t>ZCETAKSJEXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZINV_HORMAT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSJ_KEPALA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNKEND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNUM_LIQ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPACKNR </t>
+  </si>
+  <si>
+    <t>ZANTARGRUP</t>
+  </si>
+  <si>
+    <t>ZTBANR</t>
+  </si>
+  <si>
+    <t>ZTBPNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTERPUSAT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUSEREXIT_SD  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUSEREXIT_SD2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPLANT_MR_FULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZGSBER_2008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDAERAH_BOTOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDAERAH_CUST  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSDRPT_028_BGND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTTD_DAFTAR_ASET  </t>
+  </si>
+  <si>
+    <t>Table View Sloc (View of ZSDRPT_035_SLOC)</t>
+  </si>
+  <si>
+    <t>Tabel Numrange SD (Number Ranges Mapping Table)</t>
+  </si>
+  <si>
+    <t>Tabel Numrange SD (Tabel Numbering Modul SD)</t>
+  </si>
+  <si>
+    <t>Tabel Release Credit (Tabel Hak Release Credit Limit)</t>
+  </si>
+  <si>
+    <t>Tabel Release Pricing (Master User and Release Code)</t>
+  </si>
+  <si>
+    <t>Tabel User Release Pricing (Maintenance view of ZPRICING_STATUS)</t>
+  </si>
+  <si>
+    <t>Table SJ hrs GI (User Exit untuk cetak surat jalan &amp; GI)</t>
+  </si>
+  <si>
+    <t>Tabel Sign Invoice (Hormat Kami Untuk Sign Invoice)</t>
+  </si>
+  <si>
+    <t>Tabel Sign Surat Jalan (Nama kepala untuk sign surat jalan)</t>
+  </si>
+  <si>
+    <t>Tabel Kendaraan (Number Ranges for Surat Perintah Kirim (SPK) - Liquid)</t>
+  </si>
+  <si>
+    <t>Tabel packing (Number Range for Packing List Order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabel group (Tabel definisi customer  antar grup)   </t>
+  </si>
+  <si>
+    <t>Tabel Number Botol Asset (Tabel Number Botol Asset)</t>
+  </si>
+  <si>
+    <t>Tabel Number Botol Pinjaman (Tabel Number Botol Pinjaman)</t>
+  </si>
+  <si>
+    <t>Tabel Batch (Tabel Live Batch)</t>
+  </si>
+  <si>
+    <t>Tabel pemusatan (Customer yang termasuk pajak terpusat)</t>
+  </si>
+  <si>
+    <t>Tabel Customer Antar Grup (Customer Antar Grup)</t>
+  </si>
+  <si>
+    <t>Table exit saldo MR (Table control user exit SD)</t>
+  </si>
+  <si>
+    <t>Table exit SN Btl MG (Table control user exit SD)</t>
+  </si>
+  <si>
+    <t>Table Bgrnd btl MR (BMC) (Cek kode barang botol MR full name (BMC))</t>
+  </si>
+  <si>
+    <t>Tabel F.Pajak (FPS-Business Area )</t>
+  </si>
+  <si>
+    <t>Tabel area sirkulasi btl (Daerah Sirkulasi Botol)</t>
+  </si>
+  <si>
+    <t>Tabel daerah cust (Master daerah customer untuk sirkulasi botol)</t>
+  </si>
+  <si>
+    <t>Table Bgrnd btl MR (Tabel hasil background zsdrpt_028 u/ botol MR)</t>
+  </si>
+  <si>
+    <t>Table report Asset Btl (Table Penanda Tangan Daftar Asset)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Def: Financial Accounting)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Def: Logistics-Plant)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Def: Logistics-Division)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Def: Sales &amp; Distribution)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Def: Logistics Execution)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Asg: Logistics General)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Asg: Sales &amp; Distribution)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Asg: BA Acct Assignment)</t>
+  </si>
+  <si>
+    <t>Enterprise Structure (Asg: Logistics Execution)</t>
+  </si>
+  <si>
+    <t>Logistics General (LIS Updating Control)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (Master Data)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (Assign Pricing Procedure)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (Taxes)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (Assign G/L)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)</t>
+  </si>
+  <si>
+    <t>Sales &amp; Distribution (CAS Sales Summary)</t>
+  </si>
+  <si>
+    <t>Logistics Execution (Ship Point &amp; Goods Rcv Point)</t>
+  </si>
+  <si>
+    <t>Table (SM30)</t>
+  </si>
+  <si>
+    <t>Number Range SD</t>
+  </si>
+  <si>
+    <t>Define Number Ranges for Sales Doc.</t>
+  </si>
+  <si>
+    <t>V_TVKO_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVKOV_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVKOS_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVTA_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVKBZ_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVKWZ_ASSIGN</t>
+  </si>
+  <si>
+    <t>V_TVTA_KKB</t>
+  </si>
+  <si>
+    <t>V_TVTA_GRE</t>
+  </si>
+  <si>
+    <t>V_T134G_WS</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C501</t>
+  </si>
+  <si>
+    <t>V_TVKOS_AU</t>
+  </si>
+  <si>
+    <t>V_TVKOV_AU</t>
+  </si>
+  <si>
+    <t>V_TVAKZ</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define company','OX15','','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define Credit Control Area','OB45','','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define Business Area','OX03','','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics-Plant)','Define Plant','OX10','','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics-Division)','Define Division','OVXD','V_TSPA','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Define, copy, delete, check sales organization','OVX5','V_TVKO','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Define, copy, delete, check distribution channel','OVXI','V_TVTW','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Maintain sales office','OVX1','V_TVBUR','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics Execution)','Define, copy, delete, check shipping point','OVXD','V_TVST','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Logistics General)','Assign Business Area to Plant/Valuation Area and Division','OMJ7','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales organization to company code','OVX3 / OVX3N (V_TVKO_ASSIGN)','V_TVKO_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign distribution channel to sales organization','OVXK (V_TVKOV_ASSIGN)','V_TVKOV_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign division to sales organization','OVXA /  OVXAN (V_TVKOS_ASSIGN)','V_TVKOS_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Set up sales area','OVXG (V_TVTA_ASSIGN)','V_TVTA_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales office to sales area','OVXM (V_TVKBZ_ASSIGN)','V_TVKBZ_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales organization - distribution channel - plant','OVX6 (V_TVKWZ_ASSIGN)','V_TVKWZ_ASSIGN','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales area to credit control area','OVFL (V_TVTA_KKB)','V_TVTA_KKB','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: BA Acct Assignment)','Define Rules By Sales Area','OVF2 (V_TVTA_GRE)','V_TVTA_GRE','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: BA Acct Assignment)','Assign Business Area To Plant And Division','OVX2 (V_T134G_WS)','V_T134G_WS','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Logistics Execution)','Assign shipping point to plant','OVXC','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics General (LIS Updating Control)','Assign Update Group at Item Level','OVRP','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics General (LIS Updating Control)','Assign Update Group at Header Level','OVRO','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Master Data)','Combine distribution channels','OVAM','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Master Data)','Combine divisions','OVAN','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Pricing Procedure)','Define Pricing Procedure Determination','OVKK','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Pricing Procedure)','Define Pricing Procedure Determination (IB)','OVKK','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Taxes)','Maintain Sales Tax Identification Number Determination','V_TVKO_TAX','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','1 – Cust.Grp/MaterialGrp/AcctKey','VKOA (C001)','C001','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','3 – Material Grp/Acct Key','VKOA (C003)','C003','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','5 – Acct Key','VKOA (C005)','C005','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','501 – Sales org./Ord.reason/Acct key','VKOA (C501)','C501','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine sales organizations','OVAO (V_TVKOS_AU)','V_TVKOS_AU','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine distribution channels','OVAO (V_TVKOV_AU)','V_TVKOV_AU','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine divisions','OVAO (V_TVKOS_AU)','V_TVKOS_AU','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Assign sales order types permitted for sales areas','OVAO (V_TVAKZ)','V_TVAKZ','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (CAS Sales Summary)','Assign Default View To User','V80C','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics Execution (Ship Point &amp; Goods Rcv Point)','Shipping Points Determination','0VVW','','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Define Number Ranges for Sales Doc.','VN01','','Create','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Assign MWST = 0%','VK11','','Create','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','BOM MP','LSMW','','Create','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','BOM MR','LSMW','','Create','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Create Customer','XD01','','Create','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table View Sloc (View of ZSDRPT_035_SLOC)','ZSDRPT_035_SLOCV ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Numrange SD (Number Ranges Mapping Table)','ZNUMRANGE  ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Numrange SD (Tabel Numbering Modul SD)','ZSD_NUMBER ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Release Credit (Tabel Hak Release Credit Limit)','ZRELEASE_CREDIT','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Release Pricing (Master User and Release Code)','ZPRICING_USER','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel User Release Pricing (Maintenance view of ZPRICING_STATUS)','ZPRICING_STATUSV ','SM30','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table SJ hrs GI (User Exit untuk cetak surat jalan &amp; GI)','ZCETAKSJEXIT','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Sign Invoice (Hormat Kami Untuk Sign Invoice)','ZINV_HORMAT  ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Sign Surat Jalan (Nama kepala untuk sign surat jalan)','ZSJ_KEPALA ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Kendaraan (Number Ranges for Surat Perintah Kirim (SPK) - Liquid)','ZNKEND ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel SPK','ZNUM_LIQ  ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel packing (Number Range for Packing List Order)','ZPACKNR ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel group (Tabel definisi customer  antar grup)   ','ZANTARGRUP','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Number Botol Asset (Tabel Number Botol Asset)','ZTBANR','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Number Botol Pinjaman (Tabel Number Botol Pinjaman)','ZTBPNR','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Batch (Tabel Live Batch)','ZLIVE_BATCH','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel pemusatan (Customer yang termasuk pajak terpusat)','ZTERPUSAT    ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Customer Antar Grup (Customer Antar Grup)','ZANTARGRUP','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table exit saldo MR (Table control user exit SD)','ZUSEREXIT_SD  ','SM30','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table exit SN Btl MG (Table control user exit SD)','ZUSEREXIT_SD2 ','SM30','Check Only','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table Bgrnd btl MR (BMC) (Cek kode barang botol MR full name (BMC))','ZPLANT_MR_FULL ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel F.Pajak (FPS-Business Area )','ZGSBER_2008 ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel area sirkulasi btl (Daerah Sirkulasi Botol)','ZDAERAH_BOTOL ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel daerah cust (Master daerah customer untuk sirkulasi botol)','ZDAERAH_CUST  ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table Bgrnd btl MR (Tabel hasil background zsdrpt_028 u/ botol MR)','ZSDRPT_028_BGND ','SM30','Create','SD');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table report Asset Btl (Table Penanda Tangan Daftar Asset)','ZTTD_DAFTAR_ASET  ','SM30','Create','SD');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,8 +3155,38 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2266,8 +3217,14 @@
         <bgColor indexed="34"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2519,12 +3476,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2738,21 +3713,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="5">
+    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3047,21 +4032,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:E101"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +5574,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E41 E44:E60 E1:E38 D75:E77 D79:E81 D85:E89 E90:E91 E94:E100 D63:E73" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E41 E44:E60 E1:E38 D75:E77 D79:E81 D85:E89 E90:E91 E94:E100 D63:E73">
       <formula1>"Create,Check Only,-,,,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4599,10 +5584,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H25"/>
     </sheetView>
   </sheetViews>
@@ -4626,13 +5611,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="D3" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="E3" t="s">
         <v>99</v>
@@ -4642,7 +5627,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('1','Admin','admin','Administrator','ABAP');</v>
       </c>
       <c r="H3" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4666,7 +5651,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('2','Sony','sony','Sony','ABAP');</v>
       </c>
       <c r="H4" t="s">
-        <v>660</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4690,7 +5675,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('3','Ferry','ferry','Ferry','ABAP');</v>
       </c>
       <c r="H5" t="s">
-        <v>661</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4714,7 +5699,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('4','Faris','faris','Faris','ABAP');</v>
       </c>
       <c r="H6" t="s">
-        <v>662</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4738,7 +5723,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('5','Johan','johan','Johan','ABAP');</v>
       </c>
       <c r="H7" t="s">
-        <v>663</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4762,7 +5747,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('6','Tjandra','tjandra','Tjandra','BASIS');</v>
       </c>
       <c r="H8" t="s">
-        <v>664</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4786,7 +5771,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('7','Andrean','andrean','Andrean','BASIS');</v>
       </c>
       <c r="H9" t="s">
-        <v>665</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4810,7 +5795,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('8','Nurnia','nurnia','Nurnia','FICO');</v>
       </c>
       <c r="H10" t="s">
-        <v>666</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4834,7 +5819,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('9','Yohanes','yohanes','Yohanes','FICO');</v>
       </c>
       <c r="H11" t="s">
-        <v>667</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,7 +5843,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('10','Putra','putra','Putra','FICO');</v>
       </c>
       <c r="H12" t="s">
-        <v>668</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4882,7 +5867,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('11','Aris','aris','Aris','FICO');</v>
       </c>
       <c r="H13" t="s">
-        <v>669</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,7 +5891,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('12','Purwandi','purwandi','Purwandi','MM');</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4930,7 +5915,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('13','Nino','nino','Nino','MM');</v>
       </c>
       <c r="H15" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4954,7 +5939,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('14','Thomas','thomas','Thomas','MM');</v>
       </c>
       <c r="H16" t="s">
-        <v>672</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4978,7 +5963,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('15','Zamroni','zamroni','Zamroni','PM');</v>
       </c>
       <c r="H17" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5002,7 +5987,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('16','Achmad','achmad','Achmad','PM');</v>
       </c>
       <c r="H18" t="s">
-        <v>674</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5026,7 +6011,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('17','Rita','rita','Rita','PP');</v>
       </c>
       <c r="H19" t="s">
-        <v>675</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5050,7 +6035,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('18','Fitri','fitri','Fitri','PP');</v>
       </c>
       <c r="H20" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5074,7 +6059,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('19','Abta','abta','Abta','PP');</v>
       </c>
       <c r="H21" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5098,7 +6083,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('20','Rendra','rendra','Rendra','SD');</v>
       </c>
       <c r="H22" t="s">
-        <v>678</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,7 +6107,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('21','Suyanto','suyanto','Suyanto','SD');</v>
       </c>
       <c r="H23" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,7 +6131,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('22','Alex','alex','Alex','SD');</v>
       </c>
       <c r="H24" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5170,7 +6155,7 @@
         <v>INSERT INTO user(userno,userid,userpwd,userlname,usermodul) VALUES ('23','Wasti','wasti','Wasti','SD');</v>
       </c>
       <c r="H25" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +6165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5808,11 +6793,1512 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE($A$2,A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_008_F01 FI Reporting - Kas Bank, Voucher','','','','ABAP');</v>
+      </c>
+      <c r="H4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G68" si="0">CONCATENATE($A$2,A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_038_F01 Cetak Faktur Pajak','','','','ABAP');</v>
+      </c>
+      <c r="H5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_039_F01 Re-print Faktur Pajak Standart','','','','ABAP');</v>
+      </c>
+      <c r="H6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_040_F01 Retur Faktur Pajak','','','','ABAP');</v>
+      </c>
+      <c r="H7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>649</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_042_F01 Cetak Faktur Pajak Own Consumption','','','','ABAP');</v>
+      </c>
+      <c r="H8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>650</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIRPT_043_F01 Re-print Faktur Pajak Own Consumption','','','','ABAP');</v>
+      </c>
+      <c r="H9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZFIENH_007_F01 Tanda Terima Nota Penjualan','','','','ABAP');</v>
+      </c>
+      <c r="H10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>652</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_006_F01 Penerimaan Barang Produksi (ZMMENH006)','','','','ABAP');</v>
+      </c>
+      <c r="H11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>653</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_007 Transfer Batch (ZMMENH007)','','','','ABAP');</v>
+      </c>
+      <c r="H12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>654</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_008 Transfer Posting Storage Location','','','','ABAP');</v>
+      </c>
+      <c r="H13" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>655</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_008_F01 Transfer Posting Storage Location','','','','ABAP');</v>
+      </c>
+      <c r="H14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_009_F01 Transfer Posting Storage Location Khusus Speciality + MG','','','','ABAP');</v>
+      </c>
+      <c r="H15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>657</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_012 Posting Pembelian','','','','ABAP');</v>
+      </c>
+      <c r="H16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>658</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_012_F01 Posting Pembelian','','','','ABAP');</v>
+      </c>
+      <c r="H17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_013_F01 Good Issue (MB1A)','','','','ABAP');</v>
+      </c>
+      <c r="H18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>660</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_015 Program Transfer Produksi PGS dan Filling CO2','','','','ABAP');</v>
+      </c>
+      <c r="H19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>661</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_027 Transfer Posting Storage Location','','','','ABAP');</v>
+      </c>
+      <c r="H20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>662</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMENH_027_F01 Transfer Posting Storage Location','','','','ABAP');</v>
+      </c>
+      <c r="H21" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>663</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMRPT_001_F01 Print Form','','','','ABAP');</v>
+      </c>
+      <c r="H22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>664</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZMMRPT_009_F01 Cetak SJ titipan (5K2),Pinjaman(502), Pengisian(541), STO (351)','','','','ABAP');</v>
+      </c>
+      <c r="H23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>665</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_023_F01 Transaksi Stock Transfer Order','','','','ABAP');</v>
+      </c>
+      <c r="H24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>666</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_F01 Transfer Packing List Order','','','','ABAP');</v>
+      </c>
+      <c r="H25" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>667</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_SCR1 Transfer Packing List Order','','','','ABAP');</v>
+      </c>
+      <c r="H26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>668</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDENH_040_SCR2 Transfer Packing List Order','','','','ABAP');</v>
+      </c>
+      <c r="H27" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_001_F01 SD Reporting','','','','ABAP');</v>
+      </c>
+      <c r="H28" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>670</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_004_F01 Cetak invoice','','','','ABAP');</v>
+      </c>
+      <c r="H29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_005_F01 Cetak Faktur Pajak','','','','ABAP');</v>
+      </c>
+      <c r="H30" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="84" t="s">
+        <v>673</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>672</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','ZSDRPT_028_F02 Laporan Sirkulasi Botol','','','','ABAP');</v>
+      </c>
+      <c r="H31" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Tabel','ZUSEREXIT_SD','','','','ABAP');</v>
+      </c>
+      <c r="H32" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Tabel','ZUSEREXIT_SD2','','','','ABAP');</v>
+      </c>
+      <c r="H33" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>677</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','SO','','','','ABAP');</v>
+      </c>
+      <c r="H34" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>678</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','SJ','','','','ABAP');</v>
+      </c>
+      <c r="H35" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>679</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Invoice Penjualan','','','','ABAP');</v>
+      </c>
+      <c r="H36" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>680</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Kas Bank Masuk','','','','ABAP');</v>
+      </c>
+      <c r="H37" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>681</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Kas Bank Keluar','','','','ABAP');</v>
+      </c>
+      <c r="H38" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>682</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Cek Masuk','','','','ABAP');</v>
+      </c>
+      <c r="H39" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>683</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Cek Keluar','','','','ABAP');</v>
+      </c>
+      <c r="H40" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>684</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','Jurnal Memorial','','','','ABAP');</v>
+      </c>
+      <c r="H41" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>685</v>
+      </c>
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Penyesuaian Smartforms','PO','','','','ABAP');</v>
+      </c>
+      <c r="H42" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>687</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','FM ZCHECKGL_BA','','','','ABAP');</v>
+      </c>
+      <c r="H43" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>688</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','MV50AFZ1','','','','ABAP');</v>
+      </c>
+      <c r="H44" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>689</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','ZXMBCU02','','','','ABAP');</v>
+      </c>
+      <c r="H45" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>691</v>
+      </c>
+      <c r="E46" t="s">
+        <v>695</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND','','','Opsional','ABAP');</v>
+      </c>
+      <c r="H46" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>692</v>
+      </c>
+      <c r="E47" t="s">
+        <v>695</v>
+      </c>
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND CV','','','Opsional','ABAP');</v>
+      </c>
+      <c r="H47" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>693</v>
+      </c>
+      <c r="E48" t="s">
+        <v>695</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','MM BALANCE BACKGROUND PJ','','','Opsional','ABAP');</v>
+      </c>
+      <c r="H48" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B50" t="s">
+        <v>741</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZABENH_001_F01 Lock / Unlock User','','','','ABAP');</v>
+      </c>
+      <c r="H50" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" t="s">
+        <v>742</v>
+      </c>
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZBIBO_CASHFLOW_FO1 Cashflow','','','','ABAP');</v>
+      </c>
+      <c r="H51" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B52" t="s">
+        <v>743</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZBIBO_PR Report List Purchase Requisitions','','','','ABAP');</v>
+      </c>
+      <c r="H52" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B53" t="s">
+        <v>744</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZCASHFLOW_F01 Cashflow','','','','ABAP');</v>
+      </c>
+      <c r="H53" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B54" t="s">
+        <v>745</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_007_F01 Tanda Terima Nota Penjualan','','','','ABAP');</v>
+      </c>
+      <c r="H54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B55" t="s">
+        <v>746</v>
+      </c>
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_008 Open and Close Posting Periods - Background Jobs','','','','ABAP');</v>
+      </c>
+      <c r="H55" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B56" t="s">
+        <v>747</v>
+      </c>
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_008_F01 Open and Close Posting Periods - Background Jobs','','','','ABAP');</v>
+      </c>
+      <c r="H56" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B57" t="s">
+        <v>748</v>
+      </c>
+      <c r="F57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIENH_019_F01 Program Input Bank Keluar','','','','ABAP');</v>
+      </c>
+      <c r="H57" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B58" t="s">
+        <v>749</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_056 Delivery Productivity Report - Actual','','','','ABAP');</v>
+      </c>
+      <c r="H58" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B59" t="s">
+        <v>750</v>
+      </c>
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_059 Plan and Actual Comparison for Statistical Key Figure','','','','ABAP');</v>
+      </c>
+      <c r="H59" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B60" t="s">
+        <v>751</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_065 Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain','','','','ABAP');</v>
+      </c>
+      <c r="H60" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B61" t="s">
+        <v>752</v>
+      </c>
+      <c r="F61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIRPT_065_TOP Laporan Laba Rugi &amp; Penghasilan Komprehensif Lain','','','','ABAP');</v>
+      </c>
+      <c r="H61" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B62" t="s">
+        <v>753</v>
+      </c>
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZHRRPT_002_F01 Laporan Karyawan Masuk / Keluar / Turn Over Karyawan','','','','ABAP');</v>
+      </c>
+      <c r="H62" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B63" t="s">
+        <v>754</v>
+      </c>
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZINIT_BAL3 MM Balance Background','','','','ABAP');</v>
+      </c>
+      <c r="H63" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B64" t="s">
+        <v>755</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZFIINT_001 Upload Interface Data Sales &amp; Cash Bank','','','','ABAP');</v>
+      </c>
+      <c r="H64" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>756</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_002 MM - Updating Previous Period','','','','ABAP');</v>
+      </c>
+      <c r="H65" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B66" t="s">
+        <v>757</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_002_F01 MM - Updating Previous Period','','','','ABAP');</v>
+      </c>
+      <c r="H66" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B67" t="s">
+        <v>758</v>
+      </c>
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_012_F01 Posting Pembelian','','','','ABAP');</v>
+      </c>
+      <c r="H67" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>759</v>
+      </c>
+      <c r="F68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_020 MM Balance Background','','','','ABAP');</v>
+      </c>
+      <c r="H68" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B69" t="s">
+        <v>760</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69:G85" si="1">CONCATENATE($A$2,A69,"','",B69,"','",C69,"','",D69,"','",E69,"','",F69,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_021 MM Balance Background stock di Customer and Vendor','','','','ABAP');</v>
+      </c>
+      <c r="H69" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B70" t="s">
+        <v>761</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_029 MM Balance Background stock pinjaman','','','','ABAP');</v>
+      </c>
+      <c r="H70" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B71" t="s">
+        <v>762</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZMMENH_030 MM Balance Background stock MR Customer','','','','ABAP');</v>
+      </c>
+      <c r="H71" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B72" t="s">
+        <v>763</v>
+      </c>
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_010_F01 Timbangan - Liquid','','','','ABAP');</v>
+      </c>
+      <c r="H72" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B73" t="s">
+        <v>764</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_012_F01 Pricing Online SD','','','','ABAP');</v>
+      </c>
+      <c r="H73" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B74" t="s">
+        <v>765</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_023 Transaksi Stock Transfer Order','','','','ABAP');</v>
+      </c>
+      <c r="H74" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B75" t="s">
+        <v>766</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_039 Packing List Order','','','','ABAP');</v>
+      </c>
+      <c r="H75" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B76" t="s">
+        <v>767</v>
+      </c>
+      <c r="F76" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_040 Transfer Packing List Order','','','','ABAP');</v>
+      </c>
+      <c r="H76" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B77" t="s">
+        <v>768</v>
+      </c>
+      <c r="F77" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZSDENH_054_F01 Timbangan - Liquid','','','','ABAP');</v>
+      </c>
+      <c r="H77" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B78" t="s">
+        <v>769</v>
+      </c>
+      <c r="F78" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Report','(CC) ZRGGBS000','','','','ABAP');</v>
+      </c>
+      <c r="H78" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B79" t="s">
+        <v>770</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) FM ZCHECKGL_ORDER','','','','ABAP');</v>
+      </c>
+      <c r="H79" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B80" t="s">
+        <v>771</v>
+      </c>
+      <c r="F80" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU13','','','','ABAP');</v>
+      </c>
+      <c r="H80" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B81" t="s">
+        <v>772</v>
+      </c>
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU14','','','','ABAP');</v>
+      </c>
+      <c r="H81" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="B82" t="s">
+        <v>773</v>
+      </c>
+      <c r="F82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Koreksi Exit','(CC) ZXCOFU23','','','','ABAP');</v>
+      </c>
+      <c r="H82" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B83" t="s">
+        <v>774</v>
+      </c>
+      <c r="F83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) OPEN/CLOSE POSTING PERIODS','','','','ABAP');</v>
+      </c>
+      <c r="H83" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B84" t="s">
+        <v>775</v>
+      </c>
+      <c r="F84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) ZFIENH_013','','','','ABAP');</v>
+      </c>
+      <c r="H84" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B85" t="s">
+        <v>776</v>
+      </c>
+      <c r="E85" t="s">
+        <v>812</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','(CC) ZFIENH_009 FLQAC &amp; FLQAD','','','Modifikasi','ABAP');</v>
+      </c>
+      <c r="H85" t="s">
+        <v>813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,8 +9073,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8124,8 +10610,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8636,8 +11122,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9655,16 +12141,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9680,13 +12168,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>892</v>
       </c>
       <c r="B4" t="s">
         <v>567</v>
       </c>
       <c r="C4" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
@@ -9697,21 +12185,21 @@
       </c>
       <c r="G4" t="str">
         <f>CONCATENATE($A$2,A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define company','OX15','','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define company','OX15','','Check Only','SD');</v>
       </c>
       <c r="H4" t="s">
-        <v>650</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>632</v>
+        <v>892</v>
       </c>
       <c r="B5" t="s">
         <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
@@ -9721,22 +12209,22 @@
         <v>104</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G42" si="0">CONCATENATE($A$2,A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"');")</f>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define Credit Control Area','OB45','','Check Only','SD');</v>
+        <f t="shared" ref="G5:G71" si="0">CONCATENATE($A$2,A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define Credit Control Area','OB45','','Check Only','SD');</v>
       </c>
       <c r="H5" t="s">
-        <v>651</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>892</v>
       </c>
       <c r="B6" t="s">
         <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
@@ -9747,15 +12235,15 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Financial Accounting)','Define Business Area','OX03','','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Financial Accounting)','Define Business Area','OX03','','Check Only','SD');</v>
       </c>
       <c r="H6" t="s">
-        <v>652</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>893</v>
       </c>
       <c r="B7" t="s">
         <v>570</v>
@@ -9772,24 +12260,24 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics-Plant)','Define Plant','OX10','','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics-Plant)','Define Plant','OX10','','Check Only','SD');</v>
       </c>
       <c r="H7" t="s">
-        <v>653</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>894</v>
       </c>
       <c r="B8" t="s">
         <v>571</v>
       </c>
       <c r="C8" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="E8" t="s">
         <v>183</v>
@@ -9799,24 +12287,24 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics-Division)','Define Division','OVXD','V_TSPA','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics-Division)','Define Division','OVXD','V_TSPA','Check Only','SD');</v>
       </c>
       <c r="H8" t="s">
-        <v>654</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>635</v>
+        <v>895</v>
       </c>
       <c r="B9" t="s">
         <v>572</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="D9" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="E9" t="s">
         <v>180</v>
@@ -9826,24 +12314,24 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Define, copy, delete, check sales organization','OVX5','V_TVKO','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Define, copy, delete, check sales organization','OVX5','V_TVKO','Create','SD');</v>
       </c>
       <c r="H9" t="s">
-        <v>655</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>895</v>
       </c>
       <c r="B10" t="s">
         <v>573</v>
       </c>
       <c r="C10" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="E10" t="s">
         <v>183</v>
@@ -9853,24 +12341,24 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Define, copy, delete, check distribution channel','OVXI','V_TVTW','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Define, copy, delete, check distribution channel','OVXI','V_TVTW','Check Only','SD');</v>
       </c>
       <c r="H10" t="s">
-        <v>656</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>895</v>
       </c>
       <c r="B11" t="s">
         <v>574</v>
       </c>
       <c r="C11" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="D11" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="E11" t="s">
         <v>180</v>
@@ -9880,24 +12368,24 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Sales &amp; Distribution)','Maintain sales office','OVX1','V_TVBUR','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Sales &amp; Distribution)','Maintain sales office','OVX1','V_TVBUR','Create','SD');</v>
       </c>
       <c r="H11" t="s">
-        <v>657</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>636</v>
+        <v>896</v>
       </c>
       <c r="B12" t="s">
         <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="E12" t="s">
         <v>180</v>
@@ -9907,15 +12395,15 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics Execution)','Define, copy, delete, check shipping point','OVXD','V_TVST','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Def: Logistics Execution)','Define, copy, delete, check shipping point','OVXD','V_TVST','Create','SD');</v>
       </c>
       <c r="H12" t="s">
-        <v>658</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>637</v>
+        <v>897</v>
       </c>
       <c r="B13" t="s">
         <v>576</v>
@@ -9932,70 +12420,79 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Logistics General)','Assign Business Area to Plant/Valuation Area and Division','OMJ7','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Logistics General)','Assign Business Area to Plant/Valuation Area and Division','OMJ7','','Create','SD');</v>
       </c>
       <c r="H13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="B14" s="81" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" s="86" t="s">
         <v>577</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="81" t="s">
+      <c r="C14" s="86" t="s">
+        <v>814</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>912</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign sales organization to company code','OPL8 ( 2*/1*/3* )','','Create','SD');</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>538</v>
+      <c r="G14" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales organization to company code','OVX3 / OVX3N (V_TVKO_ASSIGN)','V_TVKO_ASSIGN','Create','SD');</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>451</v>
+      <c r="A15" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B15" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="C15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D15" t="s">
+        <v>913</v>
+      </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
         <v>104</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign distribution channel to sales organization','','','Check','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign distribution channel to sales organization','OVXK (V_TVKOV_ASSIGN)','V_TVKOV_ASSIGN','Create','SD');</v>
       </c>
       <c r="H15" t="s">
-        <v>539</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>451</v>
+      <c r="A16" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B16" t="s">
         <v>579</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>816</v>
+      </c>
+      <c r="D16" t="s">
+        <v>914</v>
+      </c>
       <c r="E16" t="s">
         <v>180</v>
       </c>
@@ -10004,23 +12501,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign division to sales organization','OPK4 (2*/1*/3* )','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign division to sales organization','OVXA /  OVXAN (V_TVKOS_ASSIGN)','V_TVKOS_ASSIGN','Create','SD');</v>
       </c>
       <c r="H16" t="s">
-        <v>540</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>451</v>
+      <c r="A17" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B17" t="s">
         <v>580</v>
       </c>
       <c r="C17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>817</v>
+      </c>
+      <c r="D17" t="s">
+        <v>915</v>
+      </c>
       <c r="E17" t="s">
         <v>180</v>
       </c>
@@ -10029,23 +12528,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Set up sales area','OPJG','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Set up sales area','OVXG (V_TVTA_ASSIGN)','V_TVTA_ASSIGN','Create','SD');</v>
       </c>
       <c r="H17" t="s">
-        <v>541</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>451</v>
+      <c r="A18" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B18" t="s">
         <v>581</v>
       </c>
       <c r="C18" t="s">
-        <v>475</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>818</v>
+      </c>
+      <c r="D18" t="s">
+        <v>916</v>
+      </c>
       <c r="E18" t="s">
         <v>180</v>
       </c>
@@ -10054,48 +12555,52 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign sales office to sales area','OPJK','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales office to sales area','OVXM (V_TVKBZ_ASSIGN)','V_TVKBZ_ASSIGN','Create','SD');</v>
       </c>
       <c r="H18" t="s">
-        <v>542</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>451</v>
+      <c r="A19" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B19" t="s">
         <v>582</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>819</v>
+      </c>
+      <c r="D19" t="s">
+        <v>917</v>
+      </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign sales organization - distribution channel - plant','OMDU','','Check','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales organization - distribution channel - plant','OVX6 (V_TVKWZ_ASSIGN)','V_TVKWZ_ASSIGN','Create','SD');</v>
       </c>
       <c r="H19" t="s">
-        <v>543</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>451</v>
+      <c r="A20" s="86" t="s">
+        <v>898</v>
       </c>
       <c r="B20" t="s">
         <v>583</v>
       </c>
       <c r="C20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>820</v>
+      </c>
+      <c r="D20" t="s">
+        <v>918</v>
+      </c>
       <c r="E20" t="s">
         <v>180</v>
       </c>
@@ -10104,23 +12609,25 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign sales area to credit control area','OPPE','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Sales &amp; Distribution)','Assign sales area to credit control area','OVFL (V_TVTA_KKB)','V_TVTA_KKB','Create','SD');</v>
       </c>
       <c r="H20" t="s">
-        <v>544</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>899</v>
       </c>
       <c r="B21" t="s">
         <v>584</v>
       </c>
       <c r="C21" t="s">
-        <v>481</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>821</v>
+      </c>
+      <c r="D21" t="s">
+        <v>919</v>
+      </c>
       <c r="E21" t="s">
         <v>180</v>
       </c>
@@ -10129,71 +12636,73 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Define Rules By Sales Area','OPPR','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: BA Acct Assignment)','Define Rules By Sales Area','OVF2 (V_TVTA_GRE)','V_TVTA_GRE','Create','SD');</v>
       </c>
       <c r="H21" t="s">
-        <v>545</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>899</v>
       </c>
       <c r="B22" t="s">
         <v>585</v>
       </c>
       <c r="C22" t="s">
-        <v>483</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>822</v>
+      </c>
+      <c r="D22" t="s">
+        <v>920</v>
+      </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F22" t="s">
         <v>104</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign Business Area To Plant And Division','OMDX','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: BA Acct Assignment)','Assign Business Area To Plant And Division','OVX2 (V_T134G_WS)','V_T134G_WS','Check Only','SD');</v>
       </c>
       <c r="H22" t="s">
-        <v>546</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>900</v>
       </c>
       <c r="B23" t="s">
         <v>586</v>
       </c>
       <c r="C23" t="s">
-        <v>485</v>
+        <v>823</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
         <v>104</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign shipping point to plant','SPRO – Production – MRP – Schedulling &amp; Capacity Parameter – Parameter for Determining Basic Dates','','Check','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Enterprise Structure (Asg: Logistics Execution)','Assign shipping point to plant','OVXC','','Create','SD');</v>
       </c>
       <c r="H23" t="s">
-        <v>547</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>901</v>
       </c>
       <c r="B24" t="s">
         <v>587</v>
       </c>
       <c r="C24" t="s">
-        <v>487</v>
+        <v>824</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" t="s">
@@ -10204,46 +12713,46 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign Update Group at Item Level','OPPJ','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics General (LIS Updating Control)','Assign Update Group at Item Level','OVRP','','Create','SD');</v>
       </c>
       <c r="H24" t="s">
-        <v>548</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>901</v>
       </c>
       <c r="B25" t="s">
         <v>588</v>
       </c>
       <c r="C25" t="s">
-        <v>489</v>
+        <v>825</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" t="s">
-        <v>491</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
         <v>104</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Assign Update Group at Header Level','OPPQ','','alll maint','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics General (LIS Updating Control)','Assign Update Group at Header Level','OVRO','','Create','SD');</v>
       </c>
       <c r="H25" t="s">
-        <v>549</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>902</v>
       </c>
       <c r="B26" t="s">
         <v>589</v>
       </c>
       <c r="C26" t="s">
-        <v>492</v>
+        <v>826</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
@@ -10254,21 +12763,21 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Combine distribution channels','OPCH','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Master Data)','Combine distribution channels','OVAM','','Create','SD');</v>
       </c>
       <c r="H26" t="s">
-        <v>550</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>451</v>
+        <v>902</v>
       </c>
       <c r="B27" t="s">
         <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>494</v>
+        <v>827</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
@@ -10279,21 +12788,21 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Combine divisions','CORY','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Master Data)','Combine divisions','OVAN','','Create','SD');</v>
       </c>
       <c r="H27" t="s">
-        <v>551</v>
+        <v>951</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>903</v>
       </c>
       <c r="B28" t="s">
         <v>591</v>
       </c>
       <c r="C28" t="s">
-        <v>496</v>
+        <v>828</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
@@ -10304,21 +12813,21 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Define Pricing Procedure Determination','SPRO Production – Basic Data – Work Center  – General Data – Determine Person Responsible','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Pricing Procedure)','Define Pricing Procedure Determination','OVKK','','Create','SD');</v>
       </c>
       <c r="H28" t="s">
-        <v>552</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>903</v>
       </c>
       <c r="B29" t="s">
         <v>592</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>828</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
@@ -10329,21 +12838,21 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Define Pricing Procedure Determination (IB)','OPK9','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Pricing Procedure)','Define Pricing Procedure Determination (IB)','OVKK','','Create','SD');</v>
       </c>
       <c r="H29" t="s">
-        <v>553</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>904</v>
       </c>
       <c r="B30" t="s">
         <v>593</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>829</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" t="s">
@@ -10354,132 +12863,132 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('MRP, Production Order','Maintain Sales Tax Identification Number Determination','COR4','','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Taxes)','Maintain Sales Tax Identification Number Determination','V_TVKO_TAX','','Create','SD');</v>
       </c>
       <c r="H30" t="s">
-        <v>554</v>
+        <v>954</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>500</v>
+        <v>905</v>
       </c>
       <c r="B31" t="s">
         <v>594</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>501</v>
+        <v>830</v>
+      </c>
+      <c r="D31" t="s">
+        <v>921</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
         <v>104</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program ','1 – Cust.Grp/MaterialGrp/AcctKey','SM30','ZBOTOL_SLOC','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','1 – Cust.Grp/MaterialGrp/AcctKey','VKOA (C001)','C001','Create','SD');</v>
       </c>
       <c r="H31" t="s">
-        <v>555</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>905</v>
       </c>
       <c r="B32" t="s">
         <v>595</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>503</v>
+        <v>831</v>
+      </c>
+      <c r="D32" t="s">
+        <v>922</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F32" t="s">
         <v>104</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program ','3 – Material Grp/Acct Key','SM30','ZCAP_BOTOL','Check Only','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','3 – Material Grp/Acct Key','VKOA (C003)','C003','Create','SD');</v>
       </c>
       <c r="H32" t="s">
-        <v>556</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>905</v>
       </c>
       <c r="B33" t="s">
         <v>596</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>832</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>923</v>
       </c>
       <c r="E33" t="s">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program ','5 – Acct Key','SM30','ZLIVE_PP','centang','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','5 – Acct Key','VKOA (C005)','C005','Create','SD');</v>
       </c>
       <c r="H33" t="s">
-        <v>557</v>
+        <v>957</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>905</v>
       </c>
       <c r="B34" t="s">
         <v>597</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>833</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>924</v>
       </c>
       <c r="E34" t="s">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
         <v>104</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program ','501 – Sales org./Ord.reason/Acct key','SM30','ZLIVE_BATCH','centang','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign G/L)','501 – Sales org./Ord.reason/Acct key','VKOA (C501)','C501','Create','SD');</v>
       </c>
       <c r="H34" t="s">
-        <v>558</v>
+        <v>958</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>906</v>
       </c>
       <c r="B35" t="s">
         <v>598</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>834</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>925</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
@@ -10489,24 +12998,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Combine sales organizations','ZPPENH016','Kapasitas Design, Kapasitas Commisioning','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine sales organizations','OVAO (V_TVKOS_AU)','V_TVKOS_AU','Create','SD');</v>
       </c>
       <c r="H35" t="s">
-        <v>559</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>906</v>
       </c>
       <c r="B36" t="s">
         <v>589</v>
       </c>
       <c r="C36" t="s">
-        <v>510</v>
+        <v>835</v>
       </c>
       <c r="D36" t="s">
-        <v>513</v>
+        <v>926</v>
       </c>
       <c r="E36" t="s">
         <v>180</v>
@@ -10516,24 +13025,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Combine distribution channels','ZPPENH016','Mode ASP 1/ 2','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine distribution channels','OVAO (V_TVKOV_AU)','V_TVKOV_AU','Create','SD');</v>
       </c>
       <c r="H36" t="s">
-        <v>560</v>
+        <v>960</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>906</v>
       </c>
       <c r="B37" t="s">
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>510</v>
+        <v>834</v>
       </c>
       <c r="D37" t="s">
-        <v>515</v>
+        <v>925</v>
       </c>
       <c r="E37" t="s">
         <v>180</v>
@@ -10543,51 +13052,48 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Combine divisions','ZPPENH016','Kode material Mixed Gas Bahan baku yang dipakai Mixed Gas','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Combine divisions','OVAO (V_TVKOS_AU)','V_TVKOS_AU','Create','SD');</v>
       </c>
       <c r="H37" t="s">
-        <v>561</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>906</v>
       </c>
       <c r="B38" t="s">
         <v>599</v>
       </c>
       <c r="C38" t="s">
-        <v>510</v>
+        <v>836</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>927</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F38" t="s">
         <v>104</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Assign sales order types permitted for sales areas','ZPPENH016','Sloc mixed Gas','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (Assign Sales Area to Sales Doc.Type)','Assign sales order types permitted for sales areas','OVAO (V_TVAKZ)','V_TVAKZ','Check Only','SD');</v>
       </c>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>962</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>509</v>
+        <v>907</v>
       </c>
       <c r="B39" t="s">
         <v>600</v>
       </c>
       <c r="C39" t="s">
-        <v>510</v>
-      </c>
-      <c r="D39" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="E39" t="s">
         <v>180</v>
@@ -10597,24 +13103,21 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Assign Default View To User','ZPPENH016','Produksi Pipeline yang ada','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Sales &amp; Distribution (CAS Sales Summary)','Assign Default View To User','V80C','','Create','SD');</v>
       </c>
       <c r="H39" t="s">
-        <v>563</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>509</v>
+        <v>908</v>
       </c>
       <c r="B40" t="s">
         <v>601</v>
       </c>
       <c r="C40" t="s">
-        <v>510</v>
-      </c>
-      <c r="D40" t="s">
-        <v>521</v>
+        <v>838</v>
       </c>
       <c r="E40" t="s">
         <v>180</v>
@@ -10624,209 +13127,817 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Shipping Points Determination','ZPPENH016','Sloc tangki yang dipakai produksi','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Logistics Execution (Ship Point &amp; Goods Rcv Point)','Shipping Points Determination','0VVW','','Create','SD');</v>
       </c>
       <c r="H40" t="s">
-        <v>564</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>509</v>
+        <v>910</v>
       </c>
       <c r="B41" t="s">
-        <v>602</v>
+        <v>911</v>
       </c>
       <c r="C41" t="s">
-        <v>510</v>
-      </c>
-      <c r="D41" t="s">
-        <v>523</v>
+        <v>839</v>
       </c>
       <c r="E41" t="s">
         <v>180</v>
       </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Define Number Ranges For Sales Documents','ZPPENH016','Mapping mobil distribusi yang dipakai per kode material','Create','SD');</v>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Define Number Ranges for Sales Doc.','VN01','','Create','');</v>
       </c>
       <c r="H41" t="s">
-        <v>565</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>910</v>
       </c>
       <c r="B42" t="s">
+        <v>602</v>
+      </c>
+      <c r="C42" t="s">
+        <v>840</v>
+      </c>
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Assign MWST = 0%','VK11','','Create','');</v>
+      </c>
+      <c r="H42" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>910</v>
+      </c>
+      <c r="B43" t="s">
         <v>603</v>
       </c>
-      <c r="C42" t="s">
-        <v>510</v>
-      </c>
-      <c r="D42" t="s">
-        <v>525</v>
-      </c>
-      <c r="E42" t="s">
-        <v>527</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="C43" t="s">
+        <v>841</v>
+      </c>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','BOM MP','LSMW','','Create','');</v>
+      </c>
+      <c r="H43" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>910</v>
+      </c>
+      <c r="B44" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" t="s">
+        <v>841</v>
+      </c>
+      <c r="E44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','BOM MR','LSMW','','Create','');</v>
+      </c>
+      <c r="H44" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>910</v>
+      </c>
+      <c r="B45" t="s">
+        <v>605</v>
+      </c>
+      <c r="C45" t="s">
+        <v>842</v>
+      </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Number Range SD','Create Customer','XD01','','Create','');</v>
+      </c>
+      <c r="H45" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>867</v>
+      </c>
+      <c r="C46" t="s">
+        <v>843</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
         <v>104</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Maintain tabel/field program','Assign MWST = 0%','ZPPENH016','Mapping report PP yg dikirim lewat email','Via Email','SD');</v>
-      </c>
-      <c r="H42" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table View Sloc (View of ZSDRPT_035_SLOC)','ZSDRPT_035_SLOCV ','SM30','Create','SD');</v>
+      </c>
+      <c r="H46" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>909</v>
+      </c>
+      <c r="B47" t="s">
+        <v>868</v>
+      </c>
+      <c r="C47" t="s">
+        <v>844</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Numrange SD (Number Ranges Mapping Table)','ZNUMRANGE  ','SM30','Create','SD');</v>
+      </c>
+      <c r="H47" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>909</v>
+      </c>
+      <c r="B48" t="s">
+        <v>869</v>
+      </c>
+      <c r="C48" t="s">
+        <v>845</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Numrange SD (Tabel Numbering Modul SD)','ZSD_NUMBER ','SM30','Create','SD');</v>
+      </c>
+      <c r="H48" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>909</v>
+      </c>
+      <c r="B49" t="s">
+        <v>870</v>
+      </c>
+      <c r="C49" t="s">
+        <v>846</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Release Credit (Tabel Hak Release Credit Limit)','ZRELEASE_CREDIT','SM30','Create','SD');</v>
+      </c>
+      <c r="H49" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>909</v>
+      </c>
+      <c r="B50" t="s">
+        <v>871</v>
+      </c>
+      <c r="C50" t="s">
+        <v>847</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Release Pricing (Master User and Release Code)','ZPRICING_USER','SM30','Create','SD');</v>
+      </c>
+      <c r="H50" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>909</v>
+      </c>
+      <c r="B51" t="s">
+        <v>872</v>
+      </c>
+      <c r="C51" t="s">
+        <v>848</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel User Release Pricing (Maintenance view of ZPRICING_STATUS)','ZPRICING_STATUSV ','SM30','Check Only','SD');</v>
+      </c>
+      <c r="H51" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>909</v>
+      </c>
+      <c r="B52" t="s">
+        <v>873</v>
+      </c>
+      <c r="C52" t="s">
+        <v>849</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table SJ hrs GI (User Exit untuk cetak surat jalan &amp; GI)','ZCETAKSJEXIT','SM30','Create','SD');</v>
+      </c>
+      <c r="H52" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>909</v>
+      </c>
+      <c r="B53" t="s">
+        <v>874</v>
+      </c>
+      <c r="C53" t="s">
+        <v>850</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Sign Invoice (Hormat Kami Untuk Sign Invoice)','ZINV_HORMAT  ','SM30','Create','SD');</v>
+      </c>
+      <c r="H53" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>909</v>
+      </c>
+      <c r="B54" t="s">
+        <v>875</v>
+      </c>
+      <c r="C54" t="s">
+        <v>851</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Sign Surat Jalan (Nama kepala untuk sign surat jalan)','ZSJ_KEPALA ','SM30','Create','SD');</v>
+      </c>
+      <c r="H54" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>909</v>
+      </c>
+      <c r="B55" t="s">
+        <v>876</v>
+      </c>
+      <c r="C55" t="s">
+        <v>852</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Kendaraan (Number Ranges for Surat Perintah Kirim (SPK) - Liquid)','ZNKEND ','SM30','Create','SD');</v>
+      </c>
+      <c r="H55" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>909</v>
+      </c>
+      <c r="B56" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>853</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel SPK','ZNUM_LIQ  ','SM30','Create','SD');</v>
+      </c>
+      <c r="H56" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>909</v>
+      </c>
       <c r="B57" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+      <c r="C57" t="s">
+        <v>854</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel packing (Number Range for Packing List Order)','ZPACKNR ','SM30','Create','SD');</v>
+      </c>
+      <c r="H57" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>909</v>
+      </c>
       <c r="B58" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="C58" t="s">
+        <v>855</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel group (Tabel definisi customer  antar grup)   ','ZANTARGRUP','SM30','Create','SD');</v>
+      </c>
+      <c r="H58" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>909</v>
+      </c>
       <c r="B59" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+      <c r="C59" t="s">
+        <v>856</v>
+      </c>
+      <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Number Botol Asset (Tabel Number Botol Asset)','ZTBANR','SM30','Create','SD');</v>
+      </c>
+      <c r="H59" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>909</v>
+      </c>
       <c r="B60" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+      <c r="C60" t="s">
+        <v>857</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Number Botol Pinjaman (Tabel Number Botol Pinjaman)','ZTBPNR','SM30','Create','SD');</v>
+      </c>
+      <c r="H60" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>909</v>
+      </c>
       <c r="B61" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
+      <c r="D61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Batch (Tabel Live Batch)','ZLIVE_BATCH','SM30','Create','SD');</v>
+      </c>
+      <c r="H61" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>909</v>
+      </c>
       <c r="B62" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+      <c r="C62" t="s">
+        <v>858</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel pemusatan (Customer yang termasuk pajak terpusat)','ZTERPUSAT    ','SM30','Create','SD');</v>
+      </c>
+      <c r="H62" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>909</v>
+      </c>
       <c r="B63" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="C63" t="s">
+        <v>855</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel Customer Antar Grup (Customer Antar Grup)','ZANTARGRUP','SM30','Create','SD');</v>
+      </c>
+      <c r="H63" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>909</v>
+      </c>
       <c r="B64" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="C64" t="s">
+        <v>859</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table exit saldo MR (Table control user exit SD)','ZUSEREXIT_SD  ','SM30','Check Only','SD');</v>
+      </c>
+      <c r="H64" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>909</v>
+      </c>
       <c r="B65" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+      <c r="C65" t="s">
+        <v>860</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table exit SN Btl MG (Table control user exit SD)','ZUSEREXIT_SD2 ','SM30','Check Only','SD');</v>
+      </c>
+      <c r="H65" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>909</v>
+      </c>
       <c r="B66" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+      <c r="C66" t="s">
+        <v>861</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table Bgrnd btl MR (BMC) (Cek kode barang botol MR full name (BMC))','ZPLANT_MR_FULL ','SM30','Create','SD');</v>
+      </c>
+      <c r="H66" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>909</v>
+      </c>
       <c r="B67" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+      <c r="C67" t="s">
+        <v>862</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel F.Pajak (FPS-Business Area )','ZGSBER_2008 ','SM30','Create','SD');</v>
+      </c>
+      <c r="H67" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>909</v>
+      </c>
       <c r="B68" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+      <c r="C68" t="s">
+        <v>863</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel area sirkulasi btl (Daerah Sirkulasi Botol)','ZDAERAH_BOTOL ','SM30','Create','SD');</v>
+      </c>
+      <c r="H68" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>909</v>
+      </c>
       <c r="B69" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+      <c r="C69" t="s">
+        <v>864</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Tabel daerah cust (Master daerah customer untuk sirkulasi botol)','ZDAERAH_CUST  ','SM30','Create','SD');</v>
+      </c>
+      <c r="H69" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>909</v>
+      </c>
       <c r="B70" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+      <c r="C70" t="s">
+        <v>865</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table Bgrnd btl MR (Tabel hasil background zsdrpt_028 u/ botol MR)','ZSDRPT_028_BGND ','SM30','Create','SD');</v>
+      </c>
+      <c r="H70" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>909</v>
+      </c>
       <c r="B71" t="s">
-        <v>631</v>
+        <v>891</v>
+      </c>
+      <c r="C71" t="s">
+        <v>866</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Table (SM30)','Table report Asset Btl (Table Penanda Tangan Daftar Asset)','ZTTD_DAFTAR_ASET  ','SM30','Create','SD');</v>
+      </c>
+      <c r="H71" t="s">
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/Concat Query Master.xlsx
+++ b/Concat Query Master.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\intest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4B0C251-B97B-4B18-A500-5E0C9D5F94B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="2880" windowWidth="12705" windowHeight="7980" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="2880" windowWidth="12705" windowHeight="7980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Buram" sheetId="5" r:id="rId1"/>
@@ -26,12 +20,12 @@
     <sheet name="CL PP" sheetId="8" r:id="rId11"/>
     <sheet name="CL SD" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4799" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="1616">
   <si>
     <t>INSERT INTO `m_uat_step`(`no_scn`, `no_step`, `bp_step`, `tcode_step`, `modul_step`, `user_step`) VALUES ([value-1],[value-2],[value-3],[value-4],[value-5],[value-6])</t>
   </si>
@@ -3451,9 +3445,6 @@
   </si>
   <si>
     <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','14','Account Clear AR','F-32','Adm Piutang');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</t>
   </si>
   <si>
     <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','1','Bon Permintaan Manual','MANUAL','MARKETING');</t>
@@ -4662,9 +4653,6 @@
     <t>Jika sudah di Settlement oleh pihak accunting</t>
   </si>
   <si>
-    <t>_________________</t>
-  </si>
-  <si>
     <t>4a</t>
   </si>
   <si>
@@ -4702,12 +4690,201 @@
   </si>
   <si>
     <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','10','Close MO','IW32 / IW38','');</t>
+  </si>
+  <si>
+    <t>Plant Maintenance</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Tim PM</t>
+  </si>
+  <si>
+    <t>Nomor Notifikasi</t>
+  </si>
+  <si>
+    <t>Lakukan Goods Issue untuk internal material refer ke M Order (movement type 261)</t>
+  </si>
+  <si>
+    <t>·         Maintenance Order atau Reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Document No.: </t>
+  </si>
+  <si>
+    <t>Actual Cost di Maintenance Order akan ter update:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim MM </t>
+  </si>
+  <si>
+    <t>·         Maintenance Order No</t>
+  </si>
+  <si>
+    <t>Balance di actual cost M Order:</t>
+  </si>
+  <si>
+    <t>Material Ambil Dari Gudang (PM Internal)</t>
+  </si>
+  <si>
+    <t>1.     Nomor Notifikasi</t>
+  </si>
+  <si>
+    <t>2.     Nomor Maint. Order</t>
+  </si>
+  <si>
+    <t>Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)</t>
+  </si>
+  <si>
+    <t>Tim MM</t>
+  </si>
+  <si>
+    <t>Lakukan Settlement ke Cost Center, Internal Order atau FXA</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','1','Buat Notifikasi','IW21','Tim PM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','2','Buat Maintenance Order','IW22','Tim PM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','3','Lakukan Goods Issue untuk internal material refer ke M Order (movement type 261)','ZMMENH013','Tim MM ');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','4','Confirmation Work Time after finish working','IW41','Maintc.');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA (Fix Asset)','KO88','Tim PM &amp; CO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','6','Teco ( Tecnical Complete )','IW32 / IW38','');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','1','Buat Notifikasi','IW21','Tim PM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','2','Buat Maintenance Order','IW22','Tim PM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3a','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim MM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3b','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim PM');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','4','Confirmation Work Time after finish working','IW41','Maintc.');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA','KO88','Tim PM &amp; CO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','6','Teco ( Tecnical Complete )','IW32 / IW38','');</t>
+  </si>
+  <si>
+    <t>Buat Sales Order (SO) - ZNP</t>
+  </si>
+  <si>
+    <t>Transfer Packing dari Sloc Empty Pack ke sloc Distribusi</t>
+  </si>
+  <si>
+    <t>Doc. No  :</t>
+  </si>
+  <si>
+    <t>Pengembalian Botol Rusak MR</t>
+  </si>
+  <si>
+    <t>Pengembalian Botol Rusak MR - Milik Customer</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','1','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','2','Buat Sales Order (SO) - ZNP','VA01','Sales Counter');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','4','Transfer Packing dari Sloc Empty Pack ke sloc Distribusi','ZSDENH040','Distribusi/ Logistik');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','5','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Distribusi/ Logistik');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','6','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','7','Cetak Surat Jalan','VL03N','Sales Counter');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular MTS (REGULER)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order,Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku','Pembelian Bahan Baku');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Barang Dagangan Gas','Pembelian Bahan Baku');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular &amp; IB MTS','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku Liquid','Pembelian Bahan Baku Liquid');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer Reguler Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS (Reclass)','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Sales Kontrak Material','Transaksi sales kontrak Material Sales Contract, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Klaim &amp; Pengganti Klaim','Klaim &amp; Pengganti Klaim Customer');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Perubahan Fungsi Gas','Perubahan Fungsi Gas - Botol');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Retur Penjualan','Retur Penjualan (Nota Retur)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('BA Perubahan SN Botol','BA Perubahan SN Botol - Botol MP');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','Integrasi PM ke MM, FI, CO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Plant Maintenance','Integrasi PM ke MM, FI, CO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Material Ambil Dari Gudang (PM Internal)','Integrasi PM ke MM, FI, CO');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pengembalian Botol Rusak MR','Pengembalian Botol Rusak MR - Milik Customer');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -5435,11 +5612,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5743,14 +5920,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7285,7 +7462,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E41 E44:E60 E1:E38 D75:E77 D79:E81 D85:E89 E90:E91 E94:E100 D63:E73" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E41 E44:E60 E1:E38 D75:E77 D79:E81 D85:E89 E90:E91 E94:E100 D63:E73">
       <formula1>"Create,Check Only,-,,,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7295,7 +7472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7807,7 +7984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8826,7 +9003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10631,7 +10808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11212,7 +11389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11840,11 +12017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4498AA-8B0E-41E2-B094-B3568E231A82}">
-  <dimension ref="A1:G266"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253:F263"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12832,13 +13009,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E57" t="s">
         <v>1000</v>
@@ -12852,16 +13029,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F58" t="s">
         <v>1174</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -12869,19 +13046,19 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E59" t="s">
         <v>1000</v>
       </c>
       <c r="F59" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12889,16 +13066,16 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C60" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F60" t="s">
         <v>1178</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,7 +13140,7 @@
         <v>1010</v>
       </c>
       <c r="D64" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E64" t="s">
         <v>1000</v>
@@ -13181,7 +13358,7 @@
         <v>1044</v>
       </c>
       <c r="D77" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E77" t="s">
         <v>1000</v>
@@ -13260,16 +13437,16 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E82" t="s">
         <v>1182</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1183</v>
       </c>
       <c r="F82" t="s">
         <v>32</v>
@@ -13280,19 +13457,19 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
       </c>
       <c r="D83" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F83" t="s">
         <v>1184</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -13927,7 +14104,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B123" t="s">
         <v>997</v>
@@ -13944,7 +14121,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B124" t="s">
         <v>1007</v>
@@ -13970,7 +14147,7 @@
         <v>1044</v>
       </c>
       <c r="D125" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E125" t="s">
         <v>1000</v>
@@ -13995,7 +14172,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="87" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B127" t="s">
         <v>1049</v>
@@ -14012,13 +14189,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E128" t="s">
         <v>1000</v>
@@ -14134,13 +14311,13 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C135" t="s">
         <v>1010</v>
       </c>
       <c r="D135" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E135" t="s">
         <v>1000</v>
@@ -14185,10 +14362,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="87" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B138" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C138" t="s">
         <v>1036</v>
@@ -14205,10 +14382,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="87" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B139" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C139" t="s">
         <v>1039</v>
@@ -14225,13 +14402,13 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C140" t="s">
         <v>1042</v>
       </c>
       <c r="F140" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -14293,7 +14470,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C145" t="s">
         <v>1010</v>
@@ -14305,7 +14482,7 @@
         <v>1012</v>
       </c>
       <c r="F145" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -14319,7 +14496,7 @@
         <v>1014</v>
       </c>
       <c r="D146" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E146" t="s">
         <v>1000</v>
@@ -14398,13 +14575,13 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C151" t="s">
         <v>1294</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>1295</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1296</v>
       </c>
       <c r="F151" t="s">
         <v>1031</v>
@@ -14421,7 +14598,7 @@
         <v>1030</v>
       </c>
       <c r="D152" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F152" t="s">
         <v>1031</v>
@@ -14562,7 +14739,7 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C161" t="s">
         <v>1052</v>
@@ -14673,19 +14850,19 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C168" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D168" t="s">
         <v>1321</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1322</v>
       </c>
       <c r="E168" t="s">
         <v>1012</v>
       </c>
       <c r="F168" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -14724,7 +14901,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B171" t="s">
         <v>1035</v>
@@ -14744,7 +14921,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="87" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B172" t="s">
         <v>1035</v>
@@ -14775,7 +14952,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B174" t="s">
         <v>1043</v>
@@ -14795,7 +14972,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="87" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B175" t="s">
         <v>1047</v>
@@ -14809,7 +14986,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B176" t="s">
         <v>1049</v>
@@ -14823,19 +15000,19 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C177" t="s">
         <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E177" t="s">
         <v>1054</v>
       </c>
       <c r="F177" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -14863,10 +15040,10 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C180" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -14874,10 +15051,10 @@
         <v>1064</v>
       </c>
       <c r="B181" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C181" t="s">
         <v>1333</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -14885,10 +15062,10 @@
         <v>1065</v>
       </c>
       <c r="B182" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C182" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -14896,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C183" t="s">
         <v>840</v>
@@ -14907,13 +15084,13 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C184" t="s">
         <v>1337</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>1338</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1339</v>
       </c>
       <c r="F184" t="s">
         <v>1001</v>
@@ -14924,7 +15101,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C185" t="s">
         <v>1004</v>
@@ -14941,13 +15118,13 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C186" t="s">
         <v>1044</v>
       </c>
       <c r="E186" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F186" t="s">
         <v>1046</v>
@@ -14958,16 +15135,16 @@
         <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E187" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F187" t="s">
         <v>37</v>
@@ -14978,16 +15155,16 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C188" t="s">
         <v>1345</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>1346</v>
       </c>
-      <c r="D188" t="s">
-        <v>1347</v>
-      </c>
       <c r="E188" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F188" t="s">
         <v>1059</v>
@@ -14998,13 +15175,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C189" t="s">
         <v>998</v>
       </c>
       <c r="E189" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F189" t="s">
         <v>1001</v>
@@ -15015,7 +15192,7 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C190" t="s">
         <v>1010</v>
@@ -15024,7 +15201,7 @@
         <v>1011</v>
       </c>
       <c r="E190" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F190" t="s">
         <v>1001</v>
@@ -15044,7 +15221,7 @@
         <v>1016</v>
       </c>
       <c r="E191" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F191" t="s">
         <v>1031</v>
@@ -15064,7 +15241,7 @@
         <v>1033</v>
       </c>
       <c r="E192" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F192" t="s">
         <v>1015</v>
@@ -15075,19 +15252,19 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C193" t="s">
         <v>1039</v>
       </c>
       <c r="D193" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E193" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F193" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -15101,7 +15278,7 @@
         <v>1044</v>
       </c>
       <c r="E194" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F194" t="s">
         <v>1046</v>
@@ -15112,16 +15289,16 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C195" t="s">
         <v>1052</v>
       </c>
       <c r="D195" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E195" t="s">
         <v>1357</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1358</v>
       </c>
       <c r="F195" t="s">
         <v>37</v>
@@ -15132,13 +15309,13 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C196" t="s">
         <v>1057</v>
       </c>
       <c r="E196" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F196" t="s">
         <v>1059</v>
@@ -15149,7 +15326,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B198" t="s">
         <v>997</v>
@@ -15166,7 +15343,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B199" t="s">
         <v>1007</v>
@@ -15192,7 +15369,7 @@
         <v>1044</v>
       </c>
       <c r="D200" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E200" t="s">
         <v>1000</v>
@@ -15220,7 +15397,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C202" t="s">
         <v>1052</v>
@@ -15240,13 +15417,13 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C203" t="s">
         <v>1052</v>
       </c>
       <c r="D203" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E203" t="s">
         <v>1000</v>
@@ -15362,13 +15539,13 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C210" t="s">
         <v>1010</v>
       </c>
       <c r="D210" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E210" t="s">
         <v>1000</v>
@@ -15413,10 +15590,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="87" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B213" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C213" t="s">
         <v>1036</v>
@@ -15433,10 +15610,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="87" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B214" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C214" t="s">
         <v>1039</v>
@@ -15453,13 +15630,13 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C215" t="s">
         <v>1042</v>
       </c>
       <c r="F215" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -15470,10 +15647,10 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D217" t="s">
         <v>1419</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1420</v>
       </c>
       <c r="F217" t="s">
         <v>1015</v>
@@ -15484,13 +15661,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F218" t="s">
         <v>1421</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -15498,13 +15675,13 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F219" t="s">
         <v>1423</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -15512,16 +15689,16 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C220" t="s">
         <v>998</v>
       </c>
       <c r="D220" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E220" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F220" t="s">
         <v>1001</v>
@@ -15532,19 +15709,19 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C221" t="s">
         <v>1426</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>1427</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F221" t="s">
         <v>1428</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -15552,19 +15729,19 @@
         <v>1068</v>
       </c>
       <c r="B222" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C222" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D222" t="s">
         <v>1432</v>
       </c>
-      <c r="D222" t="s">
-        <v>1433</v>
-      </c>
       <c r="E222" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F222" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -15572,30 +15749,30 @@
         <v>1069</v>
       </c>
       <c r="B223" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C223" t="s">
         <v>1431</v>
       </c>
-      <c r="C223" t="s">
-        <v>1432</v>
-      </c>
       <c r="F223" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B224" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C224" t="s">
         <v>998</v>
       </c>
       <c r="D224" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E224" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F224" t="s">
         <v>1001</v>
@@ -15603,10 +15780,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="87" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B225" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C225" t="s">
         <v>1008</v>
@@ -15620,16 +15797,16 @@
         <v>1117</v>
       </c>
       <c r="B226" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C226" t="s">
         <v>1010</v>
       </c>
       <c r="D226" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E226" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F226" t="s">
         <v>1001</v>
@@ -15640,16 +15817,16 @@
         <v>1118</v>
       </c>
       <c r="B227" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C227" t="s">
         <v>1030</v>
       </c>
       <c r="D227" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E227" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F227" t="s">
         <v>1031</v>
@@ -15660,13 +15837,13 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C228" t="s">
         <v>1018</v>
       </c>
       <c r="E228" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F228" t="s">
         <v>1015</v>
@@ -15677,7 +15854,7 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C229" t="s">
         <v>1018</v>
@@ -15691,19 +15868,19 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C230" t="s">
         <v>1442</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>1443</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F230" t="s">
         <v>1444</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -15711,7 +15888,7 @@
         <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F231" t="s">
         <v>1038</v>
@@ -15725,13 +15902,13 @@
         <v>1</v>
       </c>
       <c r="B233" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D233" t="s">
         <v>1463</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1464</v>
       </c>
       <c r="F233" t="s">
         <v>31</v>
@@ -15742,16 +15919,16 @@
         <v>2</v>
       </c>
       <c r="B234" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D234" t="s">
         <v>1465</v>
       </c>
-      <c r="C234" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>1466</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15759,19 +15936,19 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C235" t="s">
         <v>1468</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>1469</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>1470</v>
       </c>
-      <c r="E235" t="s">
-        <v>1471</v>
-      </c>
       <c r="F235" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15779,19 +15956,19 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D236" t="s">
         <v>1472</v>
       </c>
-      <c r="C236" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1473</v>
-      </c>
       <c r="E236" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F236" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15802,10 +15979,10 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C238" t="s">
         <v>1419</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1420</v>
       </c>
       <c r="F238" t="s">
         <v>1015</v>
@@ -15816,13 +15993,13 @@
         <v>2</v>
       </c>
       <c r="B239" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F239" t="s">
         <v>1421</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -15830,13 +16007,13 @@
         <v>3</v>
       </c>
       <c r="B240" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F240" t="s">
         <v>1423</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,16 +16021,16 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C241" t="s">
         <v>998</v>
       </c>
       <c r="D241" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E241" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F241" t="s">
         <v>1001</v>
@@ -15864,16 +16041,16 @@
         <v>5</v>
       </c>
       <c r="B242" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C242" t="s">
         <v>1426</v>
       </c>
-      <c r="C242" t="s">
-        <v>1427</v>
-      </c>
       <c r="E242" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F242" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -15881,19 +16058,19 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C243" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D243" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E243" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F243" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -15901,19 +16078,19 @@
         <v>7</v>
       </c>
       <c r="B244" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D244" t="s">
         <v>1484</v>
       </c>
-      <c r="C244" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1485</v>
-      </c>
       <c r="E244" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F244" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -15921,16 +16098,16 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C245" t="s">
         <v>1044</v>
       </c>
       <c r="D245" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E245" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F245" t="s">
         <v>1046</v>
@@ -15941,13 +16118,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C246" t="s">
         <v>1488</v>
       </c>
-      <c r="C246" t="s">
-        <v>1489</v>
-      </c>
       <c r="E246" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F246" t="s">
         <v>1046</v>
@@ -15961,13 +16138,13 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D248" t="s">
         <v>1463</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -15975,16 +16152,16 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D249" t="s">
         <v>1465</v>
       </c>
-      <c r="C249" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>1466</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -15992,19 +16169,19 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C250" t="s">
         <v>1468</v>
       </c>
-      <c r="C250" t="s">
-        <v>1469</v>
-      </c>
       <c r="D250" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E250" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F250" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -16012,19 +16189,19 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D251" t="s">
         <v>1472</v>
       </c>
-      <c r="C251" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1473</v>
-      </c>
       <c r="E251" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F251" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -16035,19 +16212,19 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C253" t="s">
         <v>1508</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>1509</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1510</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>1511</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -16055,19 +16232,19 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C254" t="s">
         <v>1513</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>1514</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1515</v>
       </c>
-      <c r="E254" t="s">
-        <v>1516</v>
-      </c>
       <c r="F254" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -16075,16 +16252,16 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D255" t="s">
         <v>1517</v>
       </c>
-      <c r="C255" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1518</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1519</v>
       </c>
       <c r="F255" t="s">
         <v>32</v>
@@ -16092,19 +16269,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="87" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B256" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E256" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F256" t="s">
         <v>34</v>
@@ -16112,13 +16289,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="87" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B257" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C257" t="s">
         <v>1177</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1178</v>
       </c>
       <c r="F257" t="s">
         <v>34</v>
@@ -16129,16 +16306,16 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
       </c>
       <c r="D258" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E258" t="s">
         <v>1525</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1526</v>
       </c>
       <c r="F258" t="s">
         <v>32</v>
@@ -16149,10 +16326,10 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C259" t="s">
         <v>1523</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1524</v>
       </c>
       <c r="F259" t="s">
         <v>32</v>
@@ -16163,19 +16340,19 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C260" t="s">
         <v>1527</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1528</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>1529</v>
       </c>
-      <c r="E260" t="s">
-        <v>1530</v>
-      </c>
       <c r="F260" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -16183,19 +16360,19 @@
         <v>8</v>
       </c>
       <c r="B261" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C261" t="s">
         <v>1531</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1532</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>1533</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>1534</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -16203,16 +16380,16 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C262" t="s">
         <v>1536</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E262" t="s">
         <v>1537</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -16220,22 +16397,410 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E263" t="s">
         <v>1539</v>
       </c>
-      <c r="C263" t="s">
+    </row>
+    <row r="264" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="89"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="87">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="87">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="87">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="87">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="87">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="87">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E270" t="s">
         <v>1537</v>
       </c>
-      <c r="D263" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E266" t="s">
-        <v>1541</v>
-      </c>
+    </row>
+    <row r="271" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="89"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="87">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="87">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="87" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="87" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="87">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="87">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="87">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="89"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="90">
+        <v>1</v>
+      </c>
+      <c r="B280" s="90" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C280" s="90" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D280" s="90"/>
+      <c r="E280" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F280" s="90" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="90">
+        <v>2</v>
+      </c>
+      <c r="B281" s="90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C281" s="90" t="s">
+        <v>998</v>
+      </c>
+      <c r="D281" s="90"/>
+      <c r="E281" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F281" s="90" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="90">
+        <v>3</v>
+      </c>
+      <c r="B282" s="90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C282" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D282" s="90" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E282" s="90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F282" s="90" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="90">
+        <v>4</v>
+      </c>
+      <c r="B283" s="90" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C283" s="90" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D283" s="90" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E283" s="90" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F283" s="90" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="90">
+        <v>5</v>
+      </c>
+      <c r="B284" s="90" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C284" s="90" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D284" s="90"/>
+      <c r="E284" s="90"/>
+      <c r="F284" s="90" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="90">
+        <v>6</v>
+      </c>
+      <c r="B285" s="90" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C285" s="90" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D285" s="90" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E285" s="90" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F285" s="90" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="90">
+        <v>7</v>
+      </c>
+      <c r="B286" s="90" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C286" s="90" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D286" s="90"/>
+      <c r="E286" s="90" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F286" s="90" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16244,26 +16809,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E2464F-B718-4F6B-816D-EE9C2DE24C44}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1061</v>
       </c>
@@ -16274,8 +16839,11 @@
         <f>CONCATENATE($A$2,"'",B4,"','",C4,"');")</f>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular MTS (REGULER)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order,Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1077</v>
       </c>
@@ -16283,11 +16851,14 @@
         <v>1077</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D24" si="0">CONCATENATE($A$2,"'",B5,"','",C5,"');")</f>
+        <f t="shared" ref="D5:E24" si="0">CONCATENATE($A$2,"'",B5,"','",C5,"');")</f>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku','Pembelian Bahan Baku');</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1102</v>
       </c>
@@ -16298,188 +16869,266 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Barang Dagangan Gas','Pembelian Bahan Baku');</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C7" t="s">
         <v>1192</v>
       </c>
-      <c r="C7" t="s">
-        <v>1193</v>
-      </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular &amp; IB MTS','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku Liquid','Pembelian Bahan Baku Liquid');</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>1243</v>
       </c>
-      <c r="C9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku Liquid','Pembelian Bahan Baku Liquid');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1244</v>
-      </c>
       <c r="C10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C11" t="s">
         <v>1290</v>
       </c>
-      <c r="C11" t="s">
-        <v>1291</v>
-      </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer Reguler Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C12" t="s">
         <v>1319</v>
       </c>
-      <c r="C12" t="s">
-        <v>1320</v>
-      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS (Reclass)','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C13" t="s">
         <v>1361</v>
       </c>
-      <c r="C13" t="s">
-        <v>1362</v>
-      </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Sales Kontrak Material','Transaksi sales kontrak Material Sales Contract, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C14" t="s">
         <v>1395</v>
       </c>
-      <c r="C14" t="s">
-        <v>1396</v>
-      </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C15" t="s">
         <v>1417</v>
       </c>
-      <c r="C15" t="s">
-        <v>1418</v>
-      </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Klaim &amp; Pengganti Klaim','Klaim &amp; Pengganti Klaim Customer');</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Perubahan Fungsi Gas','Perubahan Fungsi Gas - Botol');</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>1479</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Perubahan Fungsi Gas','Perubahan Fungsi Gas - Botol');</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1480</v>
       </c>
-      <c r="C17" t="s">
-        <v>1481</v>
-      </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Retur Penjualan','Retur Penjualan (Nota Retur)');</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C18" t="s">
         <v>1500</v>
       </c>
-      <c r="C18" t="s">
-        <v>1501</v>
-      </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('BA Perubahan SN Botol','BA Perubahan SN Botol - Botol MP');</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C19" t="s">
         <v>1506</v>
       </c>
-      <c r="C19" t="s">
-        <v>1507</v>
-      </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','Integrasi PM ke MM, FI, CO');</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1506</v>
+      </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('','');</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Plant Maintenance','Integrasi PM ke MM, FI, CO');</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1506</v>
+      </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('','');</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Material Ambil Dari Gudang (PM Internal)','Integrasi PM ke MM, FI, CO');</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1506</v>
+      </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('','');</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','Integrasi PM ke MM, FI, CO');</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1589</v>
+      </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('','');</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pengembalian Botol Rusak MR','Pengembalian Botol Rusak MR - Milik Customer');</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('','');</v>
@@ -16487,15 +17136,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3DAA09-40AA-42C0-AFF6-CE649A7F152D}">
-  <dimension ref="A1:G267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17020,9 +17670,6 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
-      <c r="G25" s="88" t="s">
-        <v>1140</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -17045,7 +17692,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','1','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G26" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -17069,7 +17716,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','2','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -17093,7 +17740,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','3','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G28" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17117,7 +17764,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','4','Create PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G29" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17141,7 +17788,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','5','Release PO (Hub. Tim untuk rilis PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G30" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -17165,7 +17812,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','6a','Cetak PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17189,7 +17836,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','6b','Cetak PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17213,7 +17860,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','7','LPB BAHAN BAKU LIQUID','MIGO','GUDANG');</v>
       </c>
       <c r="G33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17237,7 +17884,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','8','Losses Pembelian','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -17261,7 +17908,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','9','Transfer SLOC LIQUID','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17285,7 +17932,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','10','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17309,7 +17956,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','11','Pengakuan HUTANG','MIRO','AKUNTANSI');</v>
       </c>
       <c r="G37" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -17333,7 +17980,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','12','Pelunasan HUTANG via CASH','FBCJ','KASIR');</v>
       </c>
       <c r="G38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -17357,7 +18004,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','13','Pelunasan HUTANG via BANK','F-42','KASIR');</v>
       </c>
       <c r="G39" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -17381,7 +18028,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','14','Clear HUTANG','F-44','AKUNTANSI');</v>
       </c>
       <c r="G40" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -17390,9 +18037,6 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
-      <c r="G41" s="88" t="s">
-        <v>1140</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -17415,7 +18059,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','1','TTBK','ZMMENH025','LOGISTIK IN');</v>
       </c>
       <c r="G42" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -17439,7 +18083,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','2','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G43" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -17463,7 +18107,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','3','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -17487,7 +18131,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','4','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -17511,7 +18155,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','5','Pengeluaran Botol Pengisian (541)','ZSDENH025','LOGISTIK OUT');</v>
       </c>
       <c r="G46" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -17535,7 +18179,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','6','CREATE PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G47" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -17559,7 +18203,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','7','Release PO (HUBUNGI TEAM UNTUK RELEASE PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G48" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -17583,7 +18227,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','8a','CETAK PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -17607,7 +18251,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','8b','CETAK PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G50" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -17631,7 +18275,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','9','LPB Barang Dagangan GAS','MIGO','GUDANG');</v>
       </c>
       <c r="G51" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -17655,7 +18299,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','10','Penerimaan Botol Pengisian (542)','ZSDENH025','LOGISTIK IN');</v>
       </c>
       <c r="G52" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -17679,7 +18323,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','11','Penerimaan Botol Pinjaman','ZSDENH020','LOGISTIK IN');</v>
       </c>
       <c r="G53" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -17703,7 +18347,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','12','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G54" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -17727,7 +18371,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','13','Pengakuan HUTANG','MIRO','Akuntansi');</v>
       </c>
       <c r="G55" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -17751,7 +18395,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','14','Pelunasan HUTANG via CASH','FBCJ','Kasir');</v>
       </c>
       <c r="G56" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -17775,7 +18419,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','15','Pelunasan HUTANG via BANK','F-42','Kasir');</v>
       </c>
       <c r="G57" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -17799,7 +18443,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','16','Clear HUTANG','F-44','Akuntansi');</v>
       </c>
       <c r="G58" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -17811,13 +18455,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B60" s="87">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -17830,84 +18474,84 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','(Cust IB) Create PR','ME51N','Gudang');</v>
       </c>
       <c r="G60" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B61" s="87">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E61" t="s">
         <v>1174</v>
       </c>
-      <c r="E61" t="s">
-        <v>1175</v>
-      </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2','(Cust IB) Release PR (IB NON RELEASE)','ME54N','GM Plant/Pemb');</v>
       </c>
       <c r="G61" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B62" s="87">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','3','(Cust IB) Create PO','ME21N','Adm Pemb.');</v>
       </c>
       <c r="G62" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B63" s="87">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D63" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E63" t="s">
         <v>1178</v>
       </c>
-      <c r="E63" t="s">
-        <v>1179</v>
-      </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','4','(Cust IB) Release PO','ME29N','Mgr &amp; GM Pembelian/ Direksi');</v>
       </c>
       <c r="G63" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B64" s="87">
         <v>1</v>
@@ -17926,12 +18570,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G64" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B65" s="87" t="s">
         <v>1064</v>
@@ -17950,12 +18594,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G65" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B66" s="87" t="s">
         <v>1065</v>
@@ -17974,12 +18618,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G66" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B67" s="87">
         <v>3</v>
@@ -17998,12 +18642,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G67" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B68" s="87">
         <v>4</v>
@@ -18022,12 +18666,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G68" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B69" s="87" t="s">
         <v>1067</v>
@@ -18046,12 +18690,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G69" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B70" s="87" t="s">
         <v>1066</v>
@@ -18070,12 +18714,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G70" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B71" s="87" t="s">
         <v>1068</v>
@@ -18094,12 +18738,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G71" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B72" s="87" t="s">
         <v>1069</v>
@@ -18118,12 +18762,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G72" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B73" s="87">
         <v>7</v>
@@ -18139,12 +18783,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','7','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G73" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B74" s="87">
         <v>8</v>
@@ -18163,12 +18807,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G74" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B75" s="87">
         <v>9</v>
@@ -18187,12 +18831,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G75" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B76" s="87">
         <v>10</v>
@@ -18211,12 +18855,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G76" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B77" s="87" t="s">
         <v>1070</v>
@@ -18235,12 +18879,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G77" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B78" s="87" t="s">
         <v>1071</v>
@@ -18259,12 +18903,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G78" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B79" s="87" t="s">
         <v>1072</v>
@@ -18283,12 +18927,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G79" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B80" s="87" t="s">
         <v>1073</v>
@@ -18307,12 +18951,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G80" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B81" s="87" t="s">
         <v>1074</v>
@@ -18331,12 +18975,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G81" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B82" s="87" t="s">
         <v>1075</v>
@@ -18355,12 +18999,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G82" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B83" s="87">
         <v>13</v>
@@ -18379,12 +19023,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G83" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B84" s="87">
         <v>14</v>
@@ -18403,18 +19047,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G84" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B85" s="87">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -18427,31 +19071,31 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','(Cust IB) Create Goods Receipt','MIGO','Gudang');</v>
       </c>
       <c r="G85" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B86" s="87">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2','(Cust IB) Melakukan Inv.Verification','MIRO','Adm Hutang');</v>
       </c>
       <c r="G86" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -18463,7 +19107,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B88" s="87">
         <v>1</v>
@@ -18482,12 +19126,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G88" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B89" s="87" t="s">
         <v>1064</v>
@@ -18506,12 +19150,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G89" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B90" s="87" t="s">
         <v>1065</v>
@@ -18530,12 +19174,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G90" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B91" s="87">
         <v>3</v>
@@ -18554,12 +19198,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G91" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B92" s="87">
         <v>4</v>
@@ -18578,12 +19222,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G92" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B93" s="87" t="s">
         <v>1067</v>
@@ -18602,12 +19246,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G93" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B94" s="87" t="s">
         <v>1066</v>
@@ -18626,12 +19270,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G94" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B95" s="87" t="s">
         <v>1068</v>
@@ -18650,12 +19294,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G95" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B96" s="87" t="s">
         <v>1069</v>
@@ -18674,12 +19318,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G96" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B97" s="87">
         <v>7</v>
@@ -18695,12 +19339,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','7','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G97" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B98" s="87">
         <v>8</v>
@@ -18719,12 +19363,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G98" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B99" s="87">
         <v>9</v>
@@ -18743,12 +19387,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G99" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B100" s="87">
         <v>10</v>
@@ -18767,12 +19411,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G100" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B101" s="87" t="s">
         <v>1070</v>
@@ -18791,12 +19435,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G101" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B102" s="87" t="s">
         <v>1071</v>
@@ -18815,12 +19459,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G102" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B103" s="87" t="s">
         <v>1072</v>
@@ -18839,12 +19483,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G103" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B104" s="87" t="s">
         <v>1073</v>
@@ -18863,12 +19507,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G104" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B105" s="87" t="s">
         <v>1074</v>
@@ -18887,12 +19531,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G105" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B106" s="87" t="s">
         <v>1075</v>
@@ -18911,12 +19555,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G106" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B107" s="87">
         <v>13</v>
@@ -18935,12 +19579,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G107" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B108" s="87">
         <v>14</v>
@@ -18959,7 +19603,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G108" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -18971,7 +19615,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B110" s="87">
         <v>1</v>
@@ -18990,12 +19634,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','1','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G110" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B111" s="87">
         <v>2</v>
@@ -19014,12 +19658,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','2','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G111" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B112" s="87">
         <v>3</v>
@@ -19038,12 +19682,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','3','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G112" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B113" s="87">
         <v>4</v>
@@ -19062,12 +19706,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','4','CREATE PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G113" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B114" s="87">
         <v>5</v>
@@ -19086,12 +19730,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','5','Release PO (HUBUNGI TEAM UNTUK RELEASE PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G114" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B115" s="87" t="s">
         <v>1068</v>
@@ -19110,12 +19754,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','6a','CETAK PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G115" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B116" s="87" t="s">
         <v>1069</v>
@@ -19134,12 +19778,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','6b','CETAK PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G116" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B117" s="87">
         <v>7</v>
@@ -19158,12 +19802,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','7','LPB BAHAN BAKU LIQUID','MIGO','GUDANG');</v>
       </c>
       <c r="G117" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B118" s="87">
         <v>8</v>
@@ -19182,12 +19826,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','8','Losses Pembelian','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G118" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B119" s="87">
         <v>9</v>
@@ -19206,12 +19850,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','9','Transfer SLOC LIQUID','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G119" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B120" s="87">
         <v>10</v>
@@ -19230,12 +19874,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','10','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G120" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B121" s="87">
         <v>11</v>
@@ -19254,12 +19898,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','11','Pengakuan HUTANG','MIRO','AKUNTANSI');</v>
       </c>
       <c r="G121" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B122" s="87">
         <v>12</v>
@@ -19278,12 +19922,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','12','Pelunasan HUTANG via CASH','FBCJ','KASIR');</v>
       </c>
       <c r="G122" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B123" s="87">
         <v>13</v>
@@ -19302,12 +19946,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','13','Pelunasan HUTANG via BANK','F-42','KASIR');</v>
       </c>
       <c r="G123" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B124" s="87">
         <v>14</v>
@@ -19326,7 +19970,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','14','Clear HUTANG','F-44','AKUNTANSI');</v>
       </c>
       <c r="G124" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -19338,10 +19982,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B126" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C126" t="s">
         <v>997</v>
@@ -19357,15 +20001,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','1a','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G126" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B127" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C127" t="s">
         <v>1007</v>
@@ -19381,12 +20025,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','1b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G127" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B128" s="87" t="s">
         <v>1064</v>
@@ -19405,12 +20049,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G128" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B129" s="87" t="s">
         <v>1065</v>
@@ -19429,15 +20073,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G129" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B130" s="87" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C130" t="s">
         <v>1049</v>
@@ -19453,18 +20097,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G130" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B131" s="87">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -19477,12 +20121,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','3','Terima Plns dari Customer via Cash','FBCJ','GL Bank');</v>
       </c>
       <c r="G131" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B132" s="87">
         <v>4</v>
@@ -19501,12 +20145,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','4','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G132" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B133" s="87">
         <v>5</v>
@@ -19525,12 +20169,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','5','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G133" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B134" s="87">
         <v>6</v>
@@ -19549,12 +20193,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','6','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Produksi');</v>
       </c>
       <c r="G134" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B135" s="87">
         <v>7</v>
@@ -19573,12 +20217,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','7','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G135" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B136" s="87">
         <v>8</v>
@@ -19594,12 +20238,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','8','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G136" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B137" s="87">
         <v>9</v>
@@ -19618,18 +20262,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','9','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G137" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B138" s="87">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D138" t="s">
         <v>1010</v>
@@ -19642,12 +20286,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','10','Sales Counter buat Perintah Packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G138" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B139" s="87">
         <v>11</v>
@@ -19666,12 +20310,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','11','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G139" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B140" s="87">
         <v>12</v>
@@ -19690,18 +20334,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','12','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G140" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B141" s="87" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C141" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D141" t="s">
         <v>1036</v>
@@ -19714,18 +20358,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','13a','Posting (GI) Surat Jalan','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G141" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B142" s="87" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C142" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D142" t="s">
         <v>1039</v>
@@ -19738,31 +20382,31 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','13b','Posting (GI) Surat Jalan','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G142" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B143" s="87">
         <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D143" t="s">
         <v>1042</v>
       </c>
       <c r="E143" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','14','Cetak Surat Jalan ','VL03N','Distribusi');</v>
       </c>
       <c r="G143" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -19774,7 +20418,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B145" s="87">
         <v>1</v>
@@ -19789,16 +20433,16 @@
         <v>1001</v>
       </c>
       <c r="F145" t="str">
-        <f>CONCATENATE($A$2,"'",A145,"','",B145,"','",C145,"','",D145,"','",E145,"');")</f>
+        <f t="shared" ref="F145:F165" si="3">CONCATENATE($A$2,"'",A145,"','",B145,"','",C145,"','",D145,"','",E145,"');")</f>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G145" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B146" s="87" t="s">
         <v>1064</v>
@@ -19813,16 +20457,16 @@
         <v>1006</v>
       </c>
       <c r="F146" t="str">
-        <f>CONCATENATE($A$2,"'",A146,"','",B146,"','",C146,"','",D146,"','",E146,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G146" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B147" s="87" t="s">
         <v>1065</v>
@@ -19837,40 +20481,40 @@
         <v>1001</v>
       </c>
       <c r="F147" t="str">
-        <f>CONCATENATE($A$2,"'",A147,"','",B147,"','",C147,"','",D147,"','",E147,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G147" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B148" s="87">
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D148" t="s">
         <v>1010</v>
       </c>
       <c r="E148" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F148" t="str">
-        <f>CONCATENATE($A$2,"'",A148,"','",B148,"','",C148,"','",D148,"','",E148,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','3','Distribusi buat perintah packing ','ZSDENH039','Distribusi');</v>
       </c>
       <c r="G148" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B149" s="87">
         <v>4</v>
@@ -19885,16 +20529,16 @@
         <v>1015</v>
       </c>
       <c r="F149" t="str">
-        <f>CONCATENATE($A$2,"'",A149,"','",B149,"','",C149,"','",D149,"','",E149,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G149" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B150" s="87" t="s">
         <v>1067</v>
@@ -19909,16 +20553,16 @@
         <v>1019</v>
       </c>
       <c r="F150" t="str">
-        <f>CONCATENATE($A$2,"'",A150,"','",B150,"','",C150,"','",D150,"','",E150,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G150" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B151" s="87" t="s">
         <v>1066</v>
@@ -19933,16 +20577,16 @@
         <v>1019</v>
       </c>
       <c r="F151" t="str">
-        <f>CONCATENATE($A$2,"'",A151,"','",B151,"','",C151,"','",D151,"','",E151,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G151" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B152" s="87" t="s">
         <v>1068</v>
@@ -19957,16 +20601,16 @@
         <v>1001</v>
       </c>
       <c r="F152" t="str">
-        <f>CONCATENATE($A$2,"'",A152,"','",B152,"','",C152,"','",D152,"','",E152,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G152" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B153" s="87" t="s">
         <v>1069</v>
@@ -19981,40 +20625,40 @@
         <v>1001</v>
       </c>
       <c r="F153" t="str">
-        <f>CONCATENATE($A$2,"'",A153,"','",B153,"','",C153,"','",D153,"','",E153,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G153" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B154" s="87">
         <v>7</v>
       </c>
       <c r="C154" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D154" t="s">
         <v>1294</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1295</v>
       </c>
       <c r="E154" t="s">
         <v>1031</v>
       </c>
       <c r="F154" t="str">
-        <f>CONCATENATE($A$2,"'",A154,"','",B154,"','",C154,"','",D154,"','",E154,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','7','Check PRO Container MR','COOIS','Produksi');</v>
       </c>
       <c r="G154" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B155" s="87">
         <v>8</v>
@@ -20029,16 +20673,16 @@
         <v>1031</v>
       </c>
       <c r="F155" t="str">
-        <f>CONCATENATE($A$2,"'",A155,"','",B155,"','",C155,"','",D155,"','",E155,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G155" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B156" s="87">
         <v>9</v>
@@ -20053,16 +20697,16 @@
         <v>1015</v>
       </c>
       <c r="F156" t="str">
-        <f>CONCATENATE($A$2,"'",A156,"','",B156,"','",C156,"','",D156,"','",E156,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G156" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B157" s="87">
         <v>10</v>
@@ -20077,16 +20721,16 @@
         <v>1015</v>
       </c>
       <c r="F157" t="str">
-        <f>CONCATENATE($A$2,"'",A157,"','",B157,"','",C157,"','",D157,"','",E157,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G157" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B158" s="87" t="s">
         <v>1070</v>
@@ -20101,16 +20745,16 @@
         <v>1038</v>
       </c>
       <c r="F158" t="str">
-        <f>CONCATENATE($A$2,"'",A158,"','",B158,"','",C158,"','",D158,"','",E158,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G158" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B159" s="87" t="s">
         <v>1071</v>
@@ -20125,16 +20769,16 @@
         <v>1038</v>
       </c>
       <c r="F159" t="str">
-        <f>CONCATENATE($A$2,"'",A159,"','",B159,"','",C159,"','",D159,"','",E159,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G159" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B160" s="87" t="s">
         <v>1072</v>
@@ -20149,16 +20793,16 @@
         <v>1038</v>
       </c>
       <c r="F160" t="str">
-        <f>CONCATENATE($A$2,"'",A160,"','",B160,"','",C160,"','",D160,"','",E160,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G160" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B161" s="87" t="s">
         <v>1073</v>
@@ -20173,16 +20817,16 @@
         <v>1046</v>
       </c>
       <c r="F161" t="str">
-        <f>CONCATENATE($A$2,"'",A161,"','",B161,"','",C161,"','",D161,"','",E161,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G161" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B162" s="87" t="s">
         <v>1074</v>
@@ -20197,16 +20841,16 @@
         <v>1046</v>
       </c>
       <c r="F162" t="str">
-        <f>CONCATENATE($A$2,"'",A162,"','",B162,"','",C162,"','",D162,"','",E162,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G162" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B163" s="87" t="s">
         <v>1075</v>
@@ -20218,22 +20862,22 @@
         <v>1046</v>
       </c>
       <c r="F163" t="str">
-        <f>CONCATENATE($A$2,"'",A163,"','",B163,"','",C163,"','",D163,"','",E163,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12c','Cetak Faktur Pajak','','Adm Penjualan');</v>
       </c>
       <c r="G163" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B164" s="87">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D164" t="s">
         <v>1052</v>
@@ -20242,16 +20886,16 @@
         <v>1055</v>
       </c>
       <c r="F164" t="str">
-        <f>CONCATENATE($A$2,"'",A164,"','",B164,"','",C164,"','",D164,"','",E164,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','13','Terima Plns dari Customer via bank Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G164" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B165" s="87">
         <v>14</v>
@@ -20266,23 +20910,23 @@
         <v>1059</v>
       </c>
       <c r="F165" t="str">
-        <f>CONCATENATE($A$2,"'",A165,"','",B165,"','",C165,"','",D165,"','",E165,"');")</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G165" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
       <c r="F166" t="str">
-        <f t="shared" ref="F166:F229" si="3">CONCATENATE($A$2,"'",A166,"','",B166,"','",C166,"','",D166,"','",E166,"');")</f>
+        <f t="shared" ref="F166:F229" si="4">CONCATENATE($A$2,"'",A166,"','",B166,"','",C166,"','",D166,"','",E166,"');")</f>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B167" s="87">
         <v>1</v>
@@ -20297,16 +20941,16 @@
         <v>1001</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G167" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B168" s="87" t="s">
         <v>1064</v>
@@ -20321,16 +20965,16 @@
         <v>1006</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G168" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B169" s="87" t="s">
         <v>1065</v>
@@ -20345,16 +20989,16 @@
         <v>1001</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G169" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B170" s="87">
         <v>3</v>
@@ -20369,40 +21013,40 @@
         <v>1001</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G170" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B171" s="87">
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D171" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E171" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','4','Adm Persedian buat Re-Class Material Raw (Bahan Baku) menjadi PRD (Barang Dagangan)','MB1B-309','Adm Persediaan');</v>
       </c>
       <c r="G171" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B172" s="87">
         <v>5</v>
@@ -20417,16 +21061,16 @@
         <v>1015</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','5','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G172" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B173" s="87">
         <v>6</v>
@@ -20441,19 +21085,19 @@
         <v>1015</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','6','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G173" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B174" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C174" t="s">
         <v>1035</v>
@@ -20465,19 +21109,19 @@
         <v>1038</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','7a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G174" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B175" s="87" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C175" t="s">
         <v>1035</v>
@@ -20489,16 +21133,16 @@
         <v>1038</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','7b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G175" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B176" s="87">
         <v>8</v>
@@ -20513,19 +21157,19 @@
         <v>1038</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','8','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G176" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B177" s="87" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C177" t="s">
         <v>1043</v>
@@ -20537,19 +21181,19 @@
         <v>1046</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G177" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B178" s="87" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C178" t="s">
         <v>1047</v>
@@ -20561,19 +21205,19 @@
         <v>1046</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G178" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B179" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C179" t="s">
         <v>1049</v>
@@ -20582,40 +21226,40 @@
         <v>1046</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9c','Cetak Faktur Pajak','','Adm Penjualan');</v>
       </c>
       <c r="G179" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B180" s="87">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','10','Terima Plns dari Customer via cash','FBCJ','GL Cash');</v>
       </c>
       <c r="G180" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B181" s="87">
         <v>11</v>
@@ -20630,137 +21274,137 @@
         <v>1059</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','11','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G181" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="89"/>
       <c r="F182" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B183" s="87">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D183" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','1','Prosedur create Master data Material, BOM, Routing baru','CS01,CR01,CA01,C223','');</v>
       </c>
       <c r="G183" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B184" s="87" t="s">
         <v>1064</v>
       </c>
       <c r="C184" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D184" t="s">
         <v>1333</v>
       </c>
-      <c r="D184" t="s">
-        <v>1334</v>
-      </c>
       <c r="F184" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','2a','Finish Good Standard Price Maintenance','CK11N','');</v>
       </c>
       <c r="G184" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B185" s="87" t="s">
         <v>1065</v>
       </c>
       <c r="C185" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D185" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','2b','Finish Good Standard Price Maintenance','CK24','');</v>
       </c>
       <c r="G185" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B186" s="87">
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D186" t="s">
         <v>840</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','3','Master data pricing','VK11','');</v>
       </c>
       <c r="G186" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B187" s="87">
         <v>4</v>
       </c>
       <c r="C187" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D187" t="s">
         <v>1337</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1338</v>
       </c>
       <c r="E187" t="s">
         <v>1001</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','4','Buat Sales Kontrak','VA41','Sales Counter');</v>
       </c>
       <c r="G187" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B188" s="87">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D188" t="s">
         <v>1004</v>
@@ -20769,22 +21413,22 @@
         <v>1006</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','5','Release SO Kontrak (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G188" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B189" s="87">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D189" t="s">
         <v>1044</v>
@@ -20793,22 +21437,22 @@
         <v>1046</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','6','Create Invoice DP','VF01','Adm Penjualan');</v>
       </c>
       <c r="G189" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B190" s="87">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D190" t="s">
         <v>17</v>
@@ -20817,46 +21461,46 @@
         <v>37</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','7','Penerimaan Uang Muka via cash','FBCJ','Kasir');</v>
       </c>
       <c r="G190" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B191" s="87">
         <v>8</v>
       </c>
       <c r="C191" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D191" t="s">
         <v>1345</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1346</v>
       </c>
       <c r="E191" t="s">
         <v>1059</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','8','Pengakuan Uang Muka','F-29','Adm Piutang');</v>
       </c>
       <c r="G191" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B192" s="87">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D192" t="s">
         <v>998</v>
@@ -20865,22 +21509,22 @@
         <v>1001</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','9','Create SO partial sesuai termin','VA01','Sales Counter');</v>
       </c>
       <c r="G192" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B193" s="87">
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D193" t="s">
         <v>1010</v>
@@ -20889,17 +21533,17 @@
         <v>1001</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','10','Sales Counter buat perintah 
 packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G193" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B194" s="87">
         <v>11</v>
@@ -20914,16 +21558,16 @@
         <v>1031</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','11','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G194" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B195" s="87">
         <v>12</v>
@@ -20938,40 +21582,40 @@
         <v>1015</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','12','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G195" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B196" s="87">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D196" t="s">
         <v>1039</v>
       </c>
       <c r="E196" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','13','Buat Surat Jalan, posting (GI) dan Cetak ','VL02N','Distribusi');</v>
       </c>
       <c r="G196" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B197" s="87">
         <v>14</v>
@@ -20986,22 +21630,22 @@
         <v>1046</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','14','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G197" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B198" s="87">
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D198" t="s">
         <v>1052</v>
@@ -21010,22 +21654,22 @@
         <v>37</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','15','Terima plns d/ cust. Via Bank BCA Test trf','F-21','Kasir');</v>
       </c>
       <c r="G198" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B199" s="87">
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D199" t="s">
         <v>1057</v>
@@ -21034,26 +21678,26 @@
         <v>1059</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','16','Clear A/R','F-32','Adm Piutang');</v>
       </c>
       <c r="G199" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="89"/>
       <c r="F200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B201" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C201" t="s">
         <v>997</v>
@@ -21065,19 +21709,19 @@
         <v>1001</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','1a','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G201" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B202" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C202" t="s">
         <v>1007</v>
@@ -21089,16 +21733,16 @@
         <v>1001</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','1b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G202" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B203" s="87" t="s">
         <v>1064</v>
@@ -21113,16 +21757,16 @@
         <v>1046</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','2a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G203" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B204" s="87" t="s">
         <v>1065</v>
@@ -21137,22 +21781,22 @@
         <v>1046</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','2b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G204" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B205" s="87">
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D205" t="s">
         <v>1052</v>
@@ -21161,22 +21805,22 @@
         <v>37</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','3','Terima Plns dari Customer via bank Transfer','F-21','Kasir');</v>
       </c>
       <c r="G205" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B206" s="87">
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D206" t="s">
         <v>1052</v>
@@ -21185,16 +21829,16 @@
         <v>37</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','4','Terima Plns dari Customer via cash','F-21','Kasir');</v>
       </c>
       <c r="G206" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B207" s="87">
         <v>5</v>
@@ -21209,16 +21853,16 @@
         <v>1059</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','5','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G207" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B208" s="87">
         <v>6</v>
@@ -21233,16 +21877,16 @@
         <v>1015</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','6','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G208" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B209" s="87">
         <v>7</v>
@@ -21257,16 +21901,16 @@
         <v>1031</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','7','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Produksi');</v>
       </c>
       <c r="G209" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B210" s="87">
         <v>8</v>
@@ -21281,16 +21925,16 @@
         <v>1001</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','8','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G210" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B211" s="87">
         <v>9</v>
@@ -21302,16 +21946,16 @@
         <v>1027</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','9','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G211" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B212" s="87">
         <v>10</v>
@@ -21326,22 +21970,22 @@
         <v>1031</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','10','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G212" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B213" s="87">
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D213" t="s">
         <v>1010</v>
@@ -21350,16 +21994,16 @@
         <v>1001</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','11','Sales Counter buat Perintah Packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G213" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B214" s="87">
         <v>12</v>
@@ -21374,16 +22018,16 @@
         <v>1015</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','12','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G214" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B215" s="87">
         <v>13</v>
@@ -21398,22 +22042,22 @@
         <v>1015</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','13','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G215" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B216" s="87" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C216" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D216" t="s">
         <v>1036</v>
@@ -21422,22 +22066,22 @@
         <v>1038</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','14a','Posting (GI) Surat Jalan','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G216" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B217" s="87" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C217" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D217" t="s">
         <v>1039</v>
@@ -21446,53 +22090,53 @@
         <v>1038</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','14b','Posting (GI) Surat Jalan','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G217" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B218" s="87">
         <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D218" t="s">
         <v>1042</v>
       </c>
       <c r="E218" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','15','Cetak Surat Jalan ','VL03N','Distribusi');</v>
       </c>
       <c r="G218" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="89"/>
       <c r="F219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B220" s="87">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -21501,70 +22145,70 @@
         <v>1015</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','1','Buat TTBC','MANUAL','Adm Panggung');</v>
       </c>
       <c r="G220" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B221" s="87">
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','2','Cek Barang','MANUAL','QC');</v>
       </c>
       <c r="G221" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B222" s="87">
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','3','Release','MANUAL','GM Plant');</v>
       </c>
       <c r="G222" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B223" s="87">
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D223" t="s">
         <v>998</v>
@@ -21573,94 +22217,94 @@
         <v>1001</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','4','Create Retur Req -&gt; TYPE ZRR','VA01','Sales Counter');</v>
       </c>
       <c r="G223" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B224" s="87">
         <v>5</v>
       </c>
       <c r="C224" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D224" t="s">
         <v>1426</v>
       </c>
-      <c r="D224" t="s">
-        <v>1427</v>
-      </c>
       <c r="E224" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','5','GR ke Gen Sloc','VL01N / VL02N','QC/ Panggung');</v>
       </c>
       <c r="G224" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B225" s="87" t="s">
         <v>1068</v>
       </c>
       <c r="C225" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D225" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E225" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','6a','Scrapp','ZMMENH014','QC');</v>
       </c>
       <c r="G225" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B226" s="87" t="s">
         <v>1069</v>
       </c>
       <c r="C226" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D226" t="s">
         <v>1431</v>
       </c>
-      <c r="D226" t="s">
-        <v>1432</v>
-      </c>
       <c r="E226" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','6b','Transfer SLoc di Gen Sloc ke EMPTY','ZMMENH014','QC');</v>
       </c>
       <c r="G226" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B227" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C227" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D227" t="s">
         <v>998</v>
@@ -21669,22 +22313,22 @@
         <v>1001</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','7a','Create SO Replacement Request','VA01','Sales Counter');</v>
       </c>
       <c r="G227" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B228" s="87" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C228" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D228" t="s">
         <v>1008</v>
@@ -21693,22 +22337,22 @@
         <v>1001</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','7b','Cetak SO ','VA03','Sales Counter');</v>
       </c>
       <c r="G228" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B229" s="87" t="s">
         <v>1117</v>
       </c>
       <c r="C229" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D229" t="s">
         <v>1010</v>
@@ -21717,22 +22361,22 @@
         <v>1001</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','8a','Buat Document Packing','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G229" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B230" s="87" t="s">
         <v>1118</v>
       </c>
       <c r="C230" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D230" t="s">
         <v>1030</v>
@@ -21741,22 +22385,22 @@
         <v>1031</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" ref="F230:F266" si="4">CONCATENATE($A$2,"'",A230,"','",B230,"','",C230,"','",D230,"','",E230,"');")</f>
+        <f t="shared" ref="F230:F289" si="5">CONCATENATE($A$2,"'",A230,"','",B230,"','",C230,"','",D230,"','",E230,"');")</f>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','8b','Input Hasil Produksi ex Claim','ZPPENH001','Produksi');</v>
       </c>
       <c r="G230" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B231" s="87">
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D231" t="s">
         <v>1018</v>
@@ -21765,22 +22409,22 @@
         <v>1015</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','9','Transfer dari Sloc Full Pack ke Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G231" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B232" s="87">
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D232" t="s">
         <v>1018</v>
@@ -21789,249 +22433,249 @@
         <v>1015</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','11','Cetak Telling List','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G232" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B233" s="87">
         <v>12</v>
       </c>
       <c r="C233" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D233" t="s">
         <v>1442</v>
       </c>
-      <c r="D233" t="s">
-        <v>1443</v>
-      </c>
       <c r="E233" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','12','Realisasi &amp; Cetak DO, Melakukan GI','VL02N / VL03N','Sales Counter / Distribusi');</v>
       </c>
       <c r="G233" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="90" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B234" s="87">
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E234" t="s">
         <v>1038</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','13','Proses Buku Besar','','Distribusi/ Logistik');</v>
       </c>
       <c r="G234" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="89"/>
       <c r="F235" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="90" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B236" s="87">
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D236" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E236" t="s">
         <v>31</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','1','Create SPI','Manual','Marketing');</v>
       </c>
       <c r="G236" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="90" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B237" s="87">
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D237" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E237" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','2','Create BA Perubahan SN Botol - MP','Manual','Adm Botol');</v>
       </c>
       <c r="G237" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="90" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B238" s="87">
         <v>3</v>
       </c>
       <c r="C238" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D238" t="s">
         <v>1468</v>
       </c>
-      <c r="D238" t="s">
-        <v>1469</v>
-      </c>
       <c r="E238" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','3','Input BA Perubahan SN Botol – MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G238" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="90" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B239" s="87">
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D239" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E239" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','4','Cetak BA Perubahan SN Botol - MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G239" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="89"/>
       <c r="F240" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B241" s="87">
         <v>1</v>
       </c>
       <c r="C241" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D241" t="s">
         <v>1419</v>
-      </c>
-      <c r="D241" t="s">
-        <v>1420</v>
       </c>
       <c r="E241" t="s">
         <v>1015</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','1','Buat TTBC','Manual','Adm Panggung');</v>
       </c>
       <c r="G241" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B242" s="87">
         <v>2</v>
       </c>
       <c r="C242" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E242" t="s">
         <v>1421</v>
       </c>
-      <c r="D242" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E242" t="s">
-        <v>1422</v>
-      </c>
       <c r="F242" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','2','Cek Barang','Manual','QC');</v>
       </c>
       <c r="G242" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B243" s="87">
         <v>3</v>
       </c>
       <c r="C243" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E243" t="s">
         <v>1423</v>
       </c>
-      <c r="D243" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1424</v>
-      </c>
       <c r="F243" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','3','Release','Manual','GM Plant');</v>
       </c>
       <c r="G243" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B244" s="87">
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D244" t="s">
         <v>998</v>
@@ -22040,94 +22684,94 @@
         <v>1001</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','4','Create Retur Req à type ZRR','VA01','Sales Counter');</v>
       </c>
       <c r="G244" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B245" s="87">
         <v>5</v>
       </c>
       <c r="C245" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D245" t="s">
         <v>1426</v>
       </c>
-      <c r="D245" t="s">
-        <v>1427</v>
-      </c>
       <c r="E245" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','5','GR ke Gen Sloc','VL01N / VL02N','QC');</v>
       </c>
       <c r="G245" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B246" s="87">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D246" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E246" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','6','Transfer Status di Gen Sloc','ZMMENH014','QC');</v>
       </c>
       <c r="G246" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B247" s="87">
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D247" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E247" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','7','Transfer Status di Gen Sloc ke EMPTY','ZMMENH014','QC');</v>
       </c>
       <c r="G247" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B248" s="87">
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D248" t="s">
         <v>1044</v>
@@ -22136,225 +22780,225 @@
         <v>1046</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','8','Create Nota Retur','VF01','Adm Penjualan');</v>
       </c>
       <c r="G248" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="90" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B249" s="87">
         <v>9</v>
       </c>
       <c r="C249" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D249" t="s">
         <v>1488</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1489</v>
       </c>
       <c r="E249" t="s">
         <v>1046</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','9','Cetak Nota Retur Faktur Pajak','ZFIRPT040','Adm Penjualan');</v>
       </c>
       <c r="G249" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="89"/>
       <c r="F250" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="90" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B251" s="87">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D251" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','1','Create SPI','Manual','');</v>
       </c>
       <c r="G251" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="90" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B252" s="87">
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D252" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E252" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','2','Create BA Perubahan SN Botol - MP','Manual','Adm Botol');</v>
       </c>
       <c r="G252" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="90" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B253" s="87">
         <v>3</v>
       </c>
       <c r="C253" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D253" t="s">
         <v>1468</v>
       </c>
-      <c r="D253" t="s">
-        <v>1469</v>
-      </c>
       <c r="E253" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','3','Input BA Perubahan SN Botol – MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G253" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="90" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B254" s="87">
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D254" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E254" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','4','Cetak BA Perubahan SN Botol - MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G254" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="89"/>
       <c r="F255" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B256" s="87">
         <v>1</v>
       </c>
       <c r="C256" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D256" t="s">
         <v>1508</v>
       </c>
-      <c r="D256" t="s">
-        <v>1509</v>
-      </c>
       <c r="E256" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','1','Buat Notifikasi','IW21','Maintc.');</v>
       </c>
       <c r="G256" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B257" s="87">
         <v>2</v>
       </c>
       <c r="C257" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D257" t="s">
         <v>1513</v>
       </c>
-      <c r="D257" t="s">
-        <v>1514</v>
-      </c>
       <c r="E257" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','2','Buat Maintenance Order','IW22','Maintc.');</v>
       </c>
       <c r="G257" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B258" s="87">
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D258" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E258" t="s">
         <v>32</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','3','Release ( PR ) Purchase Requisition Jasa','ME54N','Gudang');</v>
       </c>
       <c r="G258" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B259" s="87" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C259" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -22363,46 +23007,46 @@
         <v>34</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','4a','Buat Purchase Order Service refer ke Purchase Requisition  Material pada langkah 3','ME21N','Pembelian');</v>
       </c>
       <c r="G259" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B260" s="87" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C260" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D260" t="s">
         <v>1177</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1178</v>
       </c>
       <c r="E260" t="s">
         <v>34</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','4b','Release PO','ME29N','Pembelian');</v>
       </c>
       <c r="G260" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B261" s="87">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D261" t="s">
         <v>11</v>
@@ -22411,137 +23055,633 @@
         <v>32</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','5','Goods Receipt untuk PO langkah ke 4 (Jasa &amp; Material)','MIGO','Gudang');</v>
       </c>
       <c r="G261" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B262" s="87">
         <v>6</v>
       </c>
       <c r="C262" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D262" t="s">
         <v>1523</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1524</v>
       </c>
       <c r="E262" t="s">
         <v>32</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','6','Sekaligus lakukan GI untuk Material','ZMMENH013','Gudang');</v>
       </c>
       <c r="G262" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B263" s="87">
         <v>7</v>
       </c>
       <c r="C263" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D263" t="s">
         <v>1527</v>
       </c>
-      <c r="D263" t="s">
-        <v>1528</v>
-      </c>
       <c r="E263" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','7','Confirmation Work Time after finish working','IW41','Maintc.');</v>
       </c>
       <c r="G263" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B264" s="87">
         <v>8</v>
       </c>
       <c r="C264" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D264" t="s">
         <v>1531</v>
       </c>
-      <c r="D264" t="s">
-        <v>1532</v>
-      </c>
       <c r="E264" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','8','Lakukan Settlement ke Cost Center, Internal Order atau FXA (Fix Asset)','KO88','Tim PM &amp; CO');</v>
       </c>
       <c r="G264" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B265" s="87">
         <v>9</v>
       </c>
       <c r="C265" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D265" t="s">
         <v>1536</v>
       </c>
-      <c r="D265" t="s">
-        <v>1537</v>
-      </c>
       <c r="F265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','9','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
       </c>
       <c r="G265" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B266" s="87">
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D266" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','10','Close MO','IW32 / IW38','');</v>
       </c>
       <c r="G266" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="89"/>
+      <c r="F267" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B268" s="87">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','1','Buat Notifikasi','IW21','Tim PM');</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B269" s="87">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','2','Buat Maintenance Order','IW22','Tim PM');</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B270" s="87">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','3','Lakukan Goods Issue untuk internal material refer ke M Order (movement type 261)','ZMMENH013','Tim MM ');</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B271" s="87">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F271" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','4','Confirmation Work Time after finish working','IW41','Maintc.');</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B272" s="87">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA (Fix Asset)','KO88','Tim PM &amp; CO');</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B273" s="87">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','6','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="89"/>
+      <c r="F274" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B275" s="87">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','1','Buat Notifikasi','IW21','Tim PM');</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B276" s="87">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','2','Buat Maintenance Order','IW22','Tim PM');</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B277" s="87" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3a','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim MM');</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B278" s="87" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3b','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim PM');</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B279" s="87">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','4','Confirmation Work Time after finish working','IW41','Maintc.');</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B280" s="87">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA','KO88','Tim PM &amp; CO');</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B281" s="87">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','6','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="89"/>
+      <c r="F282" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B283" s="90">
+        <v>1</v>
+      </c>
+      <c r="C283" s="90" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D283" s="90" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E283" s="90" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','1','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B284" s="90">
+        <v>2</v>
+      </c>
+      <c r="C284" s="90" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D284" s="90" t="s">
+        <v>998</v>
+      </c>
+      <c r="E284" s="90" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','2','Buat Sales Order (SO) - ZNP','VA01','Sales Counter');</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B285" s="90">
+        <v>3</v>
+      </c>
+      <c r="C285" s="90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D285" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E285" s="90" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B286" s="90">
+        <v>4</v>
+      </c>
+      <c r="C286" s="90" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D286" s="90" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E286" s="90" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','4','Transfer Packing dari Sloc Empty Pack ke sloc Distribusi','ZSDENH040','Distribusi/ Logistik');</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B287" s="90">
+        <v>5</v>
+      </c>
+      <c r="C287" s="90" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D287" s="90" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E287" s="90" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','5','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Distribusi/ Logistik');</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B288" s="90">
+        <v>6</v>
+      </c>
+      <c r="C288" s="90" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D288" s="90" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E288" s="90" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','6','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B289" s="90">
+        <v>7</v>
+      </c>
+      <c r="C289" s="90" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D289" s="90" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E289" s="90" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','7','Cetak Surat Jalan','VL03N','Sales Counter');</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24042,7 +25182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -24822,7 +25962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Concat Query Master.xlsx
+++ b/Concat Query Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="2880" windowWidth="12705" windowHeight="7980" activeTab="4"/>
+    <workbookView xWindow="11310" yWindow="2880" windowWidth="12705" windowHeight="7980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Buram" sheetId="5" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="CL PM" sheetId="7" r:id="rId10"/>
     <sheet name="CL PP" sheetId="8" r:id="rId11"/>
     <sheet name="CL SD" sheetId="9" r:id="rId12"/>
+    <sheet name="CL BASIS" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1661">
   <si>
     <t>INSERT INTO `m_uat_step`(`no_scn`, `no_step`, `bp_step`, `tcode_step`, `modul_step`, `user_step`) VALUES ([value-1],[value-2],[value-3],[value-4],[value-5],[value-6])</t>
   </si>
@@ -3436,9 +3437,6 @@
   </si>
   <si>
     <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','12b','Cetak Invoice','VF03','Adm Penjualan');</t>
-  </si>
-  <si>
-    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</t>
   </si>
   <si>
     <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</t>
@@ -4879,6 +4877,144 @@
   </si>
   <si>
     <t>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pengembalian Botol Rusak MR','Pengembalian Botol Rusak MR - Milik Customer');</t>
+  </si>
+  <si>
+    <t>Check &amp; Preparation</t>
+  </si>
+  <si>
+    <t>Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)</t>
+  </si>
+  <si>
+    <t>Installasi &amp; Setting</t>
+  </si>
+  <si>
+    <t>Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui</t>
+  </si>
+  <si>
+    <t>Rekap Role</t>
+  </si>
+  <si>
+    <t>Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)</t>
+  </si>
+  <si>
+    <t>Transport role</t>
+  </si>
+  <si>
+    <t>Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production</t>
+  </si>
+  <si>
+    <t>Pasang role di user</t>
+  </si>
+  <si>
+    <t>Pasang role di user BA yang akan live di server production</t>
+  </si>
+  <si>
+    <t>Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008</t>
+  </si>
+  <si>
+    <t>SU01</t>
+  </si>
+  <si>
+    <t>PFCG</t>
+  </si>
+  <si>
+    <t>ZGSBER_2008</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `v_check`(`id`, `ctype`, `ctypedesc`, `ctcode`, `ctable`, `cstat`, `cmodul`, `vcheck`, `vcba`, `vctransreqs`, `vcdate`, `vcpic`, `chg_by`, `chg_date`) VALUES ([value-1],[value-2],[value-3],[value-4],[value-5],[value-6],[value-7],[value-8],[value-9],[value-10],[value-11],[value-12],[value-13],[value-14])</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS','3010');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS','3011');</t>
+  </si>
+  <si>
+    <t>E-Faktur</t>
+  </si>
+  <si>
+    <t>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','12c','E-Faktur','E-Faktur','Adm Penjualan');</t>
   </si>
 </sst>
 </file>
@@ -4889,7 +5025,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5053,6 +5189,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5374,7 +5516,7 @@
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5609,6 +5751,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5920,7 +6071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9007,14 +9158,13 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H71"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -10804,6 +10954,605 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE($A$2,A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS');</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G11" si="0">CONCATENATE($A$2,A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"');")</f>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS');</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D6" s="93"/>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS');</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS');</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D8" s="93"/>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS');</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D9" s="93"/>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS');</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D10" s="93"/>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS');</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO m_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS');</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>3010</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE($A$16,A17,"','",B17,"','",C17,"','",D17,"','",E17,"','",F17,"','",G17,"');")</f>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS','3010');</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>3010</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ref="H18:H32" si="1">CONCATENATE($A$16,A18,"','",B18,"','",C18,"','",D18,"','",E18,"','",F18,"','",G18,"');")</f>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS','3010');</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>3010</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS','3010');</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>3010</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS','3010');</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D21" s="93"/>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>3010</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS','3010');</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D22" s="93"/>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>3010</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS','3010');</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>694</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>3010</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS','3010');</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>3010</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS','3010');</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>3011</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Check &amp; Preparation','Check semua peralatan barcode scanner (printer barcode berfungsi dengan baik dan setting = ZIM, barcode scanner frekuensi tidak boleh sama antar barcode scanner, tablet axioo berfungsi dengan baik)','','','','BASIS','3011');</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>3011</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Installasi &amp; Setting','Install dan setting Program2x yang di butuhkan pada tablet axioo untuk keperluan Implementasi Barcode Scanner (SAP Logon, ultravnc, wps office, adobe reader, anti virus, 7 zip dll)','','','','BASIS','3011');</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D27" s="93"/>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>3011</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Create User','Create User BA yang akan live di server production berdasarkan form pengajuan create user dari team SAP functional (FI,MM,SD,PM,PP) yang sudah di setujui','SU01','','','BASIS','3011');</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>3011</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Rekap Role','Rekap pengajuan Role BA yang akan live dari masing2x team SAP functional (FI,MM,SD,PM,PP) dari file server folder standarisasi user dan cross check dengan print hard copy role pengajuan dari team SAP functional (FI,MM,SD,PM,PP)','','','','BASIS','3011');</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D29" s="93"/>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>3011</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Transport role','Transport Role Spesifik dan Role Master (jika ada tambahan atau perubahan di role master) BA yang akan live dari dev 400 ke server production','PFCG','','','BASIS','3011');</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D30" s="93"/>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>3011</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pasang role di user','Pasang role di user BA yang akan live di server production','SU01','','','BASIS','3011');</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>3011</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Pembuatan Background Job','Pembuatan Background Job mass Generate Role Spesifik dan role master (jika ada tambahan atau perubahan di role master) di server production','PFCG','','','BASIS','3011');</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>3011</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO v_check(ctype,ctypedesc,ctcode,ctable,cstat,cmodul,vcba) VALUES ('Setting','Setting Nomor seri FP untuk BA yang akan live di table zgsber_2008','SM30','ZGSBER_2008','','BASIS','3011');</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13009,13 +13758,13 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E57" t="s">
         <v>1000</v>
@@ -13029,16 +13778,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C58" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F58" t="s">
         <v>1173</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13046,19 +13795,19 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E59" t="s">
         <v>1000</v>
       </c>
       <c r="F59" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13066,16 +13815,16 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C60" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F60" t="s">
         <v>1177</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13140,7 +13889,7 @@
         <v>1010</v>
       </c>
       <c r="D64" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E64" t="s">
         <v>1000</v>
@@ -13358,7 +14107,7 @@
         <v>1044</v>
       </c>
       <c r="D77" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E77" t="s">
         <v>1000</v>
@@ -13437,16 +14186,16 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E82" t="s">
         <v>1181</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1182</v>
       </c>
       <c r="F82" t="s">
         <v>32</v>
@@ -13457,19 +14206,19 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
       </c>
       <c r="D83" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F83" t="s">
         <v>1183</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -14104,7 +14853,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="87" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B123" t="s">
         <v>997</v>
@@ -14121,7 +14870,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B124" t="s">
         <v>1007</v>
@@ -14147,7 +14896,7 @@
         <v>1044</v>
       </c>
       <c r="D125" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E125" t="s">
         <v>1000</v>
@@ -14172,7 +14921,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B127" t="s">
         <v>1049</v>
@@ -14189,13 +14938,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C128" t="s">
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E128" t="s">
         <v>1000</v>
@@ -14311,13 +15060,13 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C135" t="s">
         <v>1010</v>
       </c>
       <c r="D135" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E135" t="s">
         <v>1000</v>
@@ -14362,10 +15111,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="87" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B138" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C138" t="s">
         <v>1036</v>
@@ -14382,10 +15131,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="87" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B139" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C139" t="s">
         <v>1039</v>
@@ -14402,13 +15151,13 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C140" t="s">
         <v>1042</v>
       </c>
       <c r="F140" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -14470,7 +15219,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C145" t="s">
         <v>1010</v>
@@ -14482,7 +15231,7 @@
         <v>1012</v>
       </c>
       <c r="F145" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -14496,7 +15245,7 @@
         <v>1014</v>
       </c>
       <c r="D146" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E146" t="s">
         <v>1000</v>
@@ -14575,13 +15324,13 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C151" t="s">
         <v>1293</v>
       </c>
-      <c r="C151" t="s">
+      <c r="E151" t="s">
         <v>1294</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1295</v>
       </c>
       <c r="F151" t="s">
         <v>1031</v>
@@ -14598,7 +15347,7 @@
         <v>1030</v>
       </c>
       <c r="D152" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F152" t="s">
         <v>1031</v>
@@ -14739,7 +15488,7 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C161" t="s">
         <v>1052</v>
@@ -14850,19 +15599,19 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C168" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D168" t="s">
         <v>1320</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1321</v>
       </c>
       <c r="E168" t="s">
         <v>1012</v>
       </c>
       <c r="F168" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -14901,7 +15650,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B171" t="s">
         <v>1035</v>
@@ -14921,7 +15670,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B172" t="s">
         <v>1035</v>
@@ -14952,7 +15701,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="87" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B174" t="s">
         <v>1043</v>
@@ -14972,7 +15721,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="87" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B175" t="s">
         <v>1047</v>
@@ -14986,7 +15735,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="87" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B176" t="s">
         <v>1049</v>
@@ -15000,19 +15749,19 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C177" t="s">
         <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E177" t="s">
         <v>1054</v>
       </c>
       <c r="F177" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -15040,10 +15789,10 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C180" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -15051,10 +15800,10 @@
         <v>1064</v>
       </c>
       <c r="B181" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C181" t="s">
         <v>1332</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -15062,10 +15811,10 @@
         <v>1065</v>
       </c>
       <c r="B182" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C182" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -15073,7 +15822,7 @@
         <v>3</v>
       </c>
       <c r="B183" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C183" t="s">
         <v>840</v>
@@ -15084,13 +15833,13 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C184" t="s">
         <v>1336</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>1337</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1338</v>
       </c>
       <c r="F184" t="s">
         <v>1001</v>
@@ -15101,7 +15850,7 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C185" t="s">
         <v>1004</v>
@@ -15118,13 +15867,13 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C186" t="s">
         <v>1044</v>
       </c>
       <c r="E186" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F186" t="s">
         <v>1046</v>
@@ -15135,16 +15884,16 @@
         <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E187" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F187" t="s">
         <v>37</v>
@@ -15155,16 +15904,16 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C188" t="s">
         <v>1344</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>1345</v>
       </c>
-      <c r="D188" t="s">
-        <v>1346</v>
-      </c>
       <c r="E188" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F188" t="s">
         <v>1059</v>
@@ -15175,13 +15924,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C189" t="s">
         <v>998</v>
       </c>
       <c r="E189" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F189" t="s">
         <v>1001</v>
@@ -15192,7 +15941,7 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C190" t="s">
         <v>1010</v>
@@ -15201,7 +15950,7 @@
         <v>1011</v>
       </c>
       <c r="E190" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F190" t="s">
         <v>1001</v>
@@ -15221,7 +15970,7 @@
         <v>1016</v>
       </c>
       <c r="E191" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F191" t="s">
         <v>1031</v>
@@ -15241,7 +15990,7 @@
         <v>1033</v>
       </c>
       <c r="E192" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F192" t="s">
         <v>1015</v>
@@ -15252,19 +16001,19 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C193" t="s">
         <v>1039</v>
       </c>
       <c r="D193" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E193" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F193" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -15278,7 +16027,7 @@
         <v>1044</v>
       </c>
       <c r="E194" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F194" t="s">
         <v>1046</v>
@@ -15289,16 +16038,16 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C195" t="s">
         <v>1052</v>
       </c>
       <c r="D195" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E195" t="s">
         <v>1356</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1357</v>
       </c>
       <c r="F195" t="s">
         <v>37</v>
@@ -15309,13 +16058,13 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C196" t="s">
         <v>1057</v>
       </c>
       <c r="E196" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F196" t="s">
         <v>1059</v>
@@ -15326,7 +16075,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="87" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B198" t="s">
         <v>997</v>
@@ -15343,7 +16092,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B199" t="s">
         <v>1007</v>
@@ -15369,7 +16118,7 @@
         <v>1044</v>
       </c>
       <c r="D200" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E200" t="s">
         <v>1000</v>
@@ -15397,7 +16146,7 @@
         <v>3</v>
       </c>
       <c r="B202" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C202" t="s">
         <v>1052</v>
@@ -15417,13 +16166,13 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C203" t="s">
         <v>1052</v>
       </c>
       <c r="D203" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E203" t="s">
         <v>1000</v>
@@ -15539,13 +16288,13 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C210" t="s">
         <v>1010</v>
       </c>
       <c r="D210" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E210" t="s">
         <v>1000</v>
@@ -15590,10 +16339,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="87" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B213" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C213" t="s">
         <v>1036</v>
@@ -15610,10 +16359,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="87" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B214" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C214" t="s">
         <v>1039</v>
@@ -15630,13 +16379,13 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C215" t="s">
         <v>1042</v>
       </c>
       <c r="F215" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -15647,10 +16396,10 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D217" t="s">
         <v>1418</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1419</v>
       </c>
       <c r="F217" t="s">
         <v>1015</v>
@@ -15661,13 +16410,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F218" t="s">
         <v>1420</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -15675,13 +16424,13 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F219" t="s">
         <v>1422</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -15689,16 +16438,16 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C220" t="s">
         <v>998</v>
       </c>
       <c r="D220" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E220" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F220" t="s">
         <v>1001</v>
@@ -15709,19 +16458,19 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C221" t="s">
         <v>1425</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>1426</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F221" t="s">
         <v>1427</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -15729,19 +16478,19 @@
         <v>1068</v>
       </c>
       <c r="B222" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C222" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D222" t="s">
         <v>1431</v>
       </c>
-      <c r="D222" t="s">
-        <v>1432</v>
-      </c>
       <c r="E222" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F222" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -15749,30 +16498,30 @@
         <v>1069</v>
       </c>
       <c r="B223" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C223" t="s">
         <v>1430</v>
       </c>
-      <c r="C223" t="s">
-        <v>1431</v>
-      </c>
       <c r="F223" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B224" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C224" t="s">
         <v>998</v>
       </c>
       <c r="D224" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E224" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F224" t="s">
         <v>1001</v>
@@ -15780,10 +16529,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B225" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C225" t="s">
         <v>1008</v>
@@ -15797,16 +16546,16 @@
         <v>1117</v>
       </c>
       <c r="B226" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C226" t="s">
         <v>1010</v>
       </c>
       <c r="D226" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E226" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F226" t="s">
         <v>1001</v>
@@ -15817,16 +16566,16 @@
         <v>1118</v>
       </c>
       <c r="B227" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C227" t="s">
         <v>1030</v>
       </c>
       <c r="D227" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E227" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F227" t="s">
         <v>1031</v>
@@ -15837,13 +16586,13 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C228" t="s">
         <v>1018</v>
       </c>
       <c r="E228" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F228" t="s">
         <v>1015</v>
@@ -15854,7 +16603,7 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C229" t="s">
         <v>1018</v>
@@ -15868,19 +16617,19 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C230" t="s">
         <v>1441</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>1442</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F230" t="s">
         <v>1443</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -15888,7 +16637,7 @@
         <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F231" t="s">
         <v>1038</v>
@@ -15902,13 +16651,13 @@
         <v>1</v>
       </c>
       <c r="B233" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D233" t="s">
         <v>1462</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1463</v>
       </c>
       <c r="F233" t="s">
         <v>31</v>
@@ -15919,16 +16668,16 @@
         <v>2</v>
       </c>
       <c r="B234" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D234" t="s">
         <v>1464</v>
       </c>
-      <c r="C234" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>1465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15936,19 +16685,19 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C235" t="s">
         <v>1467</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>1468</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>1469</v>
       </c>
-      <c r="E235" t="s">
-        <v>1470</v>
-      </c>
       <c r="F235" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15956,19 +16705,19 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D236" t="s">
         <v>1471</v>
       </c>
-      <c r="C236" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1472</v>
-      </c>
       <c r="E236" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F236" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15979,10 +16728,10 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C238" t="s">
         <v>1418</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1419</v>
       </c>
       <c r="F238" t="s">
         <v>1015</v>
@@ -15993,13 +16742,13 @@
         <v>2</v>
       </c>
       <c r="B239" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F239" t="s">
         <v>1420</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -16007,13 +16756,13 @@
         <v>3</v>
       </c>
       <c r="B240" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F240" t="s">
         <v>1422</v>
-      </c>
-      <c r="C240" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -16021,16 +16770,16 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C241" t="s">
         <v>998</v>
       </c>
       <c r="D241" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E241" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F241" t="s">
         <v>1001</v>
@@ -16041,16 +16790,16 @@
         <v>5</v>
       </c>
       <c r="B242" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C242" t="s">
         <v>1425</v>
       </c>
-      <c r="C242" t="s">
-        <v>1426</v>
-      </c>
       <c r="E242" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F242" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -16058,19 +16807,19 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C243" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D243" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E243" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F243" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -16078,19 +16827,19 @@
         <v>7</v>
       </c>
       <c r="B244" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D244" t="s">
         <v>1483</v>
       </c>
-      <c r="C244" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1484</v>
-      </c>
       <c r="E244" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F244" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -16098,16 +16847,16 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C245" t="s">
         <v>1044</v>
       </c>
       <c r="D245" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E245" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F245" t="s">
         <v>1046</v>
@@ -16118,13 +16867,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C246" t="s">
         <v>1487</v>
       </c>
-      <c r="C246" t="s">
-        <v>1488</v>
-      </c>
       <c r="E246" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F246" t="s">
         <v>1046</v>
@@ -16138,13 +16887,13 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D248" t="s">
         <v>1462</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -16152,16 +16901,16 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D249" t="s">
         <v>1464</v>
       </c>
-      <c r="C249" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>1465</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -16169,19 +16918,19 @@
         <v>3</v>
       </c>
       <c r="B250" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C250" t="s">
         <v>1467</v>
       </c>
-      <c r="C250" t="s">
-        <v>1468</v>
-      </c>
       <c r="D250" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E250" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F250" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -16189,19 +16938,19 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D251" t="s">
         <v>1471</v>
       </c>
-      <c r="C251" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1472</v>
-      </c>
       <c r="E251" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F251" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -16212,19 +16961,19 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C253" t="s">
         <v>1507</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>1508</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1509</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>1510</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -16232,19 +16981,19 @@
         <v>2</v>
       </c>
       <c r="B254" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C254" t="s">
         <v>1512</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>1513</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>1514</v>
       </c>
-      <c r="E254" t="s">
-        <v>1515</v>
-      </c>
       <c r="F254" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -16252,16 +17001,16 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D255" t="s">
         <v>1516</v>
       </c>
-      <c r="C255" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1517</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1518</v>
       </c>
       <c r="F255" t="s">
         <v>32</v>
@@ -16269,19 +17018,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="87" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B256" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E256" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F256" t="s">
         <v>34</v>
@@ -16289,13 +17038,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="87" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B257" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C257" t="s">
         <v>1176</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1177</v>
       </c>
       <c r="F257" t="s">
         <v>34</v>
@@ -16306,16 +17055,16 @@
         <v>5</v>
       </c>
       <c r="B258" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C258" t="s">
         <v>11</v>
       </c>
       <c r="D258" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E258" t="s">
         <v>1524</v>
-      </c>
-      <c r="E258" t="s">
-        <v>1525</v>
       </c>
       <c r="F258" t="s">
         <v>32</v>
@@ -16326,10 +17075,10 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C259" t="s">
         <v>1522</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1523</v>
       </c>
       <c r="F259" t="s">
         <v>32</v>
@@ -16340,19 +17089,19 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C260" t="s">
         <v>1526</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1527</v>
       </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>1528</v>
       </c>
-      <c r="E260" t="s">
-        <v>1529</v>
-      </c>
       <c r="F260" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -16360,19 +17109,19 @@
         <v>8</v>
       </c>
       <c r="B261" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C261" t="s">
         <v>1530</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1531</v>
       </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>1532</v>
       </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>1533</v>
-      </c>
-      <c r="F261" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -16380,16 +17129,16 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C262" t="s">
         <v>1535</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E262" t="s">
         <v>1536</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E262" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -16397,16 +17146,16 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E263" t="s">
         <v>1538</v>
-      </c>
-      <c r="C263" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E263" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -16417,19 +17166,19 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C265" t="s">
         <v>1507</v>
       </c>
-      <c r="C265" t="s">
-        <v>1508</v>
-      </c>
       <c r="D265" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F265" t="s">
         <v>1554</v>
-      </c>
-      <c r="E265" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -16437,19 +17186,19 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C266" t="s">
         <v>1512</v>
       </c>
-      <c r="C266" t="s">
-        <v>1513</v>
-      </c>
       <c r="D266" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E266" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F266" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -16457,19 +17206,19 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D267" t="s">
         <v>1557</v>
       </c>
-      <c r="C267" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>1558</v>
       </c>
-      <c r="E267" t="s">
-        <v>1559</v>
-      </c>
       <c r="F267" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -16477,19 +17226,19 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C268" t="s">
         <v>1526</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>1527</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>1528</v>
       </c>
-      <c r="E268" t="s">
-        <v>1529</v>
-      </c>
       <c r="F268" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -16497,19 +17246,19 @@
         <v>5</v>
       </c>
       <c r="B269" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C269" t="s">
         <v>1530</v>
       </c>
-      <c r="C269" t="s">
-        <v>1531</v>
-      </c>
       <c r="D269" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E269" t="s">
         <v>1562</v>
       </c>
-      <c r="E269" t="s">
-        <v>1563</v>
-      </c>
       <c r="F269" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -16517,16 +17266,16 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C270" t="s">
         <v>1535</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E270" t="s">
         <v>1536</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -16537,19 +17286,19 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C272" t="s">
         <v>1507</v>
       </c>
-      <c r="C272" t="s">
-        <v>1508</v>
-      </c>
       <c r="D272" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F272" t="s">
         <v>1554</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -16557,56 +17306,56 @@
         <v>2</v>
       </c>
       <c r="B273" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C273" t="s">
         <v>1512</v>
       </c>
-      <c r="C273" t="s">
-        <v>1513</v>
-      </c>
       <c r="D273" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E273" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F273" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="87" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B274" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F274" t="s">
         <v>1567</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D274" t="s">
-        <v>1558</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="87" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B275" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C275" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E275" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F275" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -16614,19 +17363,19 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C276" t="s">
         <v>1526</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" t="s">
         <v>1527</v>
       </c>
-      <c r="D276" t="s">
+      <c r="E276" t="s">
         <v>1528</v>
       </c>
-      <c r="E276" t="s">
-        <v>1529</v>
-      </c>
       <c r="F276" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -16634,19 +17383,19 @@
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C277" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D277" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E277" t="s">
         <v>1562</v>
       </c>
-      <c r="E277" t="s">
-        <v>1563</v>
-      </c>
       <c r="F277" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -16654,16 +17403,16 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C278" t="s">
         <v>1535</v>
       </c>
-      <c r="C278" t="s">
+      <c r="D278" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E278" t="s">
         <v>1536</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -16692,7 +17441,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="90" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C281" s="90" t="s">
         <v>998</v>
@@ -16716,7 +17465,7 @@
         <v>1010</v>
       </c>
       <c r="D282" s="90" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E282" s="90" t="s">
         <v>1000</v>
@@ -16730,7 +17479,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="90" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C283" s="90" t="s">
         <v>1018</v>
@@ -16739,7 +17488,7 @@
         <v>1033</v>
       </c>
       <c r="E283" s="90" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F283" s="90" t="s">
         <v>1038</v>
@@ -16775,7 +17524,7 @@
         <v>1037</v>
       </c>
       <c r="E285" s="90" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F285" s="90" t="s">
         <v>1038</v>
@@ -16793,7 +17542,7 @@
       </c>
       <c r="D286" s="90"/>
       <c r="E286" s="90" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F286" s="90" t="s">
         <v>1001</v>
@@ -16812,7 +17561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
@@ -16840,7 +17589,7 @@
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular MTS (REGULER)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order,Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16851,11 +17600,11 @@
         <v>1077</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:E24" si="0">CONCATENATE($A$2,"'",B5,"','",C5,"');")</f>
+        <f t="shared" ref="D5:D24" si="0">CONCATENATE($A$2,"'",B5,"','",C5,"');")</f>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku','Pembelian Bahan Baku');</v>
       </c>
       <c r="E5" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16870,262 +17619,262 @@
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Barang Dagangan Gas','Pembelian Bahan Baku');</v>
       </c>
       <c r="E6" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C7" t="s">
         <v>1191</v>
       </c>
-      <c r="C7" t="s">
-        <v>1192</v>
-      </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E7" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan Regular &amp; IB MTS','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C9" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pembelian Bahan Baku Liquid','Pembelian Bahan Baku Liquid');</v>
       </c>
       <c r="E9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E10" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C11" t="s">
         <v>1289</v>
       </c>
-      <c r="C11" t="s">
-        <v>1290</v>
-      </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer Reguler Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C12" t="s">
         <v>1318</v>
       </c>
-      <c r="C12" t="s">
-        <v>1319</v>
-      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Container Regular MTS (Reclass)','Penjualan gas dalam container hasil produksi &amp; sparepart ke Customer &amp; IB Sales Order, Terima Container Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E12" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C13" t="s">
         <v>1360</v>
       </c>
-      <c r="C13" t="s">
-        <v>1361</v>
-      </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Sales Kontrak Material','Transaksi sales kontrak Material Sales Contract, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E13" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C14" t="s">
         <v>1394</v>
       </c>
-      <c r="C14" t="s">
-        <v>1395</v>
-      </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','Penjualan gas dalam botol hasil produksi &amp; sparepart ke Customer Sales Order, Terima Botol Kosong, Produksi, Distribusi, Billing, Pelunasan A/R');</v>
       </c>
       <c r="E14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C15" t="s">
         <v>1416</v>
       </c>
-      <c r="C15" t="s">
-        <v>1417</v>
-      </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Klaim &amp; Pengganti Klaim','Klaim &amp; Pengganti Klaim Customer');</v>
       </c>
       <c r="E15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Perubahan Fungsi Gas','Perubahan Fungsi Gas - Botol');</v>
       </c>
       <c r="E16" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C17" t="s">
         <v>1479</v>
       </c>
-      <c r="C17" t="s">
-        <v>1480</v>
-      </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Retur Penjualan','Retur Penjualan (Nota Retur)');</v>
       </c>
       <c r="E17" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C18" t="s">
         <v>1499</v>
       </c>
-      <c r="C18" t="s">
-        <v>1500</v>
-      </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('BA Perubahan SN Botol','BA Perubahan SN Botol - Botol MP');</v>
       </c>
       <c r="E18" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C19" t="s">
         <v>1505</v>
       </c>
-      <c r="C19" t="s">
-        <v>1506</v>
-      </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','Integrasi PM ke MM, FI, CO');</v>
       </c>
       <c r="E19" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C20" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Plant Maintenance','Integrasi PM ke MM, FI, CO');</v>
       </c>
       <c r="E20" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C21" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Material Ambil Dari Gudang (PM Internal)','Integrasi PM ke MM, FI, CO');</v>
       </c>
       <c r="E21" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C22" t="s">
         <v>1505</v>
       </c>
-      <c r="C22" t="s">
-        <v>1506</v>
-      </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','Integrasi PM ke MM, FI, CO');</v>
       </c>
       <c r="E22" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C23" t="s">
         <v>1588</v>
       </c>
-      <c r="C23" t="s">
-        <v>1589</v>
-      </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_scn(uat_scn,uat_desc) VALUES ('Pengembalian Botol Rusak MR','Pengembalian Botol Rusak MR - Milik Customer');</v>
       </c>
       <c r="E23" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -17144,8 +17893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17600,20 +18349,20 @@
         <v>1075</v>
       </c>
       <c r="C22" t="s">
-        <v>1049</v>
+        <v>1659</v>
       </c>
       <c r="D22" t="s">
-        <v>1050</v>
+        <v>1659</v>
       </c>
       <c r="E22" t="s">
         <v>1046</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
+        <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','12c','E-Faktur','E-Faktur','Adm Penjualan');</v>
       </c>
       <c r="G22" t="s">
-        <v>1137</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -17637,7 +18386,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G23" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -17661,7 +18410,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular MTS (REGULER)','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -17692,7 +18441,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','1','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G26" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -17716,7 +18465,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','2','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -17740,7 +18489,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','3','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G28" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17764,7 +18513,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','4','Create PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17788,7 +18537,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','5','Release PO (Hub. Tim untuk rilis PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G30" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -17812,7 +18561,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','6a','Cetak PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G31" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17836,7 +18585,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','6b','Cetak PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G32" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -17860,7 +18609,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','7','LPB BAHAN BAKU LIQUID','MIGO','GUDANG');</v>
       </c>
       <c r="G33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17884,7 +18633,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','8','Losses Pembelian','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G34" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -17908,7 +18657,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','9','Transfer SLOC LIQUID','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -17932,7 +18681,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','10','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G36" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -17956,7 +18705,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','11','Pengakuan HUTANG','MIRO','AKUNTANSI');</v>
       </c>
       <c r="G37" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -17980,7 +18729,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','12','Pelunasan HUTANG via CASH','FBCJ','KASIR');</v>
       </c>
       <c r="G38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -18004,7 +18753,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','13','Pelunasan HUTANG via BANK','F-42','KASIR');</v>
       </c>
       <c r="G39" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -18028,7 +18777,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku','14','Clear HUTANG','F-44','AKUNTANSI');</v>
       </c>
       <c r="G40" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -18059,7 +18808,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','1','TTBK','ZMMENH025','LOGISTIK IN');</v>
       </c>
       <c r="G42" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -18083,7 +18832,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','2','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G43" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -18107,7 +18856,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','3','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -18131,7 +18880,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','4','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G45" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -18155,7 +18904,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','5','Pengeluaran Botol Pengisian (541)','ZSDENH025','LOGISTIK OUT');</v>
       </c>
       <c r="G46" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -18179,7 +18928,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','6','CREATE PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -18203,7 +18952,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','7','Release PO (HUBUNGI TEAM UNTUK RELEASE PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G48" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -18227,7 +18976,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','8a','CETAK PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -18251,7 +19000,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','8b','CETAK PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G50" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -18275,7 +19024,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','9','LPB Barang Dagangan GAS','MIGO','GUDANG');</v>
       </c>
       <c r="G51" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -18299,7 +19048,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','10','Penerimaan Botol Pengisian (542)','ZSDENH025','LOGISTIK IN');</v>
       </c>
       <c r="G52" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -18323,7 +19072,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','11','Penerimaan Botol Pinjaman','ZSDENH020','LOGISTIK IN');</v>
       </c>
       <c r="G53" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -18347,7 +19096,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','12','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G54" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -18371,7 +19120,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','13','Pengakuan HUTANG','MIRO','Akuntansi');</v>
       </c>
       <c r="G55" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -18395,7 +19144,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','14','Pelunasan HUTANG via CASH','FBCJ','Kasir');</v>
       </c>
       <c r="G56" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -18419,7 +19168,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','15','Pelunasan HUTANG via BANK','F-42','Kasir');</v>
       </c>
       <c r="G57" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -18443,7 +19192,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Barang Dagangan Gas','16','Clear HUTANG','F-44','Akuntansi');</v>
       </c>
       <c r="G58" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -18455,13 +19204,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B60" s="87">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -18474,84 +19223,84 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','(Cust IB) Create PR','ME51N','Gudang');</v>
       </c>
       <c r="G60" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B61" s="87">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E61" t="s">
         <v>1173</v>
       </c>
-      <c r="E61" t="s">
-        <v>1174</v>
-      </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2','(Cust IB) Release PR (IB NON RELEASE)','ME54N','GM Plant/Pemb');</v>
       </c>
       <c r="G61" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B62" s="87">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','3','(Cust IB) Create PO','ME21N','Adm Pemb.');</v>
       </c>
       <c r="G62" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B63" s="87">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D63" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E63" t="s">
         <v>1177</v>
       </c>
-      <c r="E63" t="s">
-        <v>1178</v>
-      </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','4','(Cust IB) Release PO','ME29N','Mgr &amp; GM Pembelian/ Direksi');</v>
       </c>
       <c r="G63" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B64" s="87">
         <v>1</v>
@@ -18570,12 +19319,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G64" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B65" s="87" t="s">
         <v>1064</v>
@@ -18594,12 +19343,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B66" s="87" t="s">
         <v>1065</v>
@@ -18618,12 +19367,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G66" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B67" s="87">
         <v>3</v>
@@ -18642,12 +19391,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G67" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B68" s="87">
         <v>4</v>
@@ -18666,12 +19415,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G68" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B69" s="87" t="s">
         <v>1067</v>
@@ -18690,12 +19439,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G69" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B70" s="87" t="s">
         <v>1066</v>
@@ -18714,12 +19463,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G70" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B71" s="87" t="s">
         <v>1068</v>
@@ -18738,12 +19487,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G71" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B72" s="87" t="s">
         <v>1069</v>
@@ -18762,12 +19511,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G72" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B73" s="87">
         <v>7</v>
@@ -18783,12 +19532,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','7','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G73" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B74" s="87">
         <v>8</v>
@@ -18807,12 +19556,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G74" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B75" s="87">
         <v>9</v>
@@ -18831,12 +19580,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G75" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B76" s="87">
         <v>10</v>
@@ -18855,12 +19604,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G76" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B77" s="87" t="s">
         <v>1070</v>
@@ -18879,12 +19628,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G77" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B78" s="87" t="s">
         <v>1071</v>
@@ -18903,12 +19652,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G78" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B79" s="87" t="s">
         <v>1072</v>
@@ -18927,12 +19676,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G79" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B80" s="87" t="s">
         <v>1073</v>
@@ -18951,12 +19700,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G80" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B81" s="87" t="s">
         <v>1074</v>
@@ -18975,12 +19724,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G81" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B82" s="87" t="s">
         <v>1075</v>
@@ -18999,12 +19748,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B83" s="87">
         <v>13</v>
@@ -19023,12 +19772,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G83" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B84" s="87">
         <v>14</v>
@@ -19047,18 +19796,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G84" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B85" s="87">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -19071,31 +19820,31 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','1','(Cust IB) Create Goods Receipt','MIGO','Gudang');</v>
       </c>
       <c r="G85" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B86" s="87">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan IB MTS (INTERBRANCH)','2','(Cust IB) Melakukan Inv.Verification','MIRO','Adm Hutang');</v>
       </c>
       <c r="G86" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -19107,7 +19856,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B88" s="87">
         <v>1</v>
@@ -19126,12 +19875,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G88" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B89" s="87" t="s">
         <v>1064</v>
@@ -19150,12 +19899,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G89" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B90" s="87" t="s">
         <v>1065</v>
@@ -19174,12 +19923,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G90" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B91" s="87">
         <v>3</v>
@@ -19198,12 +19947,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G91" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B92" s="87">
         <v>4</v>
@@ -19222,12 +19971,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G92" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B93" s="87" t="s">
         <v>1067</v>
@@ -19246,12 +19995,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G93" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B94" s="87" t="s">
         <v>1066</v>
@@ -19270,12 +20019,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G94" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B95" s="87" t="s">
         <v>1068</v>
@@ -19294,12 +20043,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G95" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B96" s="87" t="s">
         <v>1069</v>
@@ -19318,12 +20067,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G96" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B97" s="87">
         <v>7</v>
@@ -19339,12 +20088,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','7','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G97" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B98" s="87">
         <v>8</v>
@@ -19363,12 +20112,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G98" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B99" s="87">
         <v>9</v>
@@ -19387,12 +20136,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G99" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B100" s="87">
         <v>10</v>
@@ -19411,12 +20160,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G100" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B101" s="87" t="s">
         <v>1070</v>
@@ -19435,12 +20184,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G101" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B102" s="87" t="s">
         <v>1071</v>
@@ -19459,12 +20208,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G102" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B103" s="87" t="s">
         <v>1072</v>
@@ -19483,12 +20232,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G103" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B104" s="87" t="s">
         <v>1073</v>
@@ -19507,12 +20256,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G104" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B105" s="87" t="s">
         <v>1074</v>
@@ -19531,12 +20280,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G105" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B106" s="87" t="s">
         <v>1075</v>
@@ -19555,12 +20304,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','12c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G106" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B107" s="87">
         <v>13</v>
@@ -19579,12 +20328,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','13','Terima Plns dari Customer via bank BCA Test Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G107" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B108" s="87">
         <v>14</v>
@@ -19603,7 +20352,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan Regular &amp; IB MTS','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G108" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -19615,7 +20364,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B110" s="87">
         <v>1</v>
@@ -19634,12 +20383,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','1','Bon Permintaan Manual','MANUAL','MARKETING');</v>
       </c>
       <c r="G110" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B111" s="87">
         <v>2</v>
@@ -19658,12 +20407,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','2','Create PR','ME51N','GUDANG');</v>
       </c>
       <c r="G111" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B112" s="87">
         <v>3</v>
@@ -19682,12 +20431,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','3','Release PR (diwakilkan oleh Akuntansi)','ME55','KA FS.');</v>
       </c>
       <c r="G112" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B113" s="87">
         <v>4</v>
@@ -19706,12 +20455,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','4','CREATE PO','ME21N','PEMBELIAN');</v>
       </c>
       <c r="G113" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B114" s="87">
         <v>5</v>
@@ -19730,12 +20479,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','5','Release PO (HUBUNGI TEAM UNTUK RELEASE PO)','ME28','Mgr / GM / Dir');</v>
       </c>
       <c r="G114" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B115" s="87" t="s">
         <v>1068</v>
@@ -19754,12 +20503,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','6a','CETAK PO','ME22N','PEMBELIAN');</v>
       </c>
       <c r="G115" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B116" s="87" t="s">
         <v>1069</v>
@@ -19778,12 +20527,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','6b','CETAK PO','ZMMRPT001','PEMBELIAN');</v>
       </c>
       <c r="G116" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B117" s="87">
         <v>7</v>
@@ -19802,12 +20551,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','7','LPB BAHAN BAKU LIQUID','MIGO','GUDANG');</v>
       </c>
       <c r="G117" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B118" s="87">
         <v>8</v>
@@ -19826,12 +20575,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','8','Losses Pembelian','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G118" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B119" s="87">
         <v>9</v>
@@ -19850,12 +20599,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','9','Transfer SLOC LIQUID','ZMMENH012','GUDANG');</v>
       </c>
       <c r="G119" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B120" s="87">
         <v>10</v>
@@ -19874,12 +20623,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','10','Print LPB','ZMMRPT001','GUDANG');</v>
       </c>
       <c r="G120" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B121" s="87">
         <v>11</v>
@@ -19898,12 +20647,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','11','Pengakuan HUTANG','MIRO','AKUNTANSI');</v>
       </c>
       <c r="G121" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B122" s="87">
         <v>12</v>
@@ -19922,12 +20671,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','12','Pelunasan HUTANG via CASH','FBCJ','KASIR');</v>
       </c>
       <c r="G122" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B123" s="87">
         <v>13</v>
@@ -19946,12 +20695,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','13','Pelunasan HUTANG via BANK','F-42','KASIR');</v>
       </c>
       <c r="G123" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B124" s="87">
         <v>14</v>
@@ -19970,7 +20719,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pembelian Bahan Baku Liquid','14','Clear HUTANG','F-44','AKUNTANSI');</v>
       </c>
       <c r="G124" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -19982,10 +20731,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B126" s="87" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C126" t="s">
         <v>997</v>
@@ -20001,15 +20750,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','1a','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G126" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B127" s="87" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C127" t="s">
         <v>1007</v>
@@ -20025,12 +20774,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','1b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G127" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B128" s="87" t="s">
         <v>1064</v>
@@ -20049,12 +20798,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G128" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B129" s="87" t="s">
         <v>1065</v>
@@ -20073,15 +20822,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G129" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B130" s="87" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C130" t="s">
         <v>1049</v>
@@ -20097,18 +20846,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','2c','Cetak Faktur Pajak','ZFIRPT038','Adm Penjualan');</v>
       </c>
       <c r="G130" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B131" s="87">
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -20121,12 +20870,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','3','Terima Plns dari Customer via Cash','FBCJ','GL Bank');</v>
       </c>
       <c r="G131" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B132" s="87">
         <v>4</v>
@@ -20145,12 +20894,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','4','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G132" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B133" s="87">
         <v>5</v>
@@ -20169,12 +20918,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','5','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G133" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B134" s="87">
         <v>6</v>
@@ -20193,12 +20942,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','6','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Produksi');</v>
       </c>
       <c r="G134" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B135" s="87">
         <v>7</v>
@@ -20217,12 +20966,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','7','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G135" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B136" s="87">
         <v>8</v>
@@ -20238,12 +20987,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','8','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
       <c r="G136" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B137" s="87">
         <v>9</v>
@@ -20262,18 +21011,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','9','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G137" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B138" s="87">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D138" t="s">
         <v>1010</v>
@@ -20286,12 +21035,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','10','Sales Counter buat Perintah Packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G138" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B139" s="87">
         <v>11</v>
@@ -20310,12 +21059,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','11','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G139" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B140" s="87">
         <v>12</v>
@@ -20334,18 +21083,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','12','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G140" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B141" s="87" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C141" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D141" t="s">
         <v>1036</v>
@@ -20358,18 +21107,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','13a','Posting (GI) Surat Jalan','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G141" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B142" s="87" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C142" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D142" t="s">
         <v>1039</v>
@@ -20382,31 +21131,31 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','13b','Posting (GI) Surat Jalan','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G142" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B143" s="87">
         <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D143" t="s">
         <v>1042</v>
       </c>
       <c r="E143" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart - Tunai-OTC','14','Cetak Surat Jalan ','VL03N','Distribusi');</v>
       </c>
       <c r="G143" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -20418,7 +21167,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B145" s="87">
         <v>1</v>
@@ -20437,12 +21186,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G145" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B146" s="87" t="s">
         <v>1064</v>
@@ -20461,12 +21210,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G146" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B147" s="87" t="s">
         <v>1065</v>
@@ -20485,36 +21234,36 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G147" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B148" s="87">
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D148" t="s">
         <v>1010</v>
       </c>
       <c r="E148" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','3','Distribusi buat perintah packing ','ZSDENH039','Distribusi');</v>
       </c>
       <c r="G148" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B149" s="87">
         <v>4</v>
@@ -20533,12 +21282,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','4','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G149" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B150" s="87" t="s">
         <v>1067</v>
@@ -20557,12 +21306,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','5a','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Panggung');</v>
       </c>
       <c r="G150" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B151" s="87" t="s">
         <v>1066</v>
@@ -20581,12 +21330,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','5b','Report','ZSDRPT047','Panggung');</v>
       </c>
       <c r="G151" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B152" s="87" t="s">
         <v>1068</v>
@@ -20605,12 +21354,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','6a','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
       <c r="G152" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B153" s="87" t="s">
         <v>1069</v>
@@ -20629,21 +21378,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','6b','Report','ZSDRPT047','Sales Counter');</v>
       </c>
       <c r="G153" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B154" s="87">
         <v>7</v>
       </c>
       <c r="C154" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D154" t="s">
         <v>1293</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1294</v>
       </c>
       <c r="E154" t="s">
         <v>1031</v>
@@ -20653,12 +21402,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','7','Check PRO Container MR','COOIS','Produksi');</v>
       </c>
       <c r="G154" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B155" s="87">
         <v>8</v>
@@ -20677,12 +21426,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','8','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G155" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B156" s="87">
         <v>9</v>
@@ -20701,12 +21450,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','9','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G156" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B157" s="87">
         <v>10</v>
@@ -20725,12 +21474,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','10','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G157" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B158" s="87" t="s">
         <v>1070</v>
@@ -20749,12 +21498,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G158" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B159" s="87" t="s">
         <v>1071</v>
@@ -20773,12 +21522,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G159" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B160" s="87" t="s">
         <v>1072</v>
@@ -20797,12 +21546,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','11c','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G160" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B161" s="87" t="s">
         <v>1073</v>
@@ -20821,12 +21570,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G161" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B162" s="87" t="s">
         <v>1074</v>
@@ -20845,12 +21594,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G162" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B163" s="87" t="s">
         <v>1075</v>
@@ -20866,18 +21615,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','12c','Cetak Faktur Pajak','','Adm Penjualan');</v>
       </c>
       <c r="G163" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B164" s="87">
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D164" t="s">
         <v>1052</v>
@@ -20890,12 +21639,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','13','Terima Plns dari Customer via bank Transfer','F-21','GL Bank');</v>
       </c>
       <c r="G164" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B165" s="87">
         <v>14</v>
@@ -20914,7 +21663,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS','14','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G165" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -20926,7 +21675,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B167" s="87">
         <v>1</v>
@@ -20945,12 +21694,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','1','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
       <c r="G167" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B168" s="87" t="s">
         <v>1064</v>
@@ -20969,12 +21718,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','2a','Release SO  (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G168" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B169" s="87" t="s">
         <v>1065</v>
@@ -20993,12 +21742,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','2b','Cetak SO','VA03','Sales Counter');</v>
       </c>
       <c r="G169" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B170" s="87">
         <v>3</v>
@@ -21017,36 +21766,36 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G170" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B171" s="87">
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D171" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E171" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','4','Adm Persedian buat Re-Class Material Raw (Bahan Baku) menjadi PRD (Barang Dagangan)','MB1B-309','Adm Persediaan');</v>
       </c>
       <c r="G171" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B172" s="87">
         <v>5</v>
@@ -21065,12 +21814,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','5','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G172" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B173" s="87">
         <v>6</v>
@@ -21089,15 +21838,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','6','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G173" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B174" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C174" t="s">
         <v>1035</v>
@@ -21113,15 +21862,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','7a','Posting (GI) Surat Jalan ','VL01N','Distribusi/ Logistik');</v>
       </c>
       <c r="G174" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B175" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C175" t="s">
         <v>1035</v>
@@ -21137,12 +21886,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','7b','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G175" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B176" s="87">
         <v>8</v>
@@ -21161,15 +21910,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','8','Cetak Surat Jalan','VL03N','Distribusi/ Logistik');</v>
       </c>
       <c r="G176" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B177" s="87" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C177" t="s">
         <v>1043</v>
@@ -21185,15 +21934,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G177" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B178" s="87" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C178" t="s">
         <v>1047</v>
@@ -21209,15 +21958,15 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
       <c r="G178" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B179" s="87" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C179" t="s">
         <v>1049</v>
@@ -21230,36 +21979,36 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','9c','Cetak Faktur Pajak','','Adm Penjualan');</v>
       </c>
       <c r="G179" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B180" s="87">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','10','Terima Plns dari Customer via cash','FBCJ','GL Cash');</v>
       </c>
       <c r="G180" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B181" s="87">
         <v>11</v>
@@ -21278,7 +22027,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Container Regular MTS (Reclass)','11','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
       <c r="G181" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -21290,76 +22039,76 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B183" s="87">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D183" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','1','Prosedur create Master data Material, BOM, Routing baru','CS01,CR01,CA01,C223','');</v>
       </c>
       <c r="G183" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B184" s="87" t="s">
         <v>1064</v>
       </c>
       <c r="C184" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D184" t="s">
         <v>1332</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1333</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','2a','Finish Good Standard Price Maintenance','CK11N','');</v>
       </c>
       <c r="G184" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B185" s="87" t="s">
         <v>1065</v>
       </c>
       <c r="C185" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D185" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','2b','Finish Good Standard Price Maintenance','CK24','');</v>
       </c>
       <c r="G185" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B186" s="87">
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D186" t="s">
         <v>840</v>
@@ -21369,21 +22118,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','3','Master data pricing','VK11','');</v>
       </c>
       <c r="G186" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B187" s="87">
         <v>4</v>
       </c>
       <c r="C187" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D187" t="s">
         <v>1336</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1337</v>
       </c>
       <c r="E187" t="s">
         <v>1001</v>
@@ -21393,18 +22142,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','4','Buat Sales Kontrak','VA41','Sales Counter');</v>
       </c>
       <c r="G187" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B188" s="87">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D188" t="s">
         <v>1004</v>
@@ -21417,18 +22166,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','5','Release SO Kontrak (Credit Management)','ZSDENH006','Management');</v>
       </c>
       <c r="G188" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B189" s="87">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D189" t="s">
         <v>1044</v>
@@ -21441,18 +22190,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','6','Create Invoice DP','VF01','Adm Penjualan');</v>
       </c>
       <c r="G189" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B190" s="87">
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D190" t="s">
         <v>17</v>
@@ -21465,21 +22214,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','7','Penerimaan Uang Muka via cash','FBCJ','Kasir');</v>
       </c>
       <c r="G190" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B191" s="87">
         <v>8</v>
       </c>
       <c r="C191" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D191" t="s">
         <v>1344</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1345</v>
       </c>
       <c r="E191" t="s">
         <v>1059</v>
@@ -21489,18 +22238,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','8','Pengakuan Uang Muka','F-29','Adm Piutang');</v>
       </c>
       <c r="G191" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B192" s="87">
         <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D192" t="s">
         <v>998</v>
@@ -21513,18 +22262,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','9','Create SO partial sesuai termin','VA01','Sales Counter');</v>
       </c>
       <c r="G192" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B193" s="87">
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D193" t="s">
         <v>1010</v>
@@ -21538,12 +22287,12 @@
 packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G193" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B194" s="87">
         <v>11</v>
@@ -21562,12 +22311,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','11','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
       <c r="G194" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B195" s="87">
         <v>12</v>
@@ -21586,36 +22335,36 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','12','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G195" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B196" s="87">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D196" t="s">
         <v>1039</v>
       </c>
       <c r="E196" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','13','Buat Surat Jalan, posting (GI) dan Cetak ','VL02N','Distribusi');</v>
       </c>
       <c r="G196" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B197" s="87">
         <v>14</v>
@@ -21634,18 +22383,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','14','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
       <c r="G197" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B198" s="87">
         <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D198" t="s">
         <v>1052</v>
@@ -21658,18 +22407,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','15','Terima plns d/ cust. Via Bank BCA Test trf','F-21','Kasir');</v>
       </c>
       <c r="G198" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B199" s="87">
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D199" t="s">
         <v>1057</v>
@@ -21682,7 +22431,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Sales Kontrak Material','16','Clear A/R','F-32','Adm Piutang');</v>
       </c>
       <c r="G199" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -21692,433 +22441,433 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B201" s="87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C201" t="s">
+    <row r="201" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B201" s="95" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C201" s="94" t="s">
         <v>997</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="94" t="s">
         <v>998</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="94" t="s">
         <v>1001</v>
       </c>
-      <c r="F201" t="str">
+      <c r="F201" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','1a','Buat Sales Order (SO)','VA01','Sales Counter');</v>
       </c>
-      <c r="G201" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B202" s="87" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="G201" s="94" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B202" s="95" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C202" s="94" t="s">
         <v>1007</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="94" t="s">
         <v>1008</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="94" t="s">
         <v>1001</v>
       </c>
-      <c r="F202" t="str">
+      <c r="F202" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','1b','Cetak SO','VA03','Sales Counter');</v>
       </c>
-      <c r="G202" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B203" s="87" t="s">
+      <c r="G202" s="94" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B203" s="95" t="s">
         <v>1064</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="94" t="s">
         <v>1043</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="94" t="s">
         <v>1044</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="94" t="s">
         <v>1046</v>
       </c>
-      <c r="F203" t="str">
+      <c r="F203" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','2a','Create Invoice ','VF01','Adm Penjualan');</v>
       </c>
-      <c r="G203" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B204" s="87" t="s">
+      <c r="G203" s="94" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B204" s="95" t="s">
         <v>1065</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="94" t="s">
         <v>1047</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="94" t="s">
         <v>1048</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="94" t="s">
         <v>1046</v>
       </c>
-      <c r="F204" t="str">
+      <c r="F204" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','2b','Cetak Invoice','VF03','Adm Penjualan');</v>
       </c>
-      <c r="G204" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B205" s="87">
+      <c r="G204" s="94" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B205" s="95">
         <v>3</v>
       </c>
-      <c r="C205" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C205" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D205" s="94" t="s">
         <v>1052</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F205" t="str">
+      <c r="F205" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','3','Terima Plns dari Customer via bank Transfer','F-21','Kasir');</v>
       </c>
-      <c r="G205" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B206" s="87">
+      <c r="G205" s="94" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B206" s="95">
         <v>4</v>
       </c>
-      <c r="C206" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="C206" s="94" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D206" s="94" t="s">
         <v>1052</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F206" t="str">
+      <c r="F206" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','4','Terima Plns dari Customer via cash','F-21','Kasir');</v>
       </c>
-      <c r="G206" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B207" s="87">
+      <c r="G206" s="94" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B207" s="95">
         <v>5</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="94" t="s">
         <v>1056</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="94" t="s">
         <v>1057</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="94" t="s">
         <v>1059</v>
       </c>
-      <c r="F207" t="str">
+      <c r="F207" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','5','Account Clear AR','F-32','Adm Piutang');</v>
       </c>
-      <c r="G207" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B208" s="87">
+      <c r="G207" s="94" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B208" s="95">
         <v>6</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="94" t="s">
         <v>1013</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="94" t="s">
         <v>1014</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="94" t="s">
         <v>1015</v>
       </c>
-      <c r="F208" t="str">
+      <c r="F208" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','6','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
-      <c r="G208" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B209" s="87">
+      <c r="G208" s="94" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B209" s="95">
         <v>7</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="94" t="s">
         <v>1017</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="94" t="s">
         <v>1018</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="94" t="s">
         <v>1031</v>
       </c>
-      <c r="F209" t="str">
+      <c r="F209" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','7','Konfirmasi SO &amp; buat Inquiry jika ada pekerjaan tambahan (Khusus MR)','ZSDENH040','Produksi');</v>
       </c>
-      <c r="G209" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B210" s="87">
+      <c r="G209" s="94" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B210" s="95">
         <v>8</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="94" t="s">
         <v>1022</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="94" t="s">
         <v>1023</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="94" t="s">
         <v>1001</v>
       </c>
-      <c r="F210" t="str">
+      <c r="F210" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','8','Konversi Inquiry ke SO setelah konfirm ke relasi (Khusus MR)','ZSDENH043','Sales Counter');</v>
       </c>
-      <c r="G210" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B211" s="87">
+      <c r="G210" s="94" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B211" s="95">
         <v>9</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="94" t="s">
         <v>1025</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="94" t="s">
         <v>1027</v>
       </c>
-      <c r="F211" t="str">
+      <c r="F211" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','9','Prosedur Running MRP &amp; Create PRO MTS','','PPIC');</v>
       </c>
-      <c r="G211" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B212" s="87">
+      <c r="G211" s="94" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B212" s="95">
         <v>10</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="94" t="s">
         <v>1029</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="94" t="s">
         <v>1030</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="94" t="s">
         <v>1031</v>
       </c>
-      <c r="F212" t="str">
+      <c r="F212" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','10','Input Hasil Produksi ','ZPPENH001','Produksi');</v>
       </c>
-      <c r="G212" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B213" s="87">
+      <c r="G212" s="94" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B213" s="95">
         <v>11</v>
       </c>
-      <c r="C213" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C213" s="94" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D213" s="94" t="s">
         <v>1010</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="94" t="s">
         <v>1001</v>
       </c>
-      <c r="F213" t="str">
+      <c r="F213" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','11','Sales Counter buat Perintah Packing ','ZSDENH039','Sales Counter');</v>
       </c>
-      <c r="G213" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B214" s="87">
+      <c r="G213" s="94" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B214" s="95">
         <v>12</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="94" t="s">
         <v>1032</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="94" t="s">
         <v>1018</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="94" t="s">
         <v>1015</v>
       </c>
-      <c r="F214" t="str">
+      <c r="F214" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','12','Transfer Packing dari Sloc Full Pack ke sloc Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
-      <c r="G214" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B215" s="87">
+      <c r="G214" s="94" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B215" s="95">
         <v>13</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="94" t="s">
         <v>1034</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="94" t="s">
         <v>1018</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="94" t="s">
         <v>1015</v>
       </c>
-      <c r="F215" t="str">
+      <c r="F215" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','13','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Adm Panggung');</v>
       </c>
-      <c r="G215" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B216" s="87" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="G215" s="94" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B216" s="95" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C216" s="94" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D216" s="94" t="s">
         <v>1036</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="94" t="s">
         <v>1038</v>
       </c>
-      <c r="F216" t="str">
+      <c r="F216" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','14a','Posting (GI) Surat Jalan','VL01N','Distribusi/ Logistik');</v>
       </c>
-      <c r="G216" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B217" s="87" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="G216" s="94" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B217" s="95" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C217" s="94" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D217" s="94" t="s">
         <v>1039</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="94" t="s">
         <v>1038</v>
       </c>
-      <c r="F217" t="str">
+      <c r="F217" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','14b','Posting (GI) Surat Jalan','VL02N','Distribusi/ Logistik');</v>
       </c>
-      <c r="G217" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B218" s="87">
+      <c r="G217" s="94" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="94" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B218" s="95">
         <v>15</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="94" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D218" s="94" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E218" s="94" t="s">
         <v>1249</v>
       </c>
-      <c r="D218" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F218" t="str">
+      <c r="F218" s="94" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Penjualan Botolan &amp; Sparepart – OTC / TUNAI','15','Cetak Surat Jalan ','VL03N','Distribusi');</v>
       </c>
-      <c r="G218" t="s">
-        <v>1415</v>
+      <c r="G218" s="94" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -22130,13 +22879,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B220" s="87">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -22149,66 +22898,66 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','1','Buat TTBC','MANUAL','Adm Panggung');</v>
       </c>
       <c r="G220" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B221" s="87">
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','2','Cek Barang','MANUAL','QC');</v>
       </c>
       <c r="G221" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B222" s="87">
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','3','Release','MANUAL','GM Plant');</v>
       </c>
       <c r="G222" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B223" s="87">
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D223" t="s">
         <v>998</v>
@@ -22221,90 +22970,90 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','4','Create Retur Req -&gt; TYPE ZRR','VA01','Sales Counter');</v>
       </c>
       <c r="G223" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B224" s="87">
         <v>5</v>
       </c>
       <c r="C224" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D224" t="s">
         <v>1425</v>
       </c>
-      <c r="D224" t="s">
-        <v>1426</v>
-      </c>
       <c r="E224" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','5','GR ke Gen Sloc','VL01N / VL02N','QC/ Panggung');</v>
       </c>
       <c r="G224" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B225" s="87" t="s">
         <v>1068</v>
       </c>
       <c r="C225" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D225" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E225" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','6a','Scrapp','ZMMENH014','QC');</v>
       </c>
       <c r="G225" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B226" s="87" t="s">
         <v>1069</v>
       </c>
       <c r="C226" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D226" t="s">
         <v>1430</v>
       </c>
-      <c r="D226" t="s">
-        <v>1431</v>
-      </c>
       <c r="E226" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','6b','Transfer SLoc di Gen Sloc ke EMPTY','ZMMENH014','QC');</v>
       </c>
       <c r="G226" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B227" s="87" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C227" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D227" t="s">
         <v>998</v>
@@ -22317,18 +23066,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','7a','Create SO Replacement Request','VA01','Sales Counter');</v>
       </c>
       <c r="G227" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B228" s="87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C228" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D228" t="s">
         <v>1008</v>
@@ -22341,18 +23090,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','7b','Cetak SO ','VA03','Sales Counter');</v>
       </c>
       <c r="G228" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B229" s="87" t="s">
         <v>1117</v>
       </c>
       <c r="C229" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D229" t="s">
         <v>1010</v>
@@ -22365,18 +23114,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','8a','Buat Document Packing','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G229" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B230" s="87" t="s">
         <v>1118</v>
       </c>
       <c r="C230" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D230" t="s">
         <v>1030</v>
@@ -22389,18 +23138,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','8b','Input Hasil Produksi ex Claim','ZPPENH001','Produksi');</v>
       </c>
       <c r="G230" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B231" s="87">
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D231" t="s">
         <v>1018</v>
@@ -22413,18 +23162,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','9','Transfer dari Sloc Full Pack ke Distribusi','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G231" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B232" s="87">
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D232" t="s">
         <v>1018</v>
@@ -22437,42 +23186,42 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','11','Cetak Telling List','ZSDENH040','Adm Panggung');</v>
       </c>
       <c r="G232" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B233" s="87">
         <v>12</v>
       </c>
       <c r="C233" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D233" t="s">
         <v>1441</v>
       </c>
-      <c r="D233" t="s">
-        <v>1442</v>
-      </c>
       <c r="E233" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','12','Realisasi &amp; Cetak DO, Melakukan GI','VL02N / VL03N','Sales Counter / Distribusi');</v>
       </c>
       <c r="G233" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="90" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B234" s="87">
         <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E234" t="s">
         <v>1038</v>
@@ -22482,7 +23231,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Klaim &amp; Pengganti Klaim','13','Proses Buku Besar','','Distribusi/ Logistik');</v>
       </c>
       <c r="G234" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -22494,16 +23243,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="90" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B236" s="87">
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D236" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E236" t="s">
         <v>31</v>
@@ -22513,79 +23262,79 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','1','Create SPI','Manual','Marketing');</v>
       </c>
       <c r="G236" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="90" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B237" s="87">
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D237" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E237" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','2','Create BA Perubahan SN Botol - MP','Manual','Adm Botol');</v>
       </c>
       <c r="G237" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="90" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B238" s="87">
         <v>3</v>
       </c>
       <c r="C238" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D238" t="s">
         <v>1467</v>
       </c>
-      <c r="D238" t="s">
-        <v>1468</v>
-      </c>
       <c r="E238" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','3','Input BA Perubahan SN Botol – MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G238" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="90" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B239" s="87">
         <v>4</v>
       </c>
       <c r="C239" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D239" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E239" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Perubahan Fungsi Gas','4','Cetak BA Perubahan SN Botol - MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G239" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -22597,16 +23346,16 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B241" s="87">
         <v>1</v>
       </c>
       <c r="C241" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D241" t="s">
         <v>1418</v>
-      </c>
-      <c r="D241" t="s">
-        <v>1419</v>
       </c>
       <c r="E241" t="s">
         <v>1015</v>
@@ -22616,66 +23365,66 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','1','Buat TTBC','Manual','Adm Panggung');</v>
       </c>
       <c r="G241" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B242" s="87">
         <v>2</v>
       </c>
       <c r="C242" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E242" t="s">
         <v>1420</v>
-      </c>
-      <c r="D242" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E242" t="s">
-        <v>1421</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','2','Cek Barang','Manual','QC');</v>
       </c>
       <c r="G242" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B243" s="87">
         <v>3</v>
       </c>
       <c r="C243" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E243" t="s">
         <v>1422</v>
-      </c>
-      <c r="D243" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1423</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','3','Release','Manual','GM Plant');</v>
       </c>
       <c r="G243" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B244" s="87">
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D244" t="s">
         <v>998</v>
@@ -22688,90 +23437,90 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','4','Create Retur Req à type ZRR','VA01','Sales Counter');</v>
       </c>
       <c r="G244" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B245" s="87">
         <v>5</v>
       </c>
       <c r="C245" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D245" t="s">
         <v>1425</v>
       </c>
-      <c r="D245" t="s">
-        <v>1426</v>
-      </c>
       <c r="E245" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','5','GR ke Gen Sloc','VL01N / VL02N','QC');</v>
       </c>
       <c r="G245" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B246" s="87">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D246" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E246" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','6','Transfer Status di Gen Sloc','ZMMENH014','QC');</v>
       </c>
       <c r="G246" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B247" s="87">
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D247" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E247" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','7','Transfer Status di Gen Sloc ke EMPTY','ZMMENH014','QC');</v>
       </c>
       <c r="G247" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B248" s="87">
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D248" t="s">
         <v>1044</v>
@@ -22784,21 +23533,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','8','Create Nota Retur','VF01','Adm Penjualan');</v>
       </c>
       <c r="G248" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="90" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B249" s="87">
         <v>9</v>
       </c>
       <c r="C249" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D249" t="s">
         <v>1487</v>
-      </c>
-      <c r="D249" t="s">
-        <v>1488</v>
       </c>
       <c r="E249" t="s">
         <v>1046</v>
@@ -22808,7 +23557,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Retur Penjualan','9','Cetak Nota Retur Faktur Pajak','ZFIRPT040','Adm Penjualan');</v>
       </c>
       <c r="G249" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -22820,95 +23569,95 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="90" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B251" s="87">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D251" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','1','Create SPI','Manual','');</v>
       </c>
       <c r="G251" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="90" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B252" s="87">
         <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D252" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E252" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','2','Create BA Perubahan SN Botol - MP','Manual','Adm Botol');</v>
       </c>
       <c r="G252" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="90" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B253" s="87">
         <v>3</v>
       </c>
       <c r="C253" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D253" t="s">
         <v>1467</v>
       </c>
-      <c r="D253" t="s">
-        <v>1468</v>
-      </c>
       <c r="E253" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','3','Input BA Perubahan SN Botol – MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G253" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="90" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B254" s="87">
         <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D254" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E254" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('BA Perubahan SN Botol','4','Cetak BA Perubahan SN Botol - MP','ZSDENH026','Adm Botol');</v>
       </c>
       <c r="G254" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -22920,64 +23669,64 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B256" s="87">
         <v>1</v>
       </c>
       <c r="C256" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D256" t="s">
         <v>1507</v>
       </c>
-      <c r="D256" t="s">
-        <v>1508</v>
-      </c>
       <c r="E256" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','1','Buat Notifikasi','IW21','Maintc.');</v>
       </c>
       <c r="G256" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B257" s="87">
         <v>2</v>
       </c>
       <c r="C257" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D257" t="s">
         <v>1512</v>
       </c>
-      <c r="D257" t="s">
-        <v>1513</v>
-      </c>
       <c r="E257" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','2','Buat Maintenance Order','IW22','Maintc.');</v>
       </c>
       <c r="G257" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B258" s="87">
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D258" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E258" t="s">
         <v>32</v>
@@ -22987,18 +23736,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','3','Release ( PR ) Purchase Requisition Jasa','ME54N','Gudang');</v>
       </c>
       <c r="G258" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B259" s="87" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C259" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -23011,21 +23760,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','4a','Buat Purchase Order Service refer ke Purchase Requisition  Material pada langkah 3','ME21N','Pembelian');</v>
       </c>
       <c r="G259" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B260" s="87" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C260" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D260" t="s">
         <v>1176</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1177</v>
       </c>
       <c r="E260" t="s">
         <v>34</v>
@@ -23035,18 +23784,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','4b','Release PO','ME29N','Pembelian');</v>
       </c>
       <c r="G260" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B261" s="87">
         <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D261" t="s">
         <v>11</v>
@@ -23059,21 +23808,21 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','5','Goods Receipt untuk PO langkah ke 4 (Jasa &amp; Material)','MIGO','Gudang');</v>
       </c>
       <c r="G261" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B262" s="87">
         <v>6</v>
       </c>
       <c r="C262" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D262" t="s">
         <v>1522</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1523</v>
       </c>
       <c r="E262" t="s">
         <v>32</v>
@@ -23083,97 +23832,97 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','6','Sekaligus lakukan GI untuk Material','ZMMENH013','Gudang');</v>
       </c>
       <c r="G262" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B263" s="87">
         <v>7</v>
       </c>
       <c r="C263" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D263" t="s">
         <v>1526</v>
       </c>
-      <c r="D263" t="s">
-        <v>1527</v>
-      </c>
       <c r="E263" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','7','Confirmation Work Time after finish working','IW41','Maintc.');</v>
       </c>
       <c r="G263" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B264" s="87">
         <v>8</v>
       </c>
       <c r="C264" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D264" t="s">
         <v>1530</v>
       </c>
-      <c r="D264" t="s">
-        <v>1531</v>
-      </c>
       <c r="E264" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','8','Lakukan Settlement ke Cost Center, Internal Order atau FXA (Fix Asset)','KO88','Tim PM &amp; CO');</v>
       </c>
       <c r="G264" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B265" s="87">
         <v>9</v>
       </c>
       <c r="C265" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D265" t="s">
         <v>1535</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1536</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','9','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
       </c>
       <c r="G265" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B266" s="87">
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D266" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pekerjaan Jasa External &amp; Pembelian Material','10','Close MO','IW32 / IW38','');</v>
       </c>
       <c r="G266" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -23183,145 +23932,145 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('','','','','');</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B268" s="87">
+    <row r="268" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B268" s="95">
         <v>1</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="94" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D268" s="94" t="s">
         <v>1507</v>
       </c>
-      <c r="D268" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E268" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F268" t="str">
+      <c r="E268" s="94" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F268" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','1','Buat Notifikasi','IW21','Tim PM');</v>
       </c>
-      <c r="G268" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B269" s="87">
+      <c r="G268" s="94" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B269" s="95">
         <v>2</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="94" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D269" s="94" t="s">
         <v>1512</v>
       </c>
-      <c r="D269" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F269" t="str">
+      <c r="E269" s="94" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F269" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','2','Buat Maintenance Order','IW22','Tim PM');</v>
       </c>
-      <c r="G269" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B270" s="87">
+      <c r="G269" s="94" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B270" s="95">
         <v>3</v>
       </c>
-      <c r="C270" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D270" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E270" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F270" t="str">
+      <c r="C270" s="94" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D270" s="94" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E270" s="94" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F270" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','3','Lakukan Goods Issue untuk internal material refer ke M Order (movement type 261)','ZMMENH013','Tim MM ');</v>
       </c>
-      <c r="G270" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B271" s="87">
+      <c r="G270" s="94" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B271" s="95">
         <v>4</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="94" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D271" s="94" t="s">
         <v>1526</v>
       </c>
-      <c r="D271" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E271" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F271" t="str">
+      <c r="E271" s="94" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F271" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','4','Confirmation Work Time after finish working','IW41','Maintc.');</v>
       </c>
-      <c r="G271" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B272" s="87">
+      <c r="G271" s="94" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B272" s="95">
         <v>5</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="94" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D272" s="94" t="s">
         <v>1530</v>
       </c>
-      <c r="D272" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E272" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F272" t="str">
+      <c r="E272" s="94" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F272" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA (Fix Asset)','KO88','Tim PM &amp; CO');</v>
       </c>
-      <c r="G272" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B273" s="87">
+      <c r="G272" s="94" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B273" s="95">
         <v>6</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="94" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D273" s="94" t="s">
         <v>1535</v>
       </c>
-      <c r="D273" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F273" t="str">
+      <c r="F273" s="94" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Plant Maintenance','6','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
       </c>
-      <c r="G273" t="s">
-        <v>1577</v>
+      <c r="G273" s="94" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -23333,167 +24082,167 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B275" s="87">
         <v>1</v>
       </c>
       <c r="C275" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D275" t="s">
         <v>1507</v>
       </c>
-      <c r="D275" t="s">
-        <v>1508</v>
-      </c>
       <c r="E275" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','1','Buat Notifikasi','IW21','Tim PM');</v>
       </c>
       <c r="G275" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B276" s="87">
         <v>2</v>
       </c>
       <c r="C276" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D276" t="s">
         <v>1512</v>
       </c>
-      <c r="D276" t="s">
-        <v>1513</v>
-      </c>
       <c r="E276" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','2','Buat Maintenance Order','IW22','Tim PM');</v>
       </c>
       <c r="G276" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B277" s="87" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C277" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E277" t="s">
         <v>1567</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1568</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3a','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim MM');</v>
       </c>
       <c r="G277" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B278" s="87" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C278" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D278" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E278" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','3b','Lakukan Goods Issue untuk internal material (Refer NO. Reservasi)','ZMMENH013','Tim PM');</v>
       </c>
       <c r="G278" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B279" s="87">
         <v>4</v>
       </c>
       <c r="C279" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D279" t="s">
         <v>1526</v>
       </c>
-      <c r="D279" t="s">
-        <v>1527</v>
-      </c>
       <c r="E279" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','4','Confirmation Work Time after finish working','IW41','Maintc.');</v>
       </c>
       <c r="G279" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B280" s="87">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D280" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E280" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','5','Lakukan Settlement ke Cost Center, Internal Order atau FXA','KO88','Tim PM &amp; CO');</v>
       </c>
       <c r="G280" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B281" s="87">
         <v>6</v>
       </c>
       <c r="C281" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D281" t="s">
         <v>1535</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1536</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Material Ambil Dari Gudang (PM Internal)','6','Teco ( Tecnical Complete )','IW32 / IW38','');</v>
       </c>
       <c r="G281" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
@@ -23505,7 +24254,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B283" s="90">
         <v>1</v>
@@ -23524,18 +24273,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','1','Create TTBK &amp; GR ke Sloc Empty Pack','ZMMENH025','Adm Panggung');</v>
       </c>
       <c r="G283" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B284" s="90">
         <v>2</v>
       </c>
       <c r="C284" s="90" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D284" s="90" t="s">
         <v>998</v>
@@ -23548,12 +24297,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','2','Buat Sales Order (SO) - ZNP','VA01','Sales Counter');</v>
       </c>
       <c r="G284" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B285" s="90">
         <v>3</v>
@@ -23572,18 +24321,18 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','3','Sales Counter buat perintah packing ','ZSDENH039','Sales Counter');</v>
       </c>
       <c r="G285" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B286" s="90">
         <v>4</v>
       </c>
       <c r="C286" s="90" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D286" s="90" t="s">
         <v>1018</v>
@@ -23596,12 +24345,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','4','Transfer Packing dari Sloc Empty Pack ke sloc Distribusi','ZSDENH040','Distribusi/ Logistik');</v>
       </c>
       <c r="G286" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B287" s="90">
         <v>5</v>
@@ -23620,12 +24369,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','5','Cetak Packing List (dilampirkan di SO)','ZSDENH040','Distribusi/ Logistik');</v>
       </c>
       <c r="G287" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B288" s="90">
         <v>6</v>
@@ -23644,12 +24393,12 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','6','Posting (GI) Surat Jalan ','VL02N','Distribusi/ Logistik');</v>
       </c>
       <c r="G288" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B289" s="90">
         <v>7</v>
@@ -23668,7 +24417,7 @@
         <v>INSERT INTO m_uat_step(uat_scn,no_step,bp_step,tcode_step,user_step) VALUES ('Pengembalian Botol Rusak MR','7','Cetak Surat Jalan','VL03N','Sales Counter');</v>
       </c>
       <c r="G289" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
